--- a/etf_dfs/SPY.xlsx
+++ b/etf_dfs/SPY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>SPY</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J349"/>
+  <dimension ref="A1:K350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>33970</v>
       </c>
@@ -456,13 +462,13 @@
         <v>43.9375</v>
       </c>
       <c r="F2">
-        <v>25.6271858215332</v>
+        <v>25.6271915435791</v>
       </c>
       <c r="G2">
         <v>1003200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>34001</v>
       </c>
@@ -479,7 +485,7 @@
         <v>44.40625</v>
       </c>
       <c r="F3">
-        <v>25.90058517456055</v>
+        <v>25.90057563781738</v>
       </c>
       <c r="G3">
         <v>66200</v>
@@ -488,7 +494,7 @@
         <v>0.01066856330014221</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>34029</v>
       </c>
@@ -505,7 +511,7 @@
         <v>45.1875</v>
       </c>
       <c r="F4">
-        <v>26.48073577880859</v>
+        <v>26.4807300567627</v>
       </c>
       <c r="G4">
         <v>111600</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.01759324419422947</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.00489648881776203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>34060</v>
       </c>
@@ -531,7 +540,7 @@
         <v>44.03125</v>
       </c>
       <c r="F5">
-        <v>25.80315971374512</v>
+        <v>25.80317306518555</v>
       </c>
       <c r="G5">
         <v>88500</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.02558782849239283</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.0231915293072927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>34090</v>
       </c>
@@ -557,7 +569,7 @@
         <v>45.21875</v>
       </c>
       <c r="F6">
-        <v>26.49905776977539</v>
+        <v>26.49905586242676</v>
       </c>
       <c r="G6">
         <v>79100</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.02696948190205828</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.02299091640624035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>34121</v>
       </c>
@@ -583,7 +598,7 @@
         <v>45.0625</v>
       </c>
       <c r="F7">
-        <v>26.59465026855469</v>
+        <v>26.59464836120605</v>
       </c>
       <c r="G7">
         <v>437600</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.003455425017277136</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.02049516847038143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>34151</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.004854368932038833</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.01878872555910963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>34182</v>
       </c>
@@ -635,7 +656,7 @@
         <v>46.5625</v>
       </c>
       <c r="F9">
-        <v>27.47989463806152</v>
+        <v>27.47990226745605</v>
       </c>
       <c r="G9">
         <v>66500</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.03832752613240409</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02160802524537474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>34213</v>
       </c>
@@ -661,7 +685,7 @@
         <v>45.9375</v>
       </c>
       <c r="F10">
-        <v>27.27997207641602</v>
+        <v>27.27996826171875</v>
       </c>
       <c r="G10">
         <v>99300</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>-0.01342281879194629</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.02145712729253306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>34243</v>
       </c>
@@ -687,7 +714,7 @@
         <v>46.84375</v>
       </c>
       <c r="F11">
-        <v>27.81816101074219</v>
+        <v>27.81813621520996</v>
       </c>
       <c r="G11">
         <v>80700</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.01972789115646267</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02060276354378498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>34274</v>
       </c>
@@ -713,7 +743,7 @@
         <v>46.34375</v>
       </c>
       <c r="F12">
-        <v>27.52121925354004</v>
+        <v>27.52122497558594</v>
       </c>
       <c r="G12">
         <v>230000</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.01067378252168116</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.02024159645840381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>34304</v>
       </c>
@@ -739,7 +772,7 @@
         <v>46.59375</v>
       </c>
       <c r="F13">
-        <v>27.85908889770508</v>
+        <v>27.85907554626465</v>
       </c>
       <c r="G13">
         <v>312900</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.005394470667565709</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.0192029074837841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>34335</v>
       </c>
@@ -765,7 +801,7 @@
         <v>48.21875</v>
       </c>
       <c r="F14">
-        <v>28.8306999206543</v>
+        <v>28.83069610595703</v>
       </c>
       <c r="G14">
         <v>313800</v>
@@ -774,13 +810,16 @@
         <v>0.03487592219986579</v>
       </c>
       <c r="I14">
-        <v>0.09743954480796591</v>
+        <v>0.02017566995329033</v>
       </c>
       <c r="J14">
         <v>0.09743954480796591</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.09743954480796591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>34366</v>
       </c>
@@ -797,7 +836,7 @@
         <v>46.8125</v>
       </c>
       <c r="F15">
-        <v>27.98988342285156</v>
+        <v>27.98989677429199</v>
       </c>
       <c r="G15">
         <v>333000</v>
@@ -806,13 +845,16 @@
         <v>-0.02916396629941675</v>
       </c>
       <c r="I15">
-        <v>0.05418719211822665</v>
+        <v>0.02188997768287842</v>
       </c>
       <c r="J15">
         <v>0.05418719211822665</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.05418719211822665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>34394</v>
       </c>
@@ -838,13 +880,16 @@
         <v>-0.04739652870493993</v>
       </c>
       <c r="I16">
-        <v>-0.01313969571230977</v>
+        <v>0.02528275767173947</v>
       </c>
       <c r="J16">
         <v>-0.01313969571230977</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.01313969571230977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>34425</v>
       </c>
@@ -870,13 +915,16 @@
         <v>0.01121233356692364</v>
       </c>
       <c r="I17">
-        <v>0.02413058907026255</v>
+        <v>0.02449559513066757</v>
       </c>
       <c r="J17">
         <v>0.02413058907026255</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.02413058907026255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>34455</v>
       </c>
@@ -902,13 +950,16 @@
         <v>0.01593901593901603</v>
       </c>
       <c r="I18">
-        <v>0.01313061506565316</v>
+        <v>0.02391966731237996</v>
       </c>
       <c r="J18">
         <v>0.01313061506565316</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.01313061506565316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>34486</v>
       </c>
@@ -925,7 +976,7 @@
         <v>44.46875</v>
       </c>
       <c r="F19">
-        <v>26.91870498657227</v>
+        <v>26.9187068939209</v>
       </c>
       <c r="G19">
         <v>271900</v>
@@ -934,13 +985,16 @@
         <v>-0.02933151432469305</v>
       </c>
       <c r="I19">
-        <v>-0.0131761442441054</v>
+        <v>0.0244426422117838</v>
       </c>
       <c r="J19">
         <v>-0.0131761442441054</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.0131761442441054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>34516</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>45.90625</v>
       </c>
       <c r="F20">
-        <v>27.78887939453125</v>
+        <v>27.78887176513672</v>
       </c>
       <c r="G20">
         <v>459100</v>
@@ -966,13 +1020,16 @@
         <v>0.03232607167955015</v>
       </c>
       <c r="I20">
-        <v>0.02369337979094066</v>
+        <v>0.02483653366895027</v>
       </c>
       <c r="J20">
         <v>0.02369337979094066</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.02369337979094066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>34547</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>47.65625</v>
       </c>
       <c r="F21">
-        <v>28.84821701049805</v>
+        <v>28.84820938110352</v>
       </c>
       <c r="G21">
         <v>356200</v>
@@ -998,13 +1055,16 @@
         <v>0.0381211708645337</v>
       </c>
       <c r="I21">
-        <v>0.02348993288590595</v>
+        <v>0.02546576033174765</v>
       </c>
       <c r="J21">
         <v>0.02348993288590595</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.02348993288590595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>34578</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>46.171875</v>
       </c>
       <c r="F22">
-        <v>28.11965370178223</v>
+        <v>28.11966323852539</v>
       </c>
       <c r="G22">
         <v>5200</v>
@@ -1030,13 +1090,16 @@
         <v>-0.0311475409836065</v>
       </c>
       <c r="I22">
-        <v>0.005102040816326481</v>
+        <v>0.02604309670136526</v>
       </c>
       <c r="J22">
         <v>0.005102040816326481</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.005102040816326481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>34608</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>47.484375</v>
       </c>
       <c r="F23">
-        <v>28.91898536682129</v>
+        <v>28.91900444030762</v>
       </c>
       <c r="G23">
         <v>36300</v>
@@ -1062,13 +1125,16 @@
         <v>0.02842639593908625</v>
       </c>
       <c r="I23">
-        <v>0.01367578385590384</v>
+        <v>0.02599207328520074</v>
       </c>
       <c r="J23">
         <v>0.01367578385590384</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.01367578385590384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>34639</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>45.59375</v>
       </c>
       <c r="F24">
-        <v>27.7675838470459</v>
+        <v>27.76756477355957</v>
       </c>
       <c r="G24">
         <v>218800</v>
@@ -1094,13 +1160,16 @@
         <v>-0.03981572885817708</v>
       </c>
       <c r="I24">
-        <v>-0.01618341200269724</v>
+        <v>0.02703304488346578</v>
       </c>
       <c r="J24">
         <v>-0.01618341200269724</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.01618341200269724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>34669</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>45.5625</v>
       </c>
       <c r="F25">
-        <v>27.96978569030762</v>
+        <v>27.96978950500488</v>
       </c>
       <c r="G25">
         <v>2209500</v>
@@ -1126,13 +1195,16 @@
         <v>-0.0006854009595613775</v>
       </c>
       <c r="I25">
-        <v>-0.02213279678068414</v>
+        <v>0.0264175955464124</v>
       </c>
       <c r="J25">
         <v>-0.02213279678068414</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.02213279678068414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>34700</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>47.09375</v>
       </c>
       <c r="F26">
-        <v>28.90977668762207</v>
+        <v>28.9097843170166</v>
       </c>
       <c r="G26">
         <v>127500</v>
@@ -1158,13 +1230,16 @@
         <v>0.03360768175582995</v>
       </c>
       <c r="I26">
-        <v>-0.02333117303953336</v>
+        <v>0.02663451097417787</v>
       </c>
       <c r="J26">
         <v>-0.02333117303953336</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.02333117303953336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>34731</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>49.015625</v>
       </c>
       <c r="F27">
-        <v>30.08959197998047</v>
+        <v>30.08958625793457</v>
       </c>
       <c r="G27">
         <v>493500</v>
@@ -1190,13 +1265,16 @@
         <v>0.04080955540809561</v>
       </c>
       <c r="I27">
-        <v>0.04706275033377838</v>
+        <v>0.0271350508738183</v>
       </c>
       <c r="J27">
         <v>0.04706275033377838</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.04706275033377838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>34759</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>50.109375</v>
       </c>
       <c r="F28">
-        <v>30.92749977111816</v>
+        <v>30.92750358581543</v>
       </c>
       <c r="G28">
         <v>541300</v>
@@ -1222,13 +1300,16 @@
         <v>0.02231431303793441</v>
       </c>
       <c r="I28">
-        <v>0.1236860546601262</v>
+        <v>0.02680931863811043</v>
       </c>
       <c r="J28">
         <v>0.1236860546601262</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.1236860546601262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>34790</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>51.59375</v>
       </c>
       <c r="F29">
-        <v>31.84366607666016</v>
+        <v>31.84366416931152</v>
       </c>
       <c r="G29">
         <v>130800</v>
@@ -1254,13 +1335,16 @@
         <v>0.02962270034299963</v>
       </c>
       <c r="I29">
-        <v>0.1441441441441442</v>
+        <v>0.02669832746702948</v>
       </c>
       <c r="J29">
         <v>0.1441441441441442</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.1441441441441442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>34820</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>53.640625</v>
       </c>
       <c r="F30">
-        <v>33.10697555541992</v>
+        <v>33.10700988769531</v>
       </c>
       <c r="G30">
         <v>564500</v>
@@ -1286,13 +1370,16 @@
         <v>0.03967292549969725</v>
       </c>
       <c r="I30">
-        <v>0.1708731241473398</v>
+        <v>0.02694718757323042</v>
       </c>
       <c r="J30">
         <v>0.1708731241473398</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.1708731241473398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>34851</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>54.40625</v>
       </c>
       <c r="F31">
-        <v>33.77674102783203</v>
+        <v>33.77673721313477</v>
       </c>
       <c r="G31">
         <v>714100</v>
@@ -1318,13 +1405,16 @@
         <v>0.0142732304107196</v>
       </c>
       <c r="I31">
-        <v>0.2234715390021083</v>
+        <v>0.02649146409532049</v>
       </c>
       <c r="J31">
         <v>0.2234715390021083</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.2234715390021083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>34881</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>56.15625</v>
       </c>
       <c r="F32">
-        <v>34.86318206787109</v>
+        <v>34.86317443847656</v>
       </c>
       <c r="G32">
         <v>342500</v>
@@ -1350,13 +1440,16 @@
         <v>0.03216542217116602</v>
       </c>
       <c r="I32">
-        <v>0.2232811436351259</v>
+        <v>0.02641005056596229</v>
       </c>
       <c r="J32">
         <v>0.2232811436351259</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.2232811436351259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>34912</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>56.40625</v>
       </c>
       <c r="F33">
-        <v>35.01839065551758</v>
+        <v>35.01836395263672</v>
       </c>
       <c r="G33">
         <v>491900</v>
@@ -1382,13 +1475,16 @@
         <v>0.004451864218141255</v>
       </c>
       <c r="I33">
-        <v>0.1836065573770491</v>
+        <v>0.02597658480786445</v>
       </c>
       <c r="J33">
         <v>0.1836065573770491</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.1836065573770491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>34943</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>58.484375</v>
       </c>
       <c r="F34">
-        <v>36.50233459472656</v>
+        <v>36.50234222412109</v>
       </c>
       <c r="G34">
         <v>606600</v>
@@ -1414,13 +1510,16 @@
         <v>0.03684210526315779</v>
       </c>
       <c r="I34">
-        <v>0.2666666666666666</v>
+        <v>0.02604348626835812</v>
       </c>
       <c r="J34">
         <v>0.2666666666666666</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.2666666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>34973</v>
       </c>
@@ -1446,13 +1545,16 @@
         <v>-0.002938819129040926</v>
       </c>
       <c r="I35">
-        <v>0.2280355380059229</v>
+        <v>0.02572180598384427</v>
       </c>
       <c r="J35">
         <v>0.2280355380059229</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.2280355380059229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>35004</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>60.90625</v>
       </c>
       <c r="F36">
-        <v>38.01391983032227</v>
+        <v>38.0139274597168</v>
       </c>
       <c r="G36">
         <v>286200</v>
@@ -1478,13 +1580,16 @@
         <v>0.04448017148981775</v>
       </c>
       <c r="I36">
-        <v>0.3358464701850583</v>
+        <v>0.02605229753598471</v>
       </c>
       <c r="J36">
         <v>0.3358464701850583</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.3358464701850583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>35034</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>61.484375</v>
       </c>
       <c r="F37">
-        <v>38.61200332641602</v>
+        <v>38.61199188232422</v>
       </c>
       <c r="G37">
         <v>339200</v>
@@ -1510,13 +1615,16 @@
         <v>0.009492047203694121</v>
       </c>
       <c r="I37">
-        <v>0.3494513031550068</v>
+        <v>0.0256664492111346</v>
       </c>
       <c r="J37">
         <v>0.3494513031550068</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.3494513031550068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>35065</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>63.671875</v>
       </c>
       <c r="F38">
-        <v>39.98574447631836</v>
+        <v>39.98575210571289</v>
       </c>
       <c r="G38">
         <v>498000</v>
@@ -1542,13 +1650,16 @@
         <v>0.03557814485387545</v>
       </c>
       <c r="I38">
-        <v>0.3520238885202389</v>
+        <v>0.02565473051766498</v>
       </c>
       <c r="J38">
         <v>0.3520238885202389</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.3520238885202389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>35096</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>63.875</v>
       </c>
       <c r="F39">
-        <v>40.11329650878906</v>
+        <v>40.11330413818359</v>
       </c>
       <c r="G39">
         <v>914300</v>
@@ -1574,13 +1685,16 @@
         <v>0.003190184049079781</v>
       </c>
       <c r="I39">
-        <v>0.303155881415365</v>
+        <v>0.02532584222638342</v>
       </c>
       <c r="J39">
         <v>0.303155881415365</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.303155881415365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>35125</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>64.6875</v>
       </c>
       <c r="F40">
-        <v>40.80398178100586</v>
+        <v>40.80398559570312</v>
       </c>
       <c r="G40">
         <v>457700</v>
@@ -1606,13 +1720,16 @@
         <v>0.01272015655577308</v>
       </c>
       <c r="I40">
-        <v>0.2909260991580918</v>
+        <v>0.02498390959805964</v>
       </c>
       <c r="J40">
         <v>0.2909260991580918</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.2909260991580918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>35156</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>65.390625</v>
       </c>
       <c r="F41">
-        <v>41.24748611450195</v>
+        <v>41.24750900268555</v>
       </c>
       <c r="G41">
         <v>184400</v>
@@ -1638,13 +1755,16 @@
         <v>0.01086956521739135</v>
       </c>
       <c r="I41">
-        <v>0.2674136886735312</v>
+        <v>0.02465304049732123</v>
       </c>
       <c r="J41">
         <v>0.2674136886735312</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.2674136886735312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>35186</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>66.875</v>
       </c>
       <c r="F42">
-        <v>42.18381500244141</v>
+        <v>42.18384552001953</v>
       </c>
       <c r="G42">
         <v>923500</v>
@@ -1670,13 +1790,16 @@
         <v>0.02270011947431305</v>
       </c>
       <c r="I42">
-        <v>0.2467229828138655</v>
+        <v>0.02441071594070025</v>
       </c>
       <c r="J42">
         <v>0.2467229828138655</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.2467229828138655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>35217</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>67.109375</v>
       </c>
       <c r="F43">
-        <v>42.55595016479492</v>
+        <v>42.55598068237305</v>
       </c>
       <c r="G43">
         <v>1060800</v>
@@ -1702,13 +1825,16 @@
         <v>0.003504672897196359</v>
       </c>
       <c r="I43">
-        <v>0.2334865020103389</v>
+        <v>0.02413091409184835</v>
       </c>
       <c r="J43">
         <v>0.2334865020103389</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.2334865020103389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>35247</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>64.09375</v>
       </c>
       <c r="F44">
-        <v>40.64367294311523</v>
+        <v>40.6436653137207</v>
       </c>
       <c r="G44">
         <v>767100</v>
@@ -1734,13 +1860,16 @@
         <v>-0.04493597206053546</v>
       </c>
       <c r="I44">
-        <v>0.1413466889259878</v>
+        <v>0.02533207178136953</v>
       </c>
       <c r="J44">
         <v>0.1413466889259878</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.1413466889259878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>35278</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>65.328125</v>
       </c>
       <c r="F45">
-        <v>41.42642593383789</v>
+        <v>41.42641067504883</v>
       </c>
       <c r="G45">
         <v>1500900</v>
@@ -1766,13 +1895,16 @@
         <v>0.01925889809848846</v>
       </c>
       <c r="I45">
-        <v>0.1581717451523545</v>
+        <v>0.02507430787574502</v>
       </c>
       <c r="J45">
         <v>0.1581717451523545</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.1581717451523545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>35309</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>68.625</v>
       </c>
       <c r="F46">
-        <v>43.74102783203125</v>
+        <v>43.74103164672852</v>
       </c>
       <c r="G46">
         <v>578200</v>
@@ -1798,13 +1930,16 @@
         <v>0.0504663955991389</v>
       </c>
       <c r="I46">
-        <v>0.1733903286134117</v>
+        <v>0.02553628523282435</v>
       </c>
       <c r="J46">
         <v>0.1733903286134117</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.1733903286134117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>35339</v>
       </c>
@@ -1830,13 +1965,16 @@
         <v>0.0323315118397085</v>
       </c>
       <c r="I47">
-        <v>0.214898177920686</v>
+        <v>0.0254532623334637</v>
       </c>
       <c r="J47">
         <v>0.214898177920686</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.214898177920686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>35370</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>76.015625</v>
       </c>
       <c r="F48">
-        <v>48.45174407958984</v>
+        <v>48.45173263549805</v>
       </c>
       <c r="G48">
         <v>1073400</v>
@@ -1862,13 +2000,16 @@
         <v>0.07300397000441117</v>
       </c>
       <c r="I48">
-        <v>0.2480759363776295</v>
+        <v>0.02677827325492669</v>
       </c>
       <c r="J48">
         <v>0.2480759363776295</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.2480759363776295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>35400</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>73.84375</v>
       </c>
       <c r="F49">
-        <v>47.2987174987793</v>
+        <v>47.29873657226562</v>
       </c>
       <c r="G49">
         <v>1378100</v>
@@ -1894,13 +2035,16 @@
         <v>-0.02857142857142858</v>
       </c>
       <c r="I49">
-        <v>0.2010165184243964</v>
+        <v>0.02714948746318915</v>
       </c>
       <c r="J49">
         <v>0.2010165184243964</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.2010165184243964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>35431</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>78.40625</v>
       </c>
       <c r="F50">
-        <v>50.22112655639648</v>
+        <v>50.22109222412109</v>
       </c>
       <c r="G50">
         <v>3208100</v>
@@ -1926,13 +2070,16 @@
         <v>0.06178586542530673</v>
       </c>
       <c r="I50">
-        <v>0.2314110429447853</v>
+        <v>0.02782375279765224</v>
       </c>
       <c r="J50">
         <v>0.2314110429447853</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.2314110429447853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>35462</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>79.15625</v>
       </c>
       <c r="F51">
-        <v>50.70148849487305</v>
+        <v>50.70148086547852</v>
       </c>
       <c r="G51">
         <v>2961200</v>
@@ -1958,13 +2105,16 @@
         <v>0.009565563969708979</v>
       </c>
       <c r="I51">
-        <v>0.2392367906066537</v>
+        <v>0.0275356215017462</v>
       </c>
       <c r="J51">
         <v>0.2392367906066537</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.2392367906066537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>35490</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>75.375</v>
       </c>
       <c r="F52">
-        <v>48.46441650390625</v>
+        <v>48.46440124511719</v>
       </c>
       <c r="G52">
         <v>4270700</v>
@@ -1990,13 +2140,16 @@
         <v>-0.04776944334780897</v>
       </c>
       <c r="I52">
-        <v>0.1652173913043478</v>
+        <v>0.02855305729450108</v>
       </c>
       <c r="J52">
         <v>0.1652173913043478</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.1652173913043478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>35521</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>80.09375</v>
       </c>
       <c r="F53">
-        <v>51.49842834472656</v>
+        <v>51.49847793579102</v>
       </c>
       <c r="G53">
         <v>3372200</v>
@@ -2022,13 +2175,16 @@
         <v>0.06260364842454402</v>
       </c>
       <c r="I53">
-        <v>0.2248506571087217</v>
+        <v>0.02916641449148289</v>
       </c>
       <c r="J53">
         <v>0.2248506571087217</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.2248506571087217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>35551</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>85.15625</v>
       </c>
       <c r="F54">
-        <v>54.75354385375977</v>
+        <v>54.7535285949707</v>
       </c>
       <c r="G54">
         <v>2143300</v>
@@ -2054,13 +2210,16 @@
         <v>0.06320717908700746</v>
       </c>
       <c r="I54">
-        <v>0.2733644859813085</v>
+        <v>0.02973079108521713</v>
       </c>
       <c r="J54">
         <v>0.2733644859813085</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.2733644859813085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>35582</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>88.3125</v>
       </c>
       <c r="F55">
-        <v>57.0040168762207</v>
+        <v>57.00404739379883</v>
       </c>
       <c r="G55">
         <v>2384900</v>
@@ -2086,13 +2245,16 @@
         <v>0.03706422018348632</v>
       </c>
       <c r="I55">
-        <v>0.3159487776484284</v>
+        <v>0.02962487209658529</v>
       </c>
       <c r="J55">
         <v>0.3159487776484284</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.3159487776484284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>35612</v>
       </c>
@@ -2118,13 +2280,16 @@
         <v>0.07926397735314938</v>
       </c>
       <c r="I56">
-        <v>0.4870794734275963</v>
+        <v>0.03067099178623164</v>
       </c>
       <c r="J56">
         <v>0.4870794734275963</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.4870794734275963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>35643</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>90.375</v>
       </c>
       <c r="F57">
-        <v>58.33535003662109</v>
+        <v>58.33534240722656</v>
       </c>
       <c r="G57">
         <v>2652300</v>
@@ -2150,13 +2315,16 @@
         <v>-0.05180327868852463</v>
       </c>
       <c r="I57">
-        <v>0.3834011002152595</v>
+        <v>0.03168894971756956</v>
       </c>
       <c r="J57">
         <v>0.3834011002152595</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.3834011002152595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>35674</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>94.375</v>
       </c>
       <c r="F58">
-        <v>61.14067459106445</v>
+        <v>61.14071655273438</v>
       </c>
       <c r="G58">
         <v>4137600</v>
@@ -2182,13 +2350,16 @@
         <v>0.04426002766251735</v>
       </c>
       <c r="I58">
-        <v>0.3752276867030966</v>
+        <v>0.03166419144106324</v>
       </c>
       <c r="J58">
         <v>0.3752276867030966</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.3752276867030966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>35704</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>92.0625</v>
       </c>
       <c r="F59">
-        <v>59.64256286621094</v>
+        <v>59.642578125</v>
       </c>
       <c r="G59">
         <v>7072700</v>
@@ -2214,13 +2385,16 @@
         <v>-0.02450331125827809</v>
       </c>
       <c r="I59">
-        <v>0.2995147772386413</v>
+        <v>0.03179691434796938</v>
       </c>
       <c r="J59">
         <v>0.2995147772386413</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0.2995147772386413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>35735</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>95.625</v>
       </c>
       <c r="F60">
-        <v>61.95052337646484</v>
+        <v>61.95054626464844</v>
       </c>
       <c r="G60">
         <v>1564700</v>
@@ -2246,13 +2420,16 @@
         <v>0.0386965376782078</v>
       </c>
       <c r="I60">
-        <v>0.2579650565262077</v>
+        <v>0.03168918482704353</v>
       </c>
       <c r="J60">
         <v>0.2579650565262077</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.2579650565262077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>35765</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>97.0625</v>
       </c>
       <c r="F61">
-        <v>63.13200759887695</v>
+        <v>63.13201904296875</v>
       </c>
       <c r="G61">
         <v>4359500</v>
@@ -2278,13 +2455,16 @@
         <v>0.01503267973856204</v>
       </c>
       <c r="I61">
-        <v>0.3144308082945408</v>
+        <v>0.03141510860383613</v>
       </c>
       <c r="J61">
         <v>0.3144308082945408</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.3144308082945408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>35796</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>98.3125</v>
       </c>
       <c r="F62">
-        <v>63.94506454467773</v>
+        <v>63.94506072998047</v>
       </c>
       <c r="G62">
         <v>3649100</v>
@@ -2310,13 +2490,16 @@
         <v>0.0128783000643915</v>
       </c>
       <c r="I62">
-        <v>0.2538860103626943</v>
+        <v>0.03114808141269616</v>
       </c>
       <c r="J62">
         <v>0.2538860103626943</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.2538860103626943</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>35827</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>105.125</v>
       </c>
       <c r="F63">
-        <v>68.3760986328125</v>
+        <v>68.37606048583984</v>
       </c>
       <c r="G63">
         <v>3442900</v>
@@ -2342,13 +2525,16 @@
         <v>0.06929434202161477</v>
       </c>
       <c r="I63">
-        <v>0.3280694828266877</v>
+        <v>0.03168877247166579</v>
       </c>
       <c r="J63">
         <v>0.3280694828266877</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.3280694828266877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>35855</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>109.9375</v>
       </c>
       <c r="F64">
-        <v>71.71170806884766</v>
+        <v>71.71170043945312</v>
       </c>
       <c r="G64">
         <v>5926500</v>
@@ -2374,13 +2560,16 @@
         <v>0.04577883472057076</v>
       </c>
       <c r="I64">
-        <v>0.4585406301824213</v>
+        <v>0.03167177651926935</v>
       </c>
       <c r="J64">
         <v>0.4585406301824213</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.4585406301824213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>35886</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>111.34375</v>
       </c>
       <c r="F65">
-        <v>72.62902069091797</v>
+        <v>72.62899017333984</v>
       </c>
       <c r="G65">
         <v>8684500</v>
@@ -2406,13 +2595,16 @@
         <v>0.01279135872654913</v>
       </c>
       <c r="I65">
-        <v>0.3901677721420211</v>
+        <v>0.03141702941769656</v>
       </c>
       <c r="J65">
         <v>0.3901677721420211</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.3901677721420211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>35916</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>109.03125</v>
       </c>
       <c r="F66">
-        <v>71.12062835693359</v>
+        <v>71.12059020996094</v>
       </c>
       <c r="G66">
         <v>4772600</v>
@@ -2438,13 +2630,16 @@
         <v>-0.0207690148751053</v>
       </c>
       <c r="I66">
-        <v>0.2803669724770643</v>
+        <v>0.03149202539020558</v>
       </c>
       <c r="J66">
         <v>0.2803669724770643</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.2803669724770643</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>35947</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>113.3125</v>
       </c>
       <c r="F67">
-        <v>74.1484375</v>
+        <v>74.14841461181641</v>
       </c>
       <c r="G67">
         <v>4284800</v>
@@ -2470,13 +2665,16 @@
         <v>0.03926626540556044</v>
       </c>
       <c r="I67">
-        <v>0.2830856334041048</v>
+        <v>0.03139221235237767</v>
       </c>
       <c r="J67">
         <v>0.2830856334041048</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.2830856334041048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>35977</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>111.78125</v>
       </c>
       <c r="F68">
-        <v>73.14640808105469</v>
+        <v>73.14640045166016</v>
       </c>
       <c r="G68">
         <v>7680500</v>
@@ -2502,13 +2700,16 @@
         <v>-0.01351351351351349</v>
       </c>
       <c r="I68">
-        <v>0.1727868852459016</v>
+        <v>0.03134915803362208</v>
       </c>
       <c r="J68">
         <v>0.1727868852459016</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.1727868852459016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>36008</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>96</v>
       </c>
       <c r="F69">
-        <v>62.81960296630859</v>
+        <v>62.81959533691406</v>
       </c>
       <c r="G69">
         <v>22563100</v>
@@ -2534,13 +2735,16 @@
         <v>-0.1411797595750629</v>
       </c>
       <c r="I69">
-        <v>0.06224066390041494</v>
+        <v>0.03647843839879884</v>
       </c>
       <c r="J69">
         <v>0.06224066390041494</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.06224066390041494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>36039</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>101.75</v>
       </c>
       <c r="F70">
-        <v>66.81741333007812</v>
+        <v>66.81742095947266</v>
       </c>
       <c r="G70">
         <v>7908400</v>
@@ -2566,13 +2770,16 @@
         <v>0.05989583333333326</v>
       </c>
       <c r="I70">
-        <v>0.07814569536423832</v>
+        <v>0.03666043806226926</v>
       </c>
       <c r="J70">
         <v>0.07814569536423832</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.07814569536423832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>36069</v>
       </c>
@@ -2598,13 +2805,16 @@
         <v>0.08108108108108114</v>
       </c>
       <c r="I71">
-        <v>0.1948404616429056</v>
+        <v>0.03729879780555571</v>
       </c>
       <c r="J71">
         <v>0.1948404616429056</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0.1948404616429056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>36100</v>
       </c>
@@ -2630,13 +2840,16 @@
         <v>0.05568181818181817</v>
       </c>
       <c r="I72">
-        <v>0.2143790849673202</v>
+        <v>0.03735982027788046</v>
       </c>
       <c r="J72">
         <v>0.2143790849673202</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.2143790849673202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>36130</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>123.3125</v>
       </c>
       <c r="F73">
-        <v>81.24618530273438</v>
+        <v>81.24610900878906</v>
       </c>
       <c r="G73">
         <v>6790500</v>
@@ -2662,13 +2875,16 @@
         <v>0.06189451022604953</v>
       </c>
       <c r="I73">
-        <v>0.2704443013522215</v>
+        <v>0.03751286140127596</v>
       </c>
       <c r="J73">
         <v>0.2704443013522215</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.2704443013522215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>36161</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>127.65625</v>
       </c>
       <c r="F74">
-        <v>84.10811614990234</v>
+        <v>84.10807037353516</v>
       </c>
       <c r="G74">
         <v>6456800</v>
@@ -2694,13 +2910,16 @@
         <v>0.03522554485554985</v>
       </c>
       <c r="I74">
-        <v>0.2984742530197075</v>
+        <v>0.03732136792340692</v>
       </c>
       <c r="J74">
         <v>0.2984742530197075</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.2984742530197075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>36192</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>123.5625</v>
       </c>
       <c r="F75">
-        <v>81.41082763671875</v>
+        <v>81.41087341308594</v>
       </c>
       <c r="G75">
         <v>9621300</v>
@@ -2726,13 +2945,16 @@
         <v>-0.03206854345165233</v>
       </c>
       <c r="I75">
-        <v>0.1753864447086801</v>
+        <v>0.03747923563595804</v>
       </c>
       <c r="J75">
         <v>0.1753864447086801</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.1753864447086801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>36220</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>128.375</v>
       </c>
       <c r="F76">
-        <v>84.78681182861328</v>
+        <v>84.78679656982422</v>
       </c>
       <c r="G76">
         <v>7413600</v>
@@ -2758,13 +2980,16 @@
         <v>0.03894790085988875</v>
       </c>
       <c r="I76">
-        <v>0.167708925525867</v>
+        <v>0.03732588778510944</v>
       </c>
       <c r="J76">
         <v>0.167708925525867</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.167708925525867</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>36251</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>133.25</v>
       </c>
       <c r="F77">
-        <v>88.00658416748047</v>
+        <v>88.00654602050781</v>
       </c>
       <c r="G77">
         <v>10991900</v>
@@ -2790,13 +3015,16 @@
         <v>0.03797468354430378</v>
       </c>
       <c r="I77">
-        <v>0.1967443165871456</v>
+        <v>0.03716523887650729</v>
       </c>
       <c r="J77">
         <v>0.1967443165871456</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.1967443165871456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>36281</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>130.203125</v>
       </c>
       <c r="F78">
-        <v>85.99424743652344</v>
+        <v>85.99420166015625</v>
       </c>
       <c r="G78">
         <v>8748000</v>
@@ -2822,13 +3050,16 @@
         <v>-0.02286585365853655</v>
       </c>
       <c r="I78">
-        <v>0.1941817139581541</v>
+        <v>0.03717930536695161</v>
       </c>
       <c r="J78">
         <v>0.1941817139581541</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.1941817139581541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>36312</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>137</v>
       </c>
       <c r="F79">
-        <v>90.75645446777344</v>
+        <v>90.75640106201172</v>
       </c>
       <c r="G79">
         <v>16856100</v>
@@ -2854,13 +3085,16 @@
         <v>0.05220208808352345</v>
       </c>
       <c r="I79">
-        <v>0.209045780474352</v>
+        <v>0.03717528466134702</v>
       </c>
       <c r="J79">
         <v>0.209045780474352</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.209045780474352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>36342</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>132.75</v>
       </c>
       <c r="F80">
-        <v>87.94100952148438</v>
+        <v>87.94098663330078</v>
       </c>
       <c r="G80">
         <v>5994300</v>
@@ -2886,13 +3120,16 @@
         <v>-0.03102189781021902</v>
       </c>
       <c r="I80">
-        <v>0.1875873637126084</v>
+        <v>0.03730796606665677</v>
       </c>
       <c r="J80">
         <v>0.1875873637126084</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.1875873637126084</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>36373</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>132.0625</v>
       </c>
       <c r="F81">
-        <v>87.485595703125</v>
+        <v>87.48556518554688</v>
       </c>
       <c r="G81">
         <v>11453700</v>
@@ -2918,13 +3155,16 @@
         <v>-0.005178907721280601</v>
       </c>
       <c r="I81">
-        <v>0.3756510416666667</v>
+        <v>0.03713731142151431</v>
       </c>
       <c r="J81">
         <v>0.3756510416666667</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.3756510416666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>36404</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>128.75</v>
       </c>
       <c r="F82">
-        <v>85.53140258789062</v>
+        <v>85.53141021728516</v>
       </c>
       <c r="G82">
         <v>7498900</v>
@@ -2950,13 +3190,16 @@
         <v>-0.02508282063416944</v>
       </c>
       <c r="I82">
-        <v>0.2653562653562653</v>
+        <v>0.03716883983940492</v>
       </c>
       <c r="J82">
         <v>0.2653562653562653</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.2653562653562653</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>36434</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>137</v>
       </c>
       <c r="F83">
-        <v>91.01206207275391</v>
+        <v>91.01202392578125</v>
       </c>
       <c r="G83">
         <v>10988600</v>
@@ -2982,13 +3225,16 @@
         <v>0.06407766990291264</v>
       </c>
       <c r="I83">
-        <v>0.2454545454545454</v>
+        <v>0.03734892861185036</v>
       </c>
       <c r="J83">
         <v>0.2454545454545454</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0.2454545454545454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>36465</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>139.28125</v>
       </c>
       <c r="F84">
-        <v>92.52754211425781</v>
+        <v>92.52752685546875</v>
       </c>
       <c r="G84">
         <v>7682000</v>
@@ -3014,13 +3260,16 @@
         <v>0.01665145985401462</v>
       </c>
       <c r="I84">
-        <v>0.1994079655543595</v>
+        <v>0.03711820544397355</v>
       </c>
       <c r="J84">
         <v>0.1994079655543595</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0.1994079655543595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>36495</v>
       </c>
@@ -3046,13 +3295,16 @@
         <v>0.05452097823648194</v>
       </c>
       <c r="I85">
-        <v>0.1910795742524074</v>
+        <v>0.03714718356623521</v>
       </c>
       <c r="J85">
         <v>0.1910795742524074</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>0.1910795742524074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>36526</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>139.5625</v>
       </c>
       <c r="F86">
-        <v>92.94190979003906</v>
+        <v>92.94194030761719</v>
       </c>
       <c r="G86">
         <v>10768700</v>
@@ -3078,13 +3330,16 @@
         <v>-0.04978723404255314</v>
       </c>
       <c r="I86">
-        <v>0.09326805385556924</v>
+        <v>0.0376002055525786</v>
       </c>
       <c r="J86">
         <v>0.09326805385556924</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0.09326805385556924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>36557</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>137.4375</v>
       </c>
       <c r="F87">
-        <v>91.52678680419922</v>
+        <v>91.52680206298828</v>
       </c>
       <c r="G87">
         <v>8242500</v>
@@ -3110,13 +3365,16 @@
         <v>-0.01522615315718767</v>
       </c>
       <c r="I87">
-        <v>0.1122913505311078</v>
+        <v>0.0375151002714165</v>
       </c>
       <c r="J87">
         <v>0.1122913505311078</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.1122913505311078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>36586</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>150.375</v>
       </c>
       <c r="F88">
-        <v>100.3970794677734</v>
+        <v>100.3970718383789</v>
       </c>
       <c r="G88">
         <v>9249100</v>
@@ -3142,13 +3400,16 @@
         <v>0.09413369713506148</v>
       </c>
       <c r="I88">
-        <v>0.1713729308666017</v>
+        <v>0.03827665700985382</v>
       </c>
       <c r="J88">
         <v>0.1713729308666017</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.1713729308666017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>36617</v>
       </c>
@@ -3174,13 +3435,16 @@
         <v>-0.03512053200332499</v>
       </c>
       <c r="I89">
-        <v>0.08888367729831148</v>
+        <v>0.03843307476199773</v>
       </c>
       <c r="J89">
         <v>0.08888367729831148</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.08888367729831148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>36647</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>142.8125</v>
       </c>
       <c r="F90">
-        <v>95.34799194335938</v>
+        <v>95.34797668457031</v>
       </c>
       <c r="G90">
         <v>6056500</v>
@@ -3206,13 +3470,16 @@
         <v>-0.01572259315098001</v>
       </c>
       <c r="I90">
-        <v>0.09684387375495018</v>
+        <v>0.03834768423540274</v>
       </c>
       <c r="J90">
         <v>0.09684387375495018</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.09684387375495018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>36678</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>145.28125</v>
       </c>
       <c r="F91">
-        <v>97.22458648681641</v>
+        <v>97.22465515136719</v>
       </c>
       <c r="G91">
         <v>7420200</v>
@@ -3238,13 +3505,16 @@
         <v>0.01728665207877467</v>
       </c>
       <c r="I91">
-        <v>0.06044708029197077</v>
+        <v>0.03813056521957815</v>
       </c>
       <c r="J91">
         <v>0.06044708029197077</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.06044708029197077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>36708</v>
       </c>
@@ -3270,13 +3540,16 @@
         <v>-0.01570230157023011</v>
       </c>
       <c r="I92">
-        <v>0.07721280602636527</v>
+        <v>0.03804698405799631</v>
       </c>
       <c r="J92">
         <v>0.07721280602636527</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.07721280602636527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>36739</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>152.34375</v>
       </c>
       <c r="F93">
-        <v>101.9509887695312</v>
+        <v>101.9510192871094</v>
       </c>
       <c r="G93">
         <v>4863100</v>
@@ -3302,13 +3575,16 @@
         <v>0.06534090909090917</v>
       </c>
       <c r="I93">
-        <v>0.1535731187884524</v>
+        <v>0.03821709313460248</v>
       </c>
       <c r="J93">
         <v>0.1535731187884524</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.1535731187884524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>36770</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>143.625</v>
       </c>
       <c r="F94">
-        <v>96.35770416259766</v>
+        <v>96.35768127441406</v>
       </c>
       <c r="G94">
         <v>9333600</v>
@@ -3334,13 +3610,16 @@
         <v>-0.0572307692307692</v>
       </c>
       <c r="I94">
-        <v>0.1155339805825242</v>
+        <v>0.0387349781187875</v>
       </c>
       <c r="J94">
         <v>0.1155339805825242</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.1155339805825242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>36800</v>
       </c>
@@ -3366,13 +3645,16 @@
         <v>-0.004677980852915598</v>
       </c>
       <c r="I95">
-        <v>0.04345346715328469</v>
+        <v>0.03857101700206189</v>
       </c>
       <c r="J95">
         <v>0.04345346715328469</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.04345346715328469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>36831</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>132.28125</v>
       </c>
       <c r="F96">
-        <v>88.7471923828125</v>
+        <v>88.74721527099609</v>
       </c>
       <c r="G96">
         <v>11201600</v>
@@ -3398,13 +3680,16 @@
         <v>-0.07465296753743578</v>
       </c>
       <c r="I96">
-        <v>-0.05025802109041955</v>
+        <v>0.03942599137352622</v>
       </c>
       <c r="J96">
         <v>-0.05025802109041955</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>-0.05025802109041955</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>36861</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>131.1875</v>
       </c>
       <c r="F97">
-        <v>88.28338623046875</v>
+        <v>88.28337860107422</v>
       </c>
       <c r="G97">
         <v>8774600</v>
@@ -3430,13 +3715,16 @@
         <v>-0.008268367587999093</v>
       </c>
       <c r="I97">
-        <v>-0.1068085106382979</v>
+        <v>0.03927394814206361</v>
       </c>
       <c r="J97">
         <v>-0.1068085106382979</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>-0.1068085106382979</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>36892</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>137.0200042724609</v>
       </c>
       <c r="F98">
-        <v>92.20838928222656</v>
+        <v>92.20839691162109</v>
       </c>
       <c r="G98">
         <v>9706900</v>
@@ -3462,13 +3750,16 @@
         <v>0.04445929888488576</v>
       </c>
       <c r="I98">
-        <v>-0.0182176138112965</v>
+        <v>0.03920391133725639</v>
       </c>
       <c r="J98">
         <v>-0.0182176138112965</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>-0.0182176138112965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>36923</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>123.9499969482422</v>
       </c>
       <c r="F99">
-        <v>83.41286468505859</v>
+        <v>83.41285705566406</v>
       </c>
       <c r="G99">
         <v>14825800</v>
@@ -3494,13 +3785,16 @@
         <v>-0.09538758514581092</v>
       </c>
       <c r="I99">
-        <v>-0.09813553834839694</v>
+        <v>0.04051350297502188</v>
       </c>
       <c r="J99">
         <v>-0.09813553834839694</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>-0.09813553834839694</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>36951</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>116.6900024414062</v>
       </c>
       <c r="F100">
-        <v>78.73866271972656</v>
+        <v>78.7386474609375</v>
       </c>
       <c r="G100">
         <v>9183600</v>
@@ -3526,13 +3820,16 @@
         <v>-0.05857196196517456</v>
       </c>
       <c r="I100">
-        <v>-0.2240066338061097</v>
+        <v>0.04092219216550831</v>
       </c>
       <c r="J100">
         <v>-0.2240066338061097</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>-0.2240066338061097</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>36982</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F101">
-        <v>85.466064453125</v>
+        <v>85.46607208251953</v>
       </c>
       <c r="G101">
         <v>10766900</v>
@@ -3558,13 +3855,16 @@
         <v>0.08544006351966082</v>
       </c>
       <c r="I101">
-        <v>-0.1270471425398449</v>
+        <v>0.04139722429910524</v>
       </c>
       <c r="J101">
         <v>-0.1270471425398449</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>-0.1270471425398449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>37012</v>
       </c>
@@ -3590,13 +3890,16 @@
         <v>-0.005605611032202917</v>
       </c>
       <c r="I102">
-        <v>-0.1180744196184355</v>
+        <v>0.04122357006002568</v>
       </c>
       <c r="J102">
         <v>-0.1180744196184355</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>-0.1180744196184355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>37043</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>122.5999984741211</v>
       </c>
       <c r="F103">
-        <v>82.96180725097656</v>
+        <v>82.9617919921875</v>
       </c>
       <c r="G103">
         <v>9824200</v>
@@ -3622,13 +3925,16 @@
         <v>-0.02659784482168537</v>
       </c>
       <c r="I103">
-        <v>-0.1561196061148903</v>
+        <v>0.04119115228964891</v>
       </c>
       <c r="J103">
         <v>-0.1561196061148903</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>-0.1561196061148903</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>37073</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>121.3499984741211</v>
       </c>
       <c r="F104">
-        <v>82.11590576171875</v>
+        <v>82.11594390869141</v>
       </c>
       <c r="G104">
         <v>11918100</v>
@@ -3654,13 +3960,16 @@
         <v>-0.0101957586913336</v>
       </c>
       <c r="I104">
-        <v>-0.1513986120690832</v>
+        <v>0.04104072297869821</v>
       </c>
       <c r="J104">
         <v>-0.1513986120690832</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>-0.1513986120690832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>37104</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>114.1500015258789</v>
       </c>
       <c r="F105">
-        <v>77.2437744140625</v>
+        <v>77.24378204345703</v>
       </c>
       <c r="G105">
         <v>15985400</v>
@@ -3686,13 +3995,16 @@
         <v>-0.05933248486836729</v>
       </c>
       <c r="I105">
-        <v>-0.2507076822916666</v>
+        <v>0.04142040216205418</v>
       </c>
       <c r="J105">
         <v>-0.2507076822916666</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>-0.2507076822916666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>37135</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>104.4400024414062</v>
       </c>
       <c r="F106">
-        <v>70.93834686279297</v>
+        <v>70.93833923339844</v>
       </c>
       <c r="G106">
         <v>21687200</v>
@@ -3718,13 +4030,16 @@
         <v>-0.0850635037641353</v>
       </c>
       <c r="I106">
-        <v>-0.2728285295637511</v>
+        <v>0.04226342793228405</v>
       </c>
       <c r="J106">
         <v>-0.2728285295637511</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>-0.2728285295637511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>37165</v>
       </c>
@@ -3750,13 +4065,16 @@
         <v>0.0130218362558403</v>
       </c>
       <c r="I107">
-        <v>-0.2598972351828068</v>
+        <v>0.04206135531227171</v>
       </c>
       <c r="J107">
         <v>-0.2598972351828068</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>-0.2598972351828068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>37196</v>
       </c>
@@ -3782,13 +4100,16 @@
         <v>0.07797731344075731</v>
       </c>
       <c r="I108">
-        <v>-0.137821852668025</v>
+        <v>0.0423888932523706</v>
       </c>
       <c r="J108">
         <v>-0.137821852668025</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>-0.137821852668025</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>37226</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>114.3000030517578</v>
       </c>
       <c r="F109">
-        <v>77.90252685546875</v>
+        <v>77.90256500244141</v>
       </c>
       <c r="G109">
         <v>14619500</v>
@@ -3814,13 +4135,16 @@
         <v>0.002192020984747689</v>
       </c>
       <c r="I109">
-        <v>-0.1287279424353859</v>
+        <v>0.04219511595257324</v>
       </c>
       <c r="J109">
         <v>-0.1287279424353859</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>-0.1287279424353859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>37257</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>113.1800003051758</v>
       </c>
       <c r="F110">
-        <v>77.13920593261719</v>
+        <v>77.13921356201172</v>
       </c>
       <c r="G110">
         <v>19909200</v>
@@ -3846,13 +4170,16 @@
         <v>-0.009798798921071494</v>
       </c>
       <c r="I110">
-        <v>-0.1739892221859801</v>
+        <v>0.04204008224260213</v>
       </c>
       <c r="J110">
         <v>-0.1739892221859801</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>-0.1739892221859801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>37288</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>111.1500015258789</v>
       </c>
       <c r="F111">
-        <v>75.75562286376953</v>
+        <v>75.755615234375</v>
       </c>
       <c r="G111">
         <v>23755400</v>
@@ -3878,13 +4205,16 @@
         <v>-0.01793602026703689</v>
       </c>
       <c r="I111">
-        <v>-0.1032674121622462</v>
+        <v>0.04192853675799957</v>
       </c>
       <c r="J111">
         <v>-0.1032674121622462</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>-0.1032674121622462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>37316</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>114.5199966430664</v>
       </c>
       <c r="F112">
-        <v>78.27608489990234</v>
+        <v>78.27605438232422</v>
       </c>
       <c r="G112">
         <v>17532900</v>
@@ -3910,13 +4240,16 @@
         <v>0.03031934386796098</v>
       </c>
       <c r="I112">
-        <v>-0.01859633004489369</v>
+        <v>0.04178326069394631</v>
       </c>
       <c r="J112">
         <v>-0.01859633004489369</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>-0.01859633004489369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>37347</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>107.8600006103516</v>
       </c>
       <c r="F113">
-        <v>73.72389984130859</v>
+        <v>73.72386169433594</v>
       </c>
       <c r="G113">
         <v>19473500</v>
@@ -3942,13 +4275,16 @@
         <v>-0.05815574771166454</v>
       </c>
       <c r="I113">
-        <v>-0.14842888447967</v>
+        <v>0.04208743549219073</v>
       </c>
       <c r="J113">
         <v>-0.14842888447967</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>-0.14842888447967</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>37377</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>107.2200012207031</v>
       </c>
       <c r="F114">
-        <v>73.28643798828125</v>
+        <v>73.28642272949219</v>
       </c>
       <c r="G114">
         <v>19826300</v>
@@ -3974,13 +4310,16 @@
         <v>-0.005933611960197038</v>
       </c>
       <c r="I114">
-        <v>-0.1487097751597085</v>
+        <v>0.0419212074915631</v>
       </c>
       <c r="J114">
         <v>-0.1487097751597085</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>-0.1487097751597085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>37408</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>98.95999908447266</v>
       </c>
       <c r="F115">
-        <v>67.87735748291016</v>
+        <v>67.87733459472656</v>
       </c>
       <c r="G115">
         <v>28184200</v>
@@ -4006,13 +4345,16 @@
         <v>-0.07703788511649023</v>
       </c>
       <c r="I115">
-        <v>-0.1928221833921023</v>
+        <v>0.04250901192722544</v>
       </c>
       <c r="J115">
         <v>-0.1928221833921023</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>-0.1928221833921023</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>37438</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>91.16000366210938</v>
       </c>
       <c r="F116">
-        <v>62.52727890014648</v>
+        <v>62.52725601196289</v>
       </c>
       <c r="G116">
         <v>44669900</v>
@@ -4038,13 +4380,16 @@
         <v>-0.07881967961322611</v>
       </c>
       <c r="I116">
-        <v>-0.2487844679985718</v>
+        <v>0.0430966362139473</v>
       </c>
       <c r="J116">
         <v>-0.2487844679985718</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>-0.2487844679985718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>37469</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>91.77999877929688</v>
       </c>
       <c r="F117">
-        <v>62.9525146484375</v>
+        <v>62.95255279541016</v>
       </c>
       <c r="G117">
         <v>30366700</v>
@@ -4070,13 +4415,16 @@
         <v>0.0068011747727168</v>
       </c>
       <c r="I117">
-        <v>-0.1959702360714427</v>
+        <v>0.04290723033709173</v>
       </c>
       <c r="J117">
         <v>-0.1959702360714427</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>-0.1959702360714427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>37500</v>
       </c>
@@ -4102,13 +4450,16 @@
         <v>-0.1088472215802971</v>
       </c>
       <c r="I118">
-        <v>-0.2168709402183918</v>
+        <v>0.04406145363185998</v>
       </c>
       <c r="J118">
         <v>-0.2168709402183918</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>-0.2168709402183918</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>37530</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>88.51999664306641</v>
       </c>
       <c r="F119">
-        <v>60.98868179321289</v>
+        <v>60.98866271972656</v>
       </c>
       <c r="G119">
         <v>41620600</v>
@@ -4134,13 +4485,16 @@
         <v>0.08228384462900062</v>
       </c>
       <c r="I119">
-        <v>-0.1633270879986455</v>
+        <v>0.04442929352630241</v>
       </c>
       <c r="J119">
         <v>-0.1633270879986455</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>-0.1633270879986455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>37561</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>93.98000335693359</v>
       </c>
       <c r="F120">
-        <v>64.75048828125</v>
+        <v>64.75050354003906</v>
       </c>
       <c r="G120">
         <v>19385700</v>
@@ -4166,13 +4520,16 @@
         <v>0.0616810542354993</v>
       </c>
       <c r="I120">
-        <v>-0.1759754419797439</v>
+        <v>0.04452453627894567</v>
       </c>
       <c r="J120">
         <v>-0.1759754419797439</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>-0.1759754419797439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>37591</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>88.23000335693359</v>
       </c>
       <c r="F121">
-        <v>61.08757400512695</v>
+        <v>61.08757019042969</v>
       </c>
       <c r="G121">
         <v>34036600</v>
@@ -4198,13 +4555,16 @@
         <v>-0.06118322828912492</v>
       </c>
       <c r="I121">
-        <v>-0.2280839807416198</v>
+        <v>0.04477977320619677</v>
       </c>
       <c r="J121">
         <v>-0.2280839807416198</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>-0.2280839807416198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>37622</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>86.05999755859375</v>
       </c>
       <c r="F122">
-        <v>59.58513259887695</v>
+        <v>59.58514022827148</v>
       </c>
       <c r="G122">
         <v>55317000</v>
@@ -4230,13 +4590,16 @@
         <v>-0.02459487380456182</v>
       </c>
       <c r="I122">
-        <v>-0.2396183307426782</v>
+        <v>0.04468370950874199</v>
       </c>
       <c r="J122">
         <v>-0.2396183307426782</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>-0.2396183307426782</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>37653</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>84.90000152587891</v>
       </c>
       <c r="F123">
-        <v>58.78200912475586</v>
+        <v>58.7819938659668</v>
       </c>
       <c r="G123">
         <v>43666800</v>
@@ -4262,13 +4625,16 @@
         <v>-0.01347892244506588</v>
       </c>
       <c r="I123">
-        <v>-0.2361673381883692</v>
+        <v>0.04471967980626599</v>
       </c>
       <c r="J123">
         <v>-0.2361673381883692</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>-0.2361673381883692</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>37681</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>84.73999786376953</v>
       </c>
       <c r="F124">
-        <v>58.90778350830078</v>
+        <v>58.90777587890625</v>
       </c>
       <c r="G124">
         <v>61119500</v>
@@ -4294,13 +4660,16 @@
         <v>-0.001884613182964512</v>
       </c>
       <c r="I124">
-        <v>-0.2600419110394717</v>
+        <v>0.04471412598426462</v>
       </c>
       <c r="J124">
         <v>-0.2600419110394717</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>-0.2600419110394717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>37712</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>91.91000366210938</v>
       </c>
       <c r="F125">
-        <v>63.89207458496094</v>
+        <v>63.89209747314453</v>
       </c>
       <c r="G125">
         <v>48709100</v>
@@ -4326,13 +4695,16 @@
         <v>0.08461182415730706</v>
       </c>
       <c r="I125">
-        <v>-0.1478768483032201</v>
+        <v>0.04518379369586472</v>
       </c>
       <c r="J125">
         <v>-0.1478768483032201</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>-0.1478768483032201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>37742</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>96.94999694824219</v>
       </c>
       <c r="F126">
-        <v>67.39568328857422</v>
+        <v>67.39564514160156</v>
       </c>
       <c r="G126">
         <v>52529500</v>
@@ -4358,13 +4730,16 @@
         <v>0.05483617762285631</v>
       </c>
       <c r="I126">
-        <v>-0.09578440734505322</v>
+        <v>0.04535766269348477</v>
       </c>
       <c r="J126">
         <v>-0.09578440734505322</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>-0.09578440734505322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>37773</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>97.62999725341797</v>
       </c>
       <c r="F127">
-        <v>68.11354064941406</v>
+        <v>68.11353302001953</v>
       </c>
       <c r="G127">
         <v>33349000</v>
@@ -4390,13 +4765,16 @@
         <v>0.007013928072002074</v>
       </c>
       <c r="I127">
-        <v>-0.01343979227323344</v>
+        <v>0.04534666204384512</v>
       </c>
       <c r="J127">
         <v>-0.01343979227323344</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>-0.01343979227323344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>37803</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>99.38999938964844</v>
       </c>
       <c r="F128">
-        <v>69.34142303466797</v>
+        <v>69.3414306640625</v>
       </c>
       <c r="G128">
         <v>54937200</v>
@@ -4422,13 +4800,16 @@
         <v>0.01802726811168531</v>
       </c>
       <c r="I128">
-        <v>0.09028077442870774</v>
+        <v>0.04534241073712029</v>
       </c>
       <c r="J128">
         <v>0.09028077442870774</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.09028077442870774</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>37834</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>101.4400024414062</v>
       </c>
       <c r="F129">
-        <v>70.77165985107422</v>
+        <v>70.77163696289062</v>
       </c>
       <c r="G129">
         <v>28706600</v>
@@ -4454,13 +4835,16 @@
         <v>0.02062584831820935</v>
       </c>
       <c r="I129">
-        <v>0.1052517301219273</v>
+        <v>0.04527061838543495</v>
       </c>
       <c r="J129">
         <v>0.1052517301219273</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.1052517301219273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>37865</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>99.94999694824219</v>
       </c>
       <c r="F130">
-        <v>69.99980163574219</v>
+        <v>69.99980926513672</v>
       </c>
       <c r="G130">
         <v>70764500</v>
@@ -4486,13 +4870,16 @@
         <v>-0.01468853960275407</v>
       </c>
       <c r="I130">
-        <v>0.222031982264806</v>
+        <v>0.04527569001126375</v>
       </c>
       <c r="J130">
         <v>0.222031982264806</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.222031982264806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>37895</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>105.3000030517578</v>
       </c>
       <c r="F131">
-        <v>73.74667358398438</v>
+        <v>73.74668121337891</v>
       </c>
       <c r="G131">
         <v>25761600</v>
@@ -4518,13 +4905,16 @@
         <v>0.05352682608170611</v>
       </c>
       <c r="I131">
-        <v>0.18956176056301</v>
+        <v>0.0454570011748936</v>
       </c>
       <c r="J131">
         <v>0.18956176056301</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.18956176056301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>37926</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>106.4499969482422</v>
       </c>
       <c r="F132">
-        <v>74.55208587646484</v>
+        <v>74.55207061767578</v>
       </c>
       <c r="G132">
         <v>10507500</v>
@@ -4550,13 +4940,16 @@
         <v>0.01092111930822193</v>
       </c>
       <c r="I132">
-        <v>0.1326877329845146</v>
+        <v>0.04542595484444643</v>
       </c>
       <c r="J132">
         <v>0.1326877329845146</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.1326877329845146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>37956</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>111.2799987792969</v>
       </c>
       <c r="F133">
-        <v>78.30300140380859</v>
+        <v>78.30301666259766</v>
       </c>
       <c r="G133">
         <v>31501800</v>
@@ -4582,13 +4975,16 @@
         <v>0.04537343325057219</v>
       </c>
       <c r="I133">
-        <v>0.2612489464509569</v>
+        <v>0.04555320102019138</v>
       </c>
       <c r="J133">
         <v>0.2612489464509569</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2612489464509569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>37987</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>113.4800033569336</v>
       </c>
       <c r="F134">
-        <v>79.85108184814453</v>
+        <v>79.85105133056641</v>
       </c>
       <c r="G134">
         <v>30984400</v>
@@ -4614,13 +5010,16 @@
         <v>0.01976999102956523</v>
       </c>
       <c r="I134">
-        <v>0.3186149962376073</v>
+        <v>0.0455000430533359</v>
       </c>
       <c r="J134">
         <v>0.3186149962376073</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.3186149962376073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>38018</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>115.0199966430664</v>
       </c>
       <c r="F135">
-        <v>80.93471527099609</v>
+        <v>80.93466186523438</v>
       </c>
       <c r="G135">
         <v>39312000</v>
@@ -4646,13 +5045,16 @@
         <v>0.01357061368150481</v>
       </c>
       <c r="I135">
-        <v>0.3547702541325213</v>
+        <v>0.04537224077526334</v>
       </c>
       <c r="J135">
         <v>0.3547702541325213</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.3547702541325213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>38047</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>113.0999984741211</v>
       </c>
       <c r="F136">
-        <v>79.86264801025391</v>
+        <v>79.86270141601562</v>
       </c>
       <c r="G136">
         <v>48517600</v>
@@ -4678,13 +5080,16 @@
         <v>-0.01669273365485746</v>
       </c>
       <c r="I136">
-        <v>0.3346707732509495</v>
+        <v>0.04514006528945066</v>
       </c>
       <c r="J136">
         <v>0.3346707732509495</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.3346707732509495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>38078</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>110.9599990844727</v>
       </c>
       <c r="F137">
-        <v>78.35157775878906</v>
+        <v>78.35153961181641</v>
       </c>
       <c r="G137">
         <v>48681400</v>
@@ -4710,13 +5115,16 @@
         <v>-0.01892130343519061</v>
       </c>
       <c r="I137">
-        <v>0.2072679214810738</v>
+        <v>0.04521033472619133</v>
       </c>
       <c r="J137">
         <v>0.2072679214810738</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2072679214810738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>38108</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>112.8600006103516</v>
       </c>
       <c r="F138">
-        <v>79.69320678710938</v>
+        <v>79.69321441650391</v>
       </c>
       <c r="G138">
         <v>23367200</v>
@@ -4742,13 +5150,16 @@
         <v>0.017123301564129</v>
       </c>
       <c r="I138">
-        <v>0.1641052518093744</v>
+        <v>0.04521208913771855</v>
       </c>
       <c r="J138">
         <v>0.1641052518093744</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.1641052518093744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>38139</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>114.5299987792969</v>
       </c>
       <c r="F139">
-        <v>81.16761779785156</v>
+        <v>81.16763305664062</v>
       </c>
       <c r="G139">
         <v>52230600</v>
@@ -4774,13 +5185,16 @@
         <v>0.01479707744031455</v>
       </c>
       <c r="I139">
-        <v>0.1731025504590726</v>
+        <v>0.04508052665239868</v>
       </c>
       <c r="J139">
         <v>0.1731025504590726</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.1731025504590726</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>38169</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>110.8399963378906</v>
       </c>
       <c r="F140">
-        <v>78.55250549316406</v>
+        <v>78.552490234375</v>
       </c>
       <c r="G140">
         <v>41581700</v>
@@ -4806,13 +5220,16 @@
         <v>-0.03221865433280069</v>
       </c>
       <c r="I140">
-        <v>0.1152027066964114</v>
+        <v>0.04518401240187058</v>
       </c>
       <c r="J140">
         <v>0.1152027066964114</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1152027066964114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>38200</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>111.1100006103516</v>
       </c>
       <c r="F141">
-        <v>78.74387359619141</v>
+        <v>78.74386596679688</v>
       </c>
       <c r="G141">
         <v>44125300</v>
@@ -4838,13 +5255,16 @@
         <v>0.002435982329319408</v>
       </c>
       <c r="I141">
-        <v>0.09532726672134006</v>
+        <v>0.04510409161236382</v>
       </c>
       <c r="J141">
         <v>0.09532726672134006</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.09532726672134006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>38231</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>111.7600021362305</v>
       </c>
       <c r="F142">
-        <v>79.53423309326172</v>
+        <v>79.53424072265625</v>
       </c>
       <c r="G142">
         <v>43536700</v>
@@ -4870,13 +5290,16 @@
         <v>0.005850072201496692</v>
       </c>
       <c r="I142">
-        <v>0.1181591350533402</v>
+        <v>0.04495978731746671</v>
       </c>
       <c r="J142">
         <v>0.1181591350533402</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.1181591350533402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>38261</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>113.1999969482422</v>
       </c>
       <c r="F143">
-        <v>80.55898284912109</v>
+        <v>80.55897521972656</v>
       </c>
       <c r="G143">
         <v>48820200</v>
@@ -4902,13 +5325,16 @@
         <v>0.01288470637515227</v>
       </c>
       <c r="I143">
-        <v>0.0750236815529941</v>
+        <v>0.04492400366584703</v>
       </c>
       <c r="J143">
         <v>0.0750236815529941</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.0750236815529941</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>38292</v>
       </c>
@@ -4934,13 +5360,16 @@
         <v>0.04143111809049449</v>
       </c>
       <c r="I144">
-        <v>0.1074683209898877</v>
+        <v>0.04480518145951226</v>
       </c>
       <c r="J144">
         <v>0.1074683209898877</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.1074683209898877</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>38322</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="F145">
-        <v>86.67984008789062</v>
+        <v>86.67980194091797</v>
       </c>
       <c r="G145">
         <v>28648800</v>
@@ -4966,13 +5395,16 @@
         <v>0.02527782994623773</v>
       </c>
       <c r="I145">
-        <v>0.08617904450471059</v>
+        <v>0.04482092553331312</v>
       </c>
       <c r="J145">
         <v>0.08617904450471059</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.08617904450471059</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>38353</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>118.1600036621094</v>
       </c>
       <c r="F146">
-        <v>84.73639678955078</v>
+        <v>84.73641204833984</v>
       </c>
       <c r="G146">
         <v>52532700</v>
@@ -4998,13 +5430,16 @@
         <v>-0.0224207745750985</v>
       </c>
       <c r="I146">
-        <v>0.04124074873751615</v>
+        <v>0.04485603626403197</v>
       </c>
       <c r="J146">
         <v>0.04124074873751615</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.04124074873751615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>38384</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>120.629997253418</v>
       </c>
       <c r="F147">
-        <v>86.50769805908203</v>
+        <v>86.50770568847656</v>
       </c>
       <c r="G147">
         <v>69381300</v>
@@ -5030,13 +5465,16 @@
         <v>0.02090380428873195</v>
       </c>
       <c r="I147">
-        <v>0.04877413296890176</v>
+        <v>0.04477303828706806</v>
       </c>
       <c r="J147">
         <v>0.04877413296890176</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.04877413296890176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>38412</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>117.9599990844727</v>
       </c>
       <c r="F148">
-        <v>84.92525482177734</v>
+        <v>84.92523193359375</v>
       </c>
       <c r="G148">
         <v>64575400</v>
@@ -5062,13 +5500,16 @@
         <v>-0.02213378288765289</v>
       </c>
       <c r="I148">
-        <v>0.0429708282574699</v>
+        <v>0.04484191307616676</v>
       </c>
       <c r="J148">
         <v>0.0429708282574699</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.0429708282574699</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>38443</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>115.75</v>
       </c>
       <c r="F149">
-        <v>83.33413696289062</v>
+        <v>83.33415222167969</v>
       </c>
       <c r="G149">
         <v>103993800</v>
@@ -5094,13 +5535,16 @@
         <v>-0.01873515684660232</v>
       </c>
       <c r="I149">
-        <v>0.04316871805199618</v>
+        <v>0.04486476378773564</v>
       </c>
       <c r="J149">
         <v>0.04316871805199618</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>0.04316871805199618</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>38473</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>119.4800033569336</v>
       </c>
       <c r="F150">
-        <v>86.01953125</v>
+        <v>86.01953887939453</v>
       </c>
       <c r="G150">
         <v>43377200</v>
@@ -5126,13 +5570,16 @@
         <v>0.03222465103182381</v>
       </c>
       <c r="I150">
-        <v>0.05865676688623767</v>
+        <v>0.04482538342196051</v>
       </c>
       <c r="J150">
         <v>0.05865676688623767</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>0.05865676688623767</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>38504</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>119.1800003051758</v>
       </c>
       <c r="F151">
-        <v>86.14990234375</v>
+        <v>86.14989471435547</v>
       </c>
       <c r="G151">
         <v>62288800</v>
@@ -5158,13 +5605,16 @@
         <v>-0.0025109059535392</v>
       </c>
       <c r="I151">
-        <v>0.04060072972531525</v>
+        <v>0.04483089350816023</v>
       </c>
       <c r="J151">
         <v>0.04060072972531525</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>0.04060072972531525</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>38534</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="F152">
-        <v>89.44609069824219</v>
+        <v>89.44608306884766</v>
       </c>
       <c r="G152">
         <v>62358100</v>
@@ -5190,13 +5640,16 @@
         <v>0.03826143268096405</v>
       </c>
       <c r="I152">
-        <v>0.1163839945154261</v>
+        <v>0.04486244928562225</v>
       </c>
       <c r="J152">
         <v>0.1163839945154261</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>0.1163839945154261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>38565</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>122.5800018310547</v>
       </c>
       <c r="F153">
-        <v>88.60759735107422</v>
+        <v>88.60757446289062</v>
       </c>
       <c r="G153">
         <v>102945200</v>
@@ -5222,13 +5675,16 @@
         <v>-0.009374463009058198</v>
       </c>
       <c r="I153">
-        <v>0.1032310427296903</v>
+        <v>0.04488838446302273</v>
       </c>
       <c r="J153">
         <v>0.1032310427296903</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>0.1032310427296903</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>38596</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>123.0400009155273</v>
       </c>
       <c r="F154">
-        <v>89.31871032714844</v>
+        <v>89.31870269775391</v>
       </c>
       <c r="G154">
         <v>47824200</v>
@@ -5254,13 +5710,16 @@
         <v>0.003752643804873168</v>
       </c>
       <c r="I154">
-        <v>0.1009305526457225</v>
+        <v>0.04480817314563437</v>
       </c>
       <c r="J154">
         <v>0.1009305526457225</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>0.1009305526457225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>38626</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>120.129997253418</v>
       </c>
       <c r="F155">
-        <v>87.20624542236328</v>
+        <v>87.20623016357422</v>
       </c>
       <c r="G155">
         <v>77698900</v>
@@ -5286,13 +5745,16 @@
         <v>-0.02365087484116024</v>
       </c>
       <c r="I155">
-        <v>0.06121908561838874</v>
+        <v>0.04488746386146537</v>
       </c>
       <c r="J155">
         <v>0.06121908561838874</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>0.06121908561838874</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>38657</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>125.4100036621094</v>
       </c>
       <c r="F156">
-        <v>91.03915405273438</v>
+        <v>91.03917694091797</v>
       </c>
       <c r="G156">
         <v>56007200</v>
@@ -5318,13 +5780,16 @@
         <v>0.04395243926921166</v>
       </c>
       <c r="I156">
-        <v>0.06378831377889749</v>
+        <v>0.04488379156813498</v>
       </c>
       <c r="J156">
         <v>0.06378831377889749</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>0.06378831377889749</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>38687</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>124.5100021362305</v>
       </c>
       <c r="F157">
-        <v>90.86495971679688</v>
+        <v>90.86493682861328</v>
       </c>
       <c r="G157">
         <v>44645600</v>
@@ -5350,13 +5815,16 @@
         <v>-0.00717647316480241</v>
       </c>
       <c r="I157">
-        <v>0.03011499385236327</v>
+        <v>0.04490194483593051</v>
       </c>
       <c r="J157">
         <v>0.03011499385236327</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>0.03011499385236327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>38718</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>127.5</v>
       </c>
       <c r="F158">
-        <v>93.0469970703125</v>
+        <v>93.04701995849609</v>
       </c>
       <c r="G158">
         <v>72937000</v>
@@ -5382,13 +5850,16 @@
         <v>0.02401411784169816</v>
       </c>
       <c r="I158">
-        <v>0.07904532877808035</v>
+        <v>0.04485227527719331</v>
       </c>
       <c r="J158">
         <v>0.07904532877808035</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>0.07904532877808035</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>38749</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>128.2299957275391</v>
       </c>
       <c r="F159">
-        <v>93.57973480224609</v>
+        <v>93.57971954345703</v>
       </c>
       <c r="G159">
         <v>74394800</v>
@@ -5414,13 +5885,16 @@
         <v>0.005725456686580976</v>
       </c>
       <c r="I159">
-        <v>0.06300255862689874</v>
+        <v>0.04485115292309035</v>
       </c>
       <c r="J159">
         <v>0.06300255862689874</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>0.06300255862689874</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>38777</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>129.8300018310547</v>
       </c>
       <c r="F160">
-        <v>95.12416839599609</v>
+        <v>95.12413787841797</v>
       </c>
       <c r="G160">
         <v>62925600</v>
@@ -5446,13 +5920,16 @@
         <v>0.01247762736353275</v>
       </c>
       <c r="I160">
-        <v>0.10062735536376</v>
+        <v>0.04485089078971919</v>
       </c>
       <c r="J160">
         <v>0.10062735536376</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>0.10062735536376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>38808</v>
       </c>
@@ -5478,13 +5955,16 @@
         <v>0.01263189837879342</v>
       </c>
       <c r="I161">
-        <v>0.135809945751215</v>
+        <v>0.04485251340356407</v>
       </c>
       <c r="J161">
         <v>0.135809945751215</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>0.135809945751215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>38838</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>127.5100021362305</v>
       </c>
       <c r="F162">
-        <v>93.42433929443359</v>
+        <v>93.42434692382812</v>
       </c>
       <c r="G162">
         <v>86926200</v>
@@ -5510,13 +5990,16 @@
         <v>-0.03012093289498696</v>
       </c>
       <c r="I162">
-        <v>0.0672078887988321</v>
+        <v>0.04495466743633127</v>
       </c>
       <c r="J162">
         <v>0.0672078887988321</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>0.0672078887988321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>38869</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>127.2799987792969</v>
       </c>
       <c r="F163">
-        <v>93.66804504394531</v>
+        <v>93.66802978515625</v>
       </c>
       <c r="G163">
         <v>54227800</v>
@@ -5542,13 +6025,16 @@
         <v>-0.001803806392284946</v>
       </c>
       <c r="I163">
-        <v>0.06796441058382285</v>
+        <v>0.04496015572449227</v>
       </c>
       <c r="J163">
         <v>0.06796441058382285</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>0.06796441058382285</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>38899</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>127.8499984741211</v>
       </c>
       <c r="F164">
-        <v>94.08747863769531</v>
+        <v>94.08748626708984</v>
       </c>
       <c r="G164">
         <v>49593100</v>
@@ -5574,13 +6060,16 @@
         <v>0.004478313170104498</v>
       </c>
       <c r="I164">
-        <v>0.03321481074273525</v>
+        <v>0.04471200335548933</v>
       </c>
       <c r="J164">
         <v>0.03321481074273525</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.03321481074273525</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>38930</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>130.6399993896484</v>
       </c>
       <c r="F165">
-        <v>96.14072418212891</v>
+        <v>96.14071655273438</v>
       </c>
       <c r="G165">
         <v>37510300</v>
@@ -5606,13 +6095,16 @@
         <v>0.021822455602861</v>
       </c>
       <c r="I165">
-        <v>0.06575295674821735</v>
+        <v>0.04471863190898735</v>
       </c>
       <c r="J165">
         <v>0.06575295674821735</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.06575295674821735</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>38961</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>133.5800018310547</v>
       </c>
       <c r="F166">
-        <v>98.73668670654297</v>
+        <v>98.73666381835938</v>
       </c>
       <c r="G166">
         <v>47966600</v>
@@ -5638,13 +6130,16 @@
         <v>0.02250461156722272</v>
       </c>
       <c r="I166">
-        <v>0.08566320576316921</v>
+        <v>0.04456172384108242</v>
       </c>
       <c r="J166">
         <v>0.08566320576316921</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.08566320576316921</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>38991</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>137.7899932861328</v>
       </c>
       <c r="F167">
-        <v>101.8484954833984</v>
+        <v>101.848503112793</v>
       </c>
       <c r="G167">
         <v>71274100</v>
@@ -5670,13 +6165,16 @@
         <v>0.03151662971529756</v>
       </c>
       <c r="I167">
-        <v>0.1470073789767974</v>
+        <v>0.04455782541867227</v>
       </c>
       <c r="J167">
         <v>0.1470073789767974</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.1470073789767974</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>39022</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>140.5299987792969</v>
       </c>
       <c r="F168">
-        <v>103.8738021850586</v>
+        <v>103.8738098144531</v>
       </c>
       <c r="G168">
         <v>83994300</v>
@@ -5702,13 +6200,16 @@
         <v>0.01988537358786435</v>
       </c>
       <c r="I168">
-        <v>0.1205645058262268</v>
+        <v>0.04415414781229073</v>
       </c>
       <c r="J168">
         <v>0.1205645058262268</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.1205645058262268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>39052</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>141.6199951171875</v>
       </c>
       <c r="F169">
-        <v>105.2627258300781</v>
+        <v>105.2626953125</v>
       </c>
       <c r="G169">
         <v>45461200</v>
@@ -5734,13 +6235,16 @@
         <v>0.007756324965194628</v>
       </c>
       <c r="I169">
-        <v>0.1374186224993912</v>
+        <v>0.04403874956577159</v>
       </c>
       <c r="J169">
         <v>0.1374186224993912</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.1374186224993912</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>39083</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>143.75</v>
       </c>
       <c r="F170">
-        <v>106.8458404541016</v>
+        <v>106.8459091186523</v>
       </c>
       <c r="G170">
         <v>91868600</v>
@@ -5766,13 +6270,16 @@
         <v>0.01504028354929665</v>
       </c>
       <c r="I170">
-        <v>0.1274509803921569</v>
+        <v>0.04375063207582906</v>
       </c>
       <c r="J170">
         <v>0.1274509803921569</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.1274509803921569</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>39114</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>140.9299926757812</v>
       </c>
       <c r="F171">
-        <v>104.7498779296875</v>
+        <v>104.7498245239258</v>
       </c>
       <c r="G171">
         <v>177536300</v>
@@ -5798,13 +6305,16 @@
         <v>-0.01961744225543482</v>
       </c>
       <c r="I171">
-        <v>0.09904076558831787</v>
+        <v>0.04381184214029322</v>
       </c>
       <c r="J171">
         <v>0.09904076558831787</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.09904076558831787</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>39142</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>142</v>
       </c>
       <c r="F172">
-        <v>105.9637603759766</v>
+        <v>105.9637756347656</v>
       </c>
       <c r="G172">
         <v>128194100</v>
@@ -5830,13 +6340,16 @@
         <v>0.007592474134873184</v>
       </c>
       <c r="I172">
-        <v>0.09373794960568427</v>
+        <v>0.04353381852699826</v>
       </c>
       <c r="J172">
         <v>0.09373794960568427</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.09373794960568427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>39173</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>148.2899932861328</v>
       </c>
       <c r="F173">
-        <v>110.6575241088867</v>
+        <v>110.6575393676758</v>
       </c>
       <c r="G173">
         <v>100874100</v>
@@ -5862,13 +6375,16 @@
         <v>0.0442957273671325</v>
       </c>
       <c r="I173">
-        <v>0.127937871067586</v>
+        <v>0.04336639370208233</v>
       </c>
       <c r="J173">
         <v>0.127937871067586</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.127937871067586</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>39203</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>153.3200073242188</v>
       </c>
       <c r="F174">
-        <v>114.4110412597656</v>
+        <v>114.4110488891602</v>
       </c>
       <c r="G174">
         <v>114866700</v>
@@ -5894,13 +6410,16 @@
         <v>0.03392011778151671</v>
       </c>
       <c r="I174">
-        <v>0.2024155341195362</v>
+        <v>0.04312397418030733</v>
       </c>
       <c r="J174">
         <v>0.2024155341195362</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.2024155341195362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>39234</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F175">
-        <v>112.7382888793945</v>
+        <v>112.7382965087891</v>
       </c>
       <c r="G175">
         <v>199701800</v>
@@ -5926,13 +6445,16 @@
         <v>-0.01884955981202197</v>
       </c>
       <c r="I175">
-        <v>0.1818824176501321</v>
+        <v>0.04308587226981254</v>
       </c>
       <c r="J175">
         <v>0.1818824176501321</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.1818824176501321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>39264</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>145.7200012207031</v>
       </c>
       <c r="F176">
-        <v>109.208381652832</v>
+        <v>109.2084045410156</v>
       </c>
       <c r="G176">
         <v>316976700</v>
@@ -5958,13 +6480,16 @@
         <v>-0.03131018868843183</v>
       </c>
       <c r="I176">
-        <v>0.1397731948365977</v>
+        <v>0.04267287075734075</v>
       </c>
       <c r="J176">
         <v>0.1397731948365977</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.1397731948365977</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>39295</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>147.5899963378906</v>
       </c>
       <c r="F177">
-        <v>110.6098480224609</v>
+        <v>110.6099014282227</v>
       </c>
       <c r="G177">
         <v>185477500</v>
@@ -5990,13 +6515,16 @@
         <v>0.01283279646941038</v>
       </c>
       <c r="I177">
-        <v>0.1297458437494854</v>
+        <v>0.04236356782355778</v>
       </c>
       <c r="J177">
         <v>0.1297458437494854</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1297458437494854</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>39326</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>152.5800018310547</v>
       </c>
       <c r="F178">
-        <v>114.8920059204102</v>
+        <v>114.8920822143555</v>
       </c>
       <c r="G178">
         <v>133372100</v>
@@ -6022,13 +6550,16 @@
         <v>0.0338099167760666</v>
       </c>
       <c r="I178">
-        <v>0.1422368598559405</v>
+        <v>0.04229285887866425</v>
       </c>
       <c r="J178">
         <v>0.1422368598559405</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.1422368598559405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>39356</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>154.6499938964844</v>
       </c>
       <c r="F179">
-        <v>116.4507751464844</v>
+        <v>116.4507293701172</v>
       </c>
       <c r="G179">
         <v>220954400</v>
@@ -6054,13 +6585,16 @@
         <v>0.01356660139329202</v>
       </c>
       <c r="I179">
-        <v>0.1223601236073821</v>
+        <v>0.04221308637858855</v>
       </c>
       <c r="J179">
         <v>0.1223601236073821</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1223601236073821</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>39387</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>148.6600036621094</v>
       </c>
       <c r="F180">
-        <v>111.940315246582</v>
+        <v>111.9402542114258</v>
       </c>
       <c r="G180">
         <v>222908000</v>
@@ -6086,13 +6620,16 @@
         <v>-0.03873256043181239</v>
       </c>
       <c r="I180">
-        <v>0.05785245110249182</v>
+        <v>0.0422888798094479</v>
       </c>
       <c r="J180">
         <v>0.05785245110249182</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.05785245110249182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>39417</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>146.2100067138672</v>
       </c>
       <c r="F181">
-        <v>110.6797943115234</v>
+        <v>110.6798095703125</v>
       </c>
       <c r="G181">
         <v>108126800</v>
@@ -6118,13 +6655,16 @@
         <v>-0.01648053873192956</v>
       </c>
       <c r="I181">
-        <v>0.03241075946148397</v>
+        <v>0.04232126527248872</v>
       </c>
       <c r="J181">
         <v>0.03241075946148397</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.03241075946148397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>39448</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>137.3699951171875</v>
       </c>
       <c r="F182">
-        <v>103.9879608154297</v>
+        <v>103.9879531860352</v>
       </c>
       <c r="G182">
         <v>343680800</v>
@@ -6150,13 +6690,16 @@
         <v>-0.06046105731996565</v>
       </c>
       <c r="I182">
-        <v>-0.04438264266304348</v>
+        <v>0.04272424140170535</v>
       </c>
       <c r="J182">
         <v>-0.04438264266304348</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>-0.04438264266304348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>39479</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>133.8200073242188</v>
       </c>
       <c r="F183">
-        <v>101.3006591796875</v>
+        <v>101.300666809082</v>
       </c>
       <c r="G183">
         <v>252715200</v>
@@ -6182,13 +6725,16 @@
         <v>-0.02584252689199218</v>
       </c>
       <c r="I183">
-        <v>-0.05045047698199689</v>
+        <v>0.04237825203331256</v>
       </c>
       <c r="J183">
         <v>-0.05045047698199689</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>-0.05045047698199689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>39508</v>
       </c>
@@ -6214,13 +6760,16 @@
         <v>-0.01382458528068553</v>
       </c>
       <c r="I184">
-        <v>-0.0706337942204005</v>
+        <v>0.04222063571222143</v>
       </c>
       <c r="J184">
         <v>-0.0706337942204005</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>-0.0706337942204005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>39539</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>138.2599945068359</v>
       </c>
       <c r="F185">
-        <v>105.1797637939453</v>
+        <v>105.1798324584961</v>
       </c>
       <c r="G185">
         <v>208395900</v>
@@ -6246,13 +6795,16 @@
         <v>0.04766229618815876</v>
       </c>
       <c r="I185">
-        <v>-0.06763773169740117</v>
+        <v>0.04241220211000248</v>
       </c>
       <c r="J185">
         <v>-0.06763773169740117</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>-0.06763773169740117</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>39569</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F186">
-        <v>106.7697830200195</v>
+        <v>106.7698135375977</v>
       </c>
       <c r="G186">
         <v>117362000</v>
@@ -6278,13 +6830,16 @@
         <v>0.01511653174972705</v>
       </c>
       <c r="I186">
-        <v>-0.08459431646957893</v>
+        <v>0.04237176772198119</v>
       </c>
       <c r="J186">
         <v>-0.08459431646957893</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>-0.08459431646957893</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>39600</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>127.9800033569336</v>
       </c>
       <c r="F187">
-        <v>97.84639739990234</v>
+        <v>97.846435546875</v>
       </c>
       <c r="G187">
         <v>258842600</v>
@@ -6310,13 +6865,16 @@
         <v>-0.08813681659164652</v>
       </c>
       <c r="I187">
-        <v>-0.1492387848959992</v>
+        <v>0.04304638241519237</v>
       </c>
       <c r="J187">
         <v>-0.1492387848959992</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>-0.1492387848959992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>39630</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>126.8300018310547</v>
       </c>
       <c r="F188">
-        <v>96.96720886230469</v>
+        <v>96.96718597412109</v>
       </c>
       <c r="G188">
         <v>277402100</v>
@@ -6342,13 +6900,16 @@
         <v>-0.008985790715066444</v>
       </c>
       <c r="I188">
-        <v>-0.1296321660129429</v>
+        <v>0.04303470097541753</v>
       </c>
       <c r="J188">
         <v>-0.1296321660129429</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1296321660129429</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>39661</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>128.7899932861328</v>
       </c>
       <c r="F189">
-        <v>98.46566772460938</v>
+        <v>98.46568298339844</v>
       </c>
       <c r="G189">
         <v>189195800</v>
@@ -6374,13 +6935,16 @@
         <v>0.01545368940141589</v>
       </c>
       <c r="I189">
-        <v>-0.1273799276254288</v>
+        <v>0.04098242845326617</v>
       </c>
       <c r="J189">
         <v>-0.1273799276254288</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1273799276254288</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>39692</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>115.9899978637695</v>
       </c>
       <c r="F190">
-        <v>89.19282531738281</v>
+        <v>89.19281768798828</v>
       </c>
       <c r="G190">
         <v>328154400</v>
@@ -6406,13 +6970,16 @@
         <v>-0.09938656797601908</v>
       </c>
       <c r="I190">
-        <v>-0.2398086481071071</v>
+        <v>0.04170665803821691</v>
       </c>
       <c r="J190">
         <v>-0.2398086481071071</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.2398086481071071</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>39722</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>96.83000183105469</v>
       </c>
       <c r="F191">
-        <v>74.45938110351562</v>
+        <v>74.45938873291016</v>
       </c>
       <c r="G191">
         <v>411394000</v>
@@ -6438,13 +7005,16 @@
         <v>-0.1651866228605186</v>
       </c>
       <c r="I191">
-        <v>-0.3738764587610119</v>
+        <v>0.04378779119742732</v>
       </c>
       <c r="J191">
         <v>-0.3738764587610119</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.3738764587610119</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>39753</v>
       </c>
@@ -6470,13 +7040,16 @@
         <v>-0.06960658231654038</v>
       </c>
       <c r="I192">
-        <v>-0.3939863169742888</v>
+        <v>0.04394019399495764</v>
       </c>
       <c r="J192">
         <v>-0.3939863169742888</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.3939863169742888</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>39783</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>90.23999786376953</v>
       </c>
       <c r="F193">
-        <v>69.95516204833984</v>
+        <v>69.95516967773438</v>
       </c>
       <c r="G193">
         <v>193987200</v>
@@ -6502,13 +7075,16 @@
         <v>0.001665018669956497</v>
       </c>
       <c r="I193">
-        <v>-0.3828055966075625</v>
+        <v>0.04355649610943017</v>
       </c>
       <c r="J193">
         <v>-0.3828055966075625</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.3828055966075625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>39814</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>82.83000183105469</v>
       </c>
       <c r="F194">
-        <v>64.21084594726562</v>
+        <v>64.21085357666016</v>
       </c>
       <c r="G194">
         <v>383383600</v>
@@ -6534,13 +7110,16 @@
         <v>-0.08211431968229121</v>
       </c>
       <c r="I194">
-        <v>-0.3970298844344129</v>
+        <v>0.04403647066898536</v>
       </c>
       <c r="J194">
         <v>-0.3970298844344129</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.3970298844344129</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>39845</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>73.93000030517578</v>
       </c>
       <c r="F195">
-        <v>57.31145095825195</v>
+        <v>57.31144332885742</v>
       </c>
       <c r="G195">
         <v>470510900</v>
@@ -6566,13 +7145,16 @@
         <v>-0.1074490079576711</v>
       </c>
       <c r="I195">
-        <v>-0.4475415015778741</v>
+        <v>0.04498752686195085</v>
       </c>
       <c r="J195">
         <v>-0.4475415015778741</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.4475415015778741</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>39873</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>79.51999664306641</v>
       </c>
       <c r="F196">
-        <v>62.08610153198242</v>
+        <v>62.08612823486328</v>
       </c>
       <c r="G196">
         <v>364238300</v>
@@ -6598,13 +7180,16 @@
         <v>0.07561201562039321</v>
       </c>
       <c r="I196">
-        <v>-0.3974388428618768</v>
+        <v>0.04539909492982802</v>
       </c>
       <c r="J196">
         <v>-0.3974388428618768</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.3974388428618768</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>39904</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>87.41999816894531</v>
       </c>
       <c r="F197">
-        <v>68.25411224365234</v>
+        <v>68.25413513183594</v>
       </c>
       <c r="G197">
         <v>301419800</v>
@@ -6630,13 +7215,16 @@
         <v>0.09934609984126208</v>
       </c>
       <c r="I197">
-        <v>-0.3677129926066717</v>
+        <v>0.04620242099256453</v>
       </c>
       <c r="J197">
         <v>-0.3677129926066717</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.3677129926066717</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>39934</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>92.52999877929688</v>
       </c>
       <c r="F198">
-        <v>72.24379730224609</v>
+        <v>72.24380493164062</v>
       </c>
       <c r="G198">
         <v>258641500</v>
@@ -6662,13 +7250,16 @@
         <v>0.058453451354187</v>
       </c>
       <c r="I198">
-        <v>-0.3407196668659134</v>
+        <v>0.04649553862669349</v>
       </c>
       <c r="J198">
         <v>-0.3407196668659134</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.3407196668659134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>39965</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>91.94999694824219</v>
       </c>
       <c r="F199">
-        <v>72.19651794433594</v>
+        <v>72.19648742675781</v>
       </c>
       <c r="G199">
         <v>228888200</v>
@@ -6694,13 +7285,16 @@
         <v>-0.006268257199895877</v>
       </c>
       <c r="I199">
-        <v>-0.2815284064980407</v>
+        <v>0.04623103116299516</v>
       </c>
       <c r="J199">
         <v>-0.2815284064980407</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.2815284064980407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>39995</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>98.80999755859375</v>
       </c>
       <c r="F200">
-        <v>77.58275604248047</v>
+        <v>77.582763671875</v>
       </c>
       <c r="G200">
         <v>207358000</v>
@@ -6726,13 +7320,16 @@
         <v>0.07460577311615357</v>
       </c>
       <c r="I200">
-        <v>-0.2209256790028695</v>
+        <v>0.0466817067584493</v>
       </c>
       <c r="J200">
         <v>-0.2209256790028695</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>-0.2209256790028695</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>40026</v>
       </c>
@@ -6758,13 +7355,16 @@
         <v>0.03693959736932984</v>
       </c>
       <c r="I201">
-        <v>-0.2044413042491802</v>
+        <v>0.04681087650393809</v>
       </c>
       <c r="J201">
         <v>-0.2044413042491802</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>-0.2044413042491802</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>40057</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>105.5899963378906</v>
       </c>
       <c r="F202">
-        <v>83.3011474609375</v>
+        <v>83.30113220214844</v>
       </c>
       <c r="G202">
         <v>254383000</v>
@@ -6790,13 +7390,16 @@
         <v>0.03054848020091683</v>
       </c>
       <c r="I202">
-        <v>-0.08966291678092564</v>
+        <v>0.04684587018519547</v>
       </c>
       <c r="J202">
         <v>-0.08966291678092564</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>-0.08966291678092564</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>40087</v>
       </c>
@@ -6822,13 +7425,16 @@
         <v>-0.01922529453264521</v>
       </c>
       <c r="I203">
-        <v>0.06950320768640794</v>
+        <v>0.0464961809027742</v>
       </c>
       <c r="J203">
         <v>0.06950320768640794</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.06950320768640794</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>40118</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>109.9400024414062</v>
       </c>
       <c r="F204">
-        <v>86.73291015625</v>
+        <v>86.73288726806641</v>
       </c>
       <c r="G204">
         <v>160874800</v>
@@ -6854,13 +7460,16 @@
         <v>0.06160684659347093</v>
       </c>
       <c r="I204">
-        <v>0.2203352970408212</v>
+        <v>0.04682147438769055</v>
       </c>
       <c r="J204">
         <v>0.2203352970408212</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2203352970408212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>40148</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>111.4400024414062</v>
       </c>
       <c r="F205">
-        <v>88.38957977294922</v>
+        <v>88.38960266113281</v>
       </c>
       <c r="G205">
         <v>90637900</v>
@@ -6886,13 +7495,16 @@
         <v>0.0136438054092225</v>
       </c>
       <c r="I205">
-        <v>0.2349291343029642</v>
+        <v>0.04656315564259066</v>
       </c>
       <c r="J205">
         <v>0.2349291343029642</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.2349291343029642</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>40179</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F206">
-        <v>85.17725372314453</v>
+        <v>85.17726898193359</v>
       </c>
       <c r="G206">
         <v>310677600</v>
@@ -6918,13 +7530,16 @@
         <v>-0.03634245300638117</v>
       </c>
       <c r="I206">
-        <v>0.2965108899633719</v>
+        <v>0.04646132921725801</v>
       </c>
       <c r="J206">
         <v>0.2965108899633719</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.2965108899633719</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>40210</v>
       </c>
@@ -6950,13 +7565,16 @@
         <v>0.03119469683546727</v>
       </c>
       <c r="I207">
-        <v>0.4979033870775829</v>
+        <v>0.04653582382318557</v>
       </c>
       <c r="J207">
         <v>0.4979033870775829</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.4979033870775829</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>40238</v>
       </c>
@@ -6982,13 +7600,16 @@
         <v>0.05652882659372471</v>
       </c>
       <c r="I208">
-        <v>0.4713280299188944</v>
+        <v>0.04601553792637563</v>
       </c>
       <c r="J208">
         <v>0.4713280299188944</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.4713280299188944</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>40269</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>118.8099975585938</v>
       </c>
       <c r="F209">
-        <v>94.62320709228516</v>
+        <v>94.62321472167969</v>
       </c>
       <c r="G209">
         <v>270000900</v>
@@ -7014,13 +7635,16 @@
         <v>0.01547006460336542</v>
       </c>
       <c r="I209">
-        <v>0.3590711513055063</v>
+        <v>0.04593212185531602</v>
       </c>
       <c r="J209">
         <v>0.3590711513055063</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.3590711513055063</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>40299</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>109.370002746582</v>
       </c>
       <c r="F210">
-        <v>87.10495758056641</v>
+        <v>87.10497283935547</v>
       </c>
       <c r="G210">
         <v>297933500</v>
@@ -7046,13 +7670,16 @@
         <v>-0.07945454933080176</v>
       </c>
       <c r="I210">
-        <v>0.1819950739159961</v>
+        <v>0.04647378482084492</v>
       </c>
       <c r="J210">
         <v>0.1819950739159961</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.1819950739159961</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>40330</v>
       </c>
@@ -7078,13 +7705,16 @@
         <v>-0.05623115453447403</v>
       </c>
       <c r="I211">
-        <v>0.1225666628222373</v>
+        <v>0.04671299665044717</v>
       </c>
       <c r="J211">
         <v>0.1225666628222373</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1225666628222373</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>40360</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>110.2699966430664</v>
       </c>
       <c r="F212">
-        <v>88.23956298828125</v>
+        <v>88.23957824707031</v>
       </c>
       <c r="G212">
         <v>220070600</v>
@@ -7110,13 +7740,16 @@
         <v>0.06830067175923693</v>
       </c>
       <c r="I212">
-        <v>0.1159801575511319</v>
+        <v>0.0471295296767727</v>
       </c>
       <c r="J212">
         <v>0.1159801575511319</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.1159801575511319</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>40391</v>
       </c>
@@ -7142,13 +7775,16 @@
         <v>-0.0449804954699301</v>
       </c>
       <c r="I213">
-        <v>0.02781571832507468</v>
+        <v>0.04689926463375824</v>
       </c>
       <c r="J213">
         <v>0.02781571832507468</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.02781571832507468</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>40422</v>
       </c>
@@ -7174,13 +7810,16 @@
         <v>0.08375272907889708</v>
       </c>
       <c r="I214">
-        <v>0.08087888258087572</v>
+        <v>0.04726740265078882</v>
       </c>
       <c r="J214">
         <v>0.08087888258087572</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.08087888258087572</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>40452</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>118.4899978637695</v>
       </c>
       <c r="F215">
-        <v>95.32494354248047</v>
+        <v>95.32493591308594</v>
       </c>
       <c r="G215">
         <v>144305500</v>
@@ -7206,13 +7845,16 @@
         <v>0.03820205656073461</v>
       </c>
       <c r="I215">
-        <v>0.1441676386360329</v>
+        <v>0.04739960027370824</v>
       </c>
       <c r="J215">
         <v>0.1441676386360329</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.1441676386360329</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>40483</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>118.4899978637695</v>
       </c>
       <c r="F216">
-        <v>95.32494354248047</v>
+        <v>95.32493591308594</v>
       </c>
       <c r="G216">
         <v>233930700</v>
@@ -7238,13 +7880,16 @@
         <v>0</v>
       </c>
       <c r="I216">
-        <v>0.07776964919497886</v>
+        <v>0.04690450052417733</v>
       </c>
       <c r="J216">
         <v>0.07776964919497886</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.07776964919497886</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>40513</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>125.75</v>
       </c>
       <c r="F217">
-        <v>101.697624206543</v>
+        <v>101.6976470947266</v>
       </c>
       <c r="G217">
         <v>91218900</v>
@@ -7270,13 +7915,16 @@
         <v>0.06127101246619526</v>
       </c>
       <c r="I217">
-        <v>0.1284098819552499</v>
+        <v>0.04722748822698527</v>
       </c>
       <c r="J217">
         <v>0.1284098819552499</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1284098819552499</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>40544</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>128.6799926757812</v>
       </c>
       <c r="F218">
-        <v>104.0671997070312</v>
+        <v>104.0672302246094</v>
       </c>
       <c r="G218">
         <v>149249200</v>
@@ -7302,13 +7950,16 @@
         <v>0.02330014056287277</v>
       </c>
       <c r="I218">
-        <v>0.1982493100580556</v>
+        <v>0.04710236096933006</v>
       </c>
       <c r="J218">
         <v>0.1982493100580556</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.1982493100580556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>40575</v>
       </c>
@@ -7334,13 +7985,16 @@
         <v>0.03473734438239839</v>
       </c>
       <c r="I219">
-        <v>0.2023658701915747</v>
+        <v>0.0463660749332306</v>
       </c>
       <c r="J219">
         <v>0.2023658701915747</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.2023658701915747</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>40603</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>132.5899963378906</v>
       </c>
       <c r="F220">
-        <v>107.6951751708984</v>
+        <v>107.6951446533203</v>
       </c>
       <c r="G220">
         <v>132537100</v>
@@ -7366,13 +8020,16 @@
         <v>-0.004205764808589585</v>
       </c>
       <c r="I220">
-        <v>0.1332478319477832</v>
+        <v>0.04603678711311162</v>
       </c>
       <c r="J220">
         <v>0.1332478319477832</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1332478319477832</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>40634</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>136.4299926757812</v>
       </c>
       <c r="F221">
-        <v>110.8141784667969</v>
+        <v>110.8141632080078</v>
       </c>
       <c r="G221">
         <v>115094100</v>
@@ -7398,13 +8055,16 @@
         <v>0.02896143332039047</v>
       </c>
       <c r="I221">
-        <v>0.1483039767633849</v>
+        <v>0.04546312488575555</v>
       </c>
       <c r="J221">
         <v>0.1483039767633849</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1483039767633849</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>40664</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>134.8999938964844</v>
       </c>
       <c r="F222">
-        <v>109.5714645385742</v>
+        <v>109.571418762207</v>
       </c>
       <c r="G222">
         <v>164731200</v>
@@ -7430,13 +8090,16 @@
         <v>-0.01121453391068372</v>
       </c>
       <c r="I222">
-        <v>0.2334277270620275</v>
+        <v>0.04547354724123726</v>
       </c>
       <c r="J222">
         <v>0.2334277270620275</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.2334277270620275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>40695</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>131.9700012207031</v>
       </c>
       <c r="F223">
-        <v>107.7229843139648</v>
+        <v>107.7230072021484</v>
       </c>
       <c r="G223">
         <v>223322700</v>
@@ -7462,13 +8125,16 @@
         <v>-0.02171973912785785</v>
       </c>
       <c r="I223">
-        <v>0.2785312890912224</v>
+        <v>0.04545028389821778</v>
       </c>
       <c r="J223">
         <v>0.2785312890912224</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.2785312890912224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>40725</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>129.3300018310547</v>
       </c>
       <c r="F224">
-        <v>105.5680465698242</v>
+        <v>105.5680618286133</v>
       </c>
       <c r="G224">
         <v>307038400</v>
@@ -7494,13 +8160,16 @@
         <v>-0.02000454167787247</v>
       </c>
       <c r="I224">
-        <v>0.1728485151739301</v>
+        <v>0.04548059752153257</v>
       </c>
       <c r="J224">
         <v>0.1728485151739301</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.1728485151739301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>40756</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>122.2200012207031</v>
       </c>
       <c r="F225">
-        <v>99.76437377929688</v>
+        <v>99.76438903808594</v>
       </c>
       <c r="G225">
         <v>301828400</v>
@@ -7526,13 +8195,16 @@
         <v>-0.05497564764314655</v>
       </c>
       <c r="I225">
-        <v>0.1605735832697248</v>
+        <v>0.04543327747580922</v>
       </c>
       <c r="J225">
         <v>0.1605735832697248</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.1605735832697248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>40787</v>
       </c>
@@ -7558,13 +8230,16 @@
         <v>-0.07421043695168794</v>
       </c>
       <c r="I226">
-        <v>-0.008586662149505209</v>
+        <v>0.04526978654174613</v>
       </c>
       <c r="J226">
         <v>-0.008586662149505209</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.008586662149505209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>40817</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>125.5</v>
       </c>
       <c r="F227">
-        <v>102.9717330932617</v>
+        <v>102.9717254638672</v>
       </c>
       <c r="G227">
         <v>228146700</v>
@@ -7590,13 +8265,16 @@
         <v>0.1091471348437985</v>
       </c>
       <c r="I227">
-        <v>0.05916112973763421</v>
+        <v>0.04631020418271471</v>
       </c>
       <c r="J227">
         <v>0.05916112973763421</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>0.05916112973763421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>40848</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>124.9899978637695</v>
       </c>
       <c r="F228">
-        <v>102.5532836914062</v>
+        <v>102.5532913208008</v>
       </c>
       <c r="G228">
         <v>324439500</v>
@@ -7622,13 +8300,16 @@
         <v>-0.004063762041677021</v>
       </c>
       <c r="I228">
-        <v>0.05485695094258669</v>
+        <v>0.0457893367623376</v>
       </c>
       <c r="J228">
         <v>0.05485695094258669</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0.05485695094258669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>40878</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>125.5</v>
       </c>
       <c r="F229">
-        <v>103.6247940063477</v>
+        <v>103.6248092651367</v>
       </c>
       <c r="G229">
         <v>95599000</v>
@@ -7654,13 +8335,16 @@
         <v>0.004080343587063107</v>
       </c>
       <c r="I229">
-        <v>-0.001988071570576566</v>
+        <v>0.04578978888418136</v>
       </c>
       <c r="J229">
         <v>-0.001988071570576566</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.001988071570576566</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>40909</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>131.3200073242188</v>
       </c>
       <c r="F230">
-        <v>108.4303359985352</v>
+        <v>108.4303436279297</v>
       </c>
       <c r="G230">
         <v>157212000</v>
@@ -7686,13 +8370,16 @@
         <v>0.04637456035234067</v>
       </c>
       <c r="I230">
-        <v>0.02051612370766298</v>
+        <v>0.04595663869248581</v>
       </c>
       <c r="J230">
         <v>0.02051612370766298</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>0.02051612370766298</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>40940</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>137.0200042724609</v>
       </c>
       <c r="F231">
-        <v>113.1368026733398</v>
+        <v>113.1368255615234</v>
       </c>
       <c r="G231">
         <v>185934700</v>
@@ -7718,13 +8405,16 @@
         <v>0.04340539621026163</v>
       </c>
       <c r="I231">
-        <v>0.02906504358524598</v>
+        <v>0.04607058731105863</v>
       </c>
       <c r="J231">
         <v>0.02906504358524598</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0.02906504358524598</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>40969</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>140.8099975585938</v>
       </c>
       <c r="F232">
-        <v>116.775749206543</v>
+        <v>116.7757110595703</v>
       </c>
       <c r="G232">
         <v>135486800</v>
@@ -7750,13 +8440,16 @@
         <v>0.02766014573022857</v>
       </c>
       <c r="I232">
-        <v>0.06199563653169871</v>
+        <v>0.04605788610835197</v>
       </c>
       <c r="J232">
         <v>0.06199563653169871</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.06199563653169871</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>41000</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>139.8699951171875</v>
       </c>
       <c r="F233">
-        <v>115.9961547851562</v>
+        <v>115.9961929321289</v>
       </c>
       <c r="G233">
         <v>115092200</v>
@@ -7782,13 +8475,16 @@
         <v>-0.006675679693944336</v>
       </c>
       <c r="I233">
-        <v>0.02521441490934651</v>
+        <v>0.04572392429304343</v>
       </c>
       <c r="J233">
         <v>0.02521441490934651</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0.02521441490934651</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>41030</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F234">
-        <v>109.029914855957</v>
+        <v>109.0299530029297</v>
       </c>
       <c r="G234">
         <v>196186000</v>
@@ -7814,13 +8510,16 @@
         <v>-0.06005572452795604</v>
       </c>
       <c r="I234">
-        <v>-0.0254261885172008</v>
+        <v>0.04608056616834958</v>
       </c>
       <c r="J234">
         <v>-0.0254261885172008</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.0254261885172008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>41061</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>136.1000061035156</v>
       </c>
       <c r="F235">
-        <v>113.454460144043</v>
+        <v>113.4544982910156</v>
       </c>
       <c r="G235">
         <v>212250900</v>
@@ -7846,13 +8545,16 @@
         <v>0.03521719662145562</v>
       </c>
       <c r="I235">
-        <v>0.03129502799583661</v>
+        <v>0.04558345460941671</v>
       </c>
       <c r="J235">
         <v>0.03129502799583661</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>0.03129502799583661</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>41091</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>137.7100067138672</v>
       </c>
       <c r="F236">
-        <v>114.7966232299805</v>
+        <v>114.796630859375</v>
       </c>
       <c r="G236">
         <v>120575900</v>
@@ -7878,13 +8580,16 @@
         <v>0.01182954105914602</v>
       </c>
       <c r="I236">
-        <v>0.06479552125700416</v>
+        <v>0.04495101112344627</v>
       </c>
       <c r="J236">
         <v>0.06479552125700416</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>0.06479552125700416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>41122</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.02505262348443971</v>
       </c>
       <c r="I237">
-        <v>0.1549664723632644</v>
+        <v>0.04498984172889843</v>
       </c>
       <c r="J237">
         <v>0.1549664723632644</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0.1549664723632644</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>41153</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>143.9700012207031</v>
       </c>
       <c r="F238">
-        <v>120.6556625366211</v>
+        <v>120.6557312011719</v>
       </c>
       <c r="G238">
         <v>150696100</v>
@@ -7942,13 +8650,16 @@
         <v>0.01990647127864897</v>
       </c>
       <c r="I238">
-        <v>0.2723817877083747</v>
+        <v>0.04378015989255976</v>
       </c>
       <c r="J238">
         <v>0.2723817877083747</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>0.2723817877083747</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>41183</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>141.3500061035156</v>
       </c>
       <c r="F239">
-        <v>118.4599685668945</v>
+        <v>118.4598999023438</v>
       </c>
       <c r="G239">
         <v>103438500</v>
@@ -7974,13 +8685,16 @@
         <v>-0.01819820167377162</v>
       </c>
       <c r="I239">
-        <v>0.1262948693507222</v>
+        <v>0.04326074571733961</v>
       </c>
       <c r="J239">
         <v>0.1262948693507222</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0.1262948693507222</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>41214</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>142.1499938964844</v>
       </c>
       <c r="F240">
-        <v>119.1303863525391</v>
+        <v>119.1304016113281</v>
       </c>
       <c r="G240">
         <v>136568300</v>
@@ -8006,13 +8720,16 @@
         <v>0.005659623335162012</v>
       </c>
       <c r="I240">
-        <v>0.1372909538843103</v>
+        <v>0.04294344929378682</v>
       </c>
       <c r="J240">
         <v>0.1372909538843103</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>0.1372909538843103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>41244</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F241">
-        <v>120.1947708129883</v>
+        <v>120.1947402954102</v>
       </c>
       <c r="G241">
         <v>243935200</v>
@@ -8038,13 +8755,16 @@
         <v>0.001829122594365629</v>
       </c>
       <c r="I241">
-        <v>0.134741065036728</v>
+        <v>0.0425180868276898</v>
       </c>
       <c r="J241">
         <v>0.134741065036728</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>0.134741065036728</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>41275</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>149.6999969482422</v>
       </c>
       <c r="F242">
-        <v>126.3475341796875</v>
+        <v>126.3475799560547</v>
       </c>
       <c r="G242">
         <v>108975800</v>
@@ -8070,13 +8790,16 @@
         <v>0.05119017694451777</v>
       </c>
       <c r="I242">
-        <v>0.139963361246582</v>
+        <v>0.04263879860364563</v>
       </c>
       <c r="J242">
         <v>0.139963361246582</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>0.139963361246582</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>41306</v>
       </c>
@@ -8102,13 +8825,16 @@
         <v>0.01275887575849288</v>
       </c>
       <c r="I243">
-        <v>0.1064807756747603</v>
+        <v>0.04260769797534204</v>
       </c>
       <c r="J243">
         <v>0.1064807756747603</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>0.1064807756747603</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>41334</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>156.6699981689453</v>
       </c>
       <c r="F244">
-        <v>132.8183746337891</v>
+        <v>132.818359375</v>
       </c>
       <c r="G244">
         <v>102932800</v>
@@ -8134,13 +8860,16 @@
         <v>0.03337509094534141</v>
       </c>
       <c r="I244">
-        <v>0.1126340521648821</v>
+        <v>0.04267604964452242</v>
       </c>
       <c r="J244">
         <v>0.1126340521648821</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>0.1126340521648821</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>41365</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>159.6799926757812</v>
       </c>
       <c r="F245">
-        <v>135.3701019287109</v>
+        <v>135.3701171875</v>
       </c>
       <c r="G245">
         <v>116010700</v>
@@ -8166,13 +8895,16 @@
         <v>0.01921232234642711</v>
       </c>
       <c r="I245">
-        <v>0.1416315024676758</v>
+        <v>0.04207781159288713</v>
       </c>
       <c r="J245">
         <v>0.1416315024676758</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>0.1416315024676758</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>41395</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>163.4499969482422</v>
       </c>
       <c r="F246">
-        <v>138.5661926269531</v>
+        <v>138.5661773681641</v>
       </c>
       <c r="G246">
         <v>176850100</v>
@@ -8198,13 +8930,16 @@
         <v>0.02360974727820575</v>
       </c>
       <c r="I246">
-        <v>0.2432493757557146</v>
+        <v>0.04186622865078543</v>
       </c>
       <c r="J246">
         <v>0.2432493757557146</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>0.2432493757557146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>41426</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>160.4199981689453</v>
       </c>
       <c r="F247">
-        <v>136.7170715332031</v>
+        <v>136.7170867919922</v>
       </c>
       <c r="G247">
         <v>160402900</v>
@@ -8230,13 +8965,16 @@
         <v>-0.01853777201510964</v>
       </c>
       <c r="I247">
-        <v>0.178692071820572</v>
+        <v>0.04192212309850043</v>
       </c>
       <c r="J247">
         <v>0.178692071820572</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.178692071820572</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>41456</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>168.7100067138672</v>
       </c>
       <c r="F248">
-        <v>143.7821960449219</v>
+        <v>143.7822113037109</v>
       </c>
       <c r="G248">
         <v>142388700</v>
@@ -8262,13 +9000,16 @@
         <v>0.05167690212906817</v>
       </c>
       <c r="I248">
-        <v>0.2251107289858141</v>
+        <v>0.04212180692604017</v>
       </c>
       <c r="J248">
         <v>0.2251107289858141</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.2251107289858141</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>41487</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>163.6499938964844</v>
       </c>
       <c r="F249">
-        <v>139.4698791503906</v>
+        <v>139.4698486328125</v>
       </c>
       <c r="G249">
         <v>134928900</v>
@@ -8294,13 +9035,16 @@
         <v>-0.02999236924911408</v>
       </c>
       <c r="I249">
-        <v>0.159322681006786</v>
+        <v>0.04222055433880143</v>
       </c>
       <c r="J249">
         <v>0.159322681006786</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.159322681006786</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>41518</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>168.0099945068359</v>
       </c>
       <c r="F250">
-        <v>143.8835296630859</v>
+        <v>143.8835601806641</v>
       </c>
       <c r="G250">
         <v>143937000</v>
@@ -8326,13 +9070,16 @@
         <v>0.02664222898235757</v>
       </c>
       <c r="I250">
-        <v>0.1669791837348114</v>
+        <v>0.04222802993100757</v>
       </c>
       <c r="J250">
         <v>0.1669791837348114</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.1669791837348114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>41548</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>175.7899932861328</v>
       </c>
       <c r="F251">
-        <v>150.5463256835938</v>
+        <v>150.5463714599609</v>
       </c>
       <c r="G251">
         <v>133795000</v>
@@ -8358,13 +9105,16 @@
         <v>0.04630676170268155</v>
       </c>
       <c r="I251">
-        <v>0.2436504117120133</v>
+        <v>0.04216374693797192</v>
       </c>
       <c r="J251">
         <v>0.2436504117120133</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.2436504117120133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>41579</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>181</v>
       </c>
       <c r="F252">
-        <v>155.0081481933594</v>
+        <v>155.0081634521484</v>
       </c>
       <c r="G252">
         <v>55870900</v>
@@ -8390,13 +9140,16 @@
         <v>0.0296376751399432</v>
       </c>
       <c r="I252">
-        <v>0.2733029037750556</v>
+        <v>0.04221974338221418</v>
       </c>
       <c r="J252">
         <v>0.2733029037750556</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.2733029037750556</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>41609</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>184.6900024414062</v>
       </c>
       <c r="F253">
-        <v>159.0269470214844</v>
+        <v>159.0270080566406</v>
       </c>
       <c r="G253">
         <v>86119900</v>
@@ -8422,13 +9175,16 @@
         <v>0.02038675381992405</v>
       </c>
       <c r="I253">
-        <v>0.2968892471880906</v>
+        <v>0.04208201566057454</v>
       </c>
       <c r="J253">
         <v>0.2968892471880906</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.2968892471880906</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>41640</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>178.1799926757812</v>
       </c>
       <c r="F254">
-        <v>153.4215545654297</v>
+        <v>153.4215393066406</v>
       </c>
       <c r="G254">
         <v>194677900</v>
@@ -8454,13 +9210,16 @@
         <v>-0.03524830624056297</v>
       </c>
       <c r="I254">
-        <v>0.1902471363268352</v>
+        <v>0.04222063309832909</v>
       </c>
       <c r="J254">
         <v>0.1902471363268352</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1902471363268352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>41671</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.04551577586552402</v>
       </c>
       <c r="I255">
-        <v>0.2287447565211169</v>
+        <v>0.04237764758487874</v>
       </c>
       <c r="J255">
         <v>0.2287447565211169</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.2287447565211169</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>41699</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>187.0099945068359</v>
       </c>
       <c r="F256">
-        <v>161.7353515625</v>
+        <v>161.7353210449219</v>
       </c>
       <c r="G256">
         <v>99745000</v>
@@ -8518,13 +9280,16 @@
         <v>0.003864948449470607</v>
       </c>
       <c r="I256">
-        <v>0.1936554330279205</v>
+        <v>0.04233100648779128</v>
       </c>
       <c r="J256">
         <v>0.1936554330279205</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1936554330279205</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>41730</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>188.3099975585938</v>
       </c>
       <c r="F257">
-        <v>162.859619140625</v>
+        <v>162.8595886230469</v>
       </c>
       <c r="G257">
         <v>101508000</v>
@@ -8550,13 +9315,16 @@
         <v>0.006951516442669448</v>
       </c>
       <c r="I257">
-        <v>0.1792961309870778</v>
+        <v>0.04227344473936722</v>
       </c>
       <c r="J257">
         <v>0.1792961309870778</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.1792961309870778</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>41760</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>192.6799926757812</v>
       </c>
       <c r="F258">
-        <v>166.6390075683594</v>
+        <v>166.6389770507812</v>
       </c>
       <c r="G258">
         <v>76316000</v>
@@ -8582,13 +9350,16 @@
         <v>0.02320638932528141</v>
       </c>
       <c r="I258">
-        <v>0.1788314241253548</v>
+        <v>0.04229135818156566</v>
       </c>
       <c r="J258">
         <v>0.1788314241253548</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1788314241253548</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>41791</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>195.7200012207031</v>
       </c>
       <c r="F259">
-        <v>170.0792541503906</v>
+        <v>170.0792694091797</v>
       </c>
       <c r="G259">
         <v>70201200</v>
@@ -8614,13 +9385,16 @@
         <v>0.01577749979489163</v>
       </c>
       <c r="I259">
-        <v>0.2200473971741468</v>
+        <v>0.0422932887304508</v>
       </c>
       <c r="J259">
         <v>0.2200473971741468</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.2200473971741468</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>41821</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>193.0899963378906</v>
       </c>
       <c r="F260">
-        <v>167.7937469482422</v>
+        <v>167.7937622070312</v>
       </c>
       <c r="G260">
         <v>183479000</v>
@@ -8646,13 +9420,16 @@
         <v>-0.01343758873088696</v>
       </c>
       <c r="I260">
-        <v>0.1445082606473485</v>
+        <v>0.0421875966737683</v>
       </c>
       <c r="J260">
         <v>0.1445082606473485</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1445082606473485</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>41852</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>200.7100067138672</v>
       </c>
       <c r="F261">
-        <v>174.41552734375</v>
+        <v>174.4155426025391</v>
       </c>
       <c r="G261">
         <v>65907000</v>
@@ -8678,13 +9455,16 @@
         <v>0.03946351711894081</v>
       </c>
       <c r="I261">
-        <v>0.2264589929702341</v>
+        <v>0.04229998013129505</v>
       </c>
       <c r="J261">
         <v>0.2264589929702341</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2264589929702341</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>41883</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>197.0200042724609</v>
       </c>
       <c r="F262">
-        <v>172.0092315673828</v>
+        <v>172.00927734375</v>
       </c>
       <c r="G262">
         <v>131302000</v>
@@ -8710,13 +9490,16 @@
         <v>-0.01838474574248172</v>
       </c>
       <c r="I262">
-        <v>0.1726683573246868</v>
+        <v>0.04235777621376798</v>
       </c>
       <c r="J262">
         <v>0.1726683573246868</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.1726683573246868</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>41913</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>0.02355090492857648</v>
       </c>
       <c r="I263">
-        <v>0.1471642946926337</v>
+        <v>0.04238427998662176</v>
       </c>
       <c r="J263">
         <v>0.1471642946926337</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.1471642946926337</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>41944</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>207.1999969482422</v>
       </c>
       <c r="F264">
-        <v>180.8969116210938</v>
+        <v>180.8968963623047</v>
       </c>
       <c r="G264">
         <v>57890100</v>
@@ -8774,13 +9560,16 @@
         <v>0.02747194875298775</v>
       </c>
       <c r="I264">
-        <v>0.1447513643549292</v>
+        <v>0.04230456269110404</v>
       </c>
       <c r="J264">
         <v>0.1447513643549292</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.1447513643549292</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>41974</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>205.5399932861328</v>
       </c>
       <c r="F265">
-        <v>180.4380340576172</v>
+        <v>180.4380493164062</v>
       </c>
       <c r="G265">
         <v>130333800</v>
@@ -8806,13 +9595,16 @@
         <v>-0.008011600803855434</v>
       </c>
       <c r="I265">
-        <v>0.1128918218047092</v>
+        <v>0.04228369592324761</v>
       </c>
       <c r="J265">
         <v>0.1128918218047092</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1128918218047092</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>42005</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>199.4499969482422</v>
       </c>
       <c r="F266">
-        <v>175.091796875</v>
+        <v>175.0918121337891</v>
       </c>
       <c r="G266">
         <v>197729700</v>
@@ -8838,13 +9630,16 @@
         <v>-0.02962925239280667</v>
       </c>
       <c r="I266">
-        <v>0.1193736959635201</v>
+        <v>0.04232856187472366</v>
       </c>
       <c r="J266">
         <v>0.1193736959635201</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1193736959635201</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>42036</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>210.6600036621094</v>
       </c>
       <c r="F267">
-        <v>184.9327850341797</v>
+        <v>184.9327697753906</v>
       </c>
       <c r="G267">
         <v>108076000</v>
@@ -8870,13 +9665,16 @@
         <v>0.05620459706888958</v>
       </c>
       <c r="I267">
-        <v>0.1308176029538277</v>
+        <v>0.04256009220401975</v>
       </c>
       <c r="J267">
         <v>0.1308176029538277</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.1308176029538277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>42064</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>206.4299926757812</v>
       </c>
       <c r="F268">
-        <v>182.0282897949219</v>
+        <v>182.0283203125</v>
       </c>
       <c r="G268">
         <v>126768700</v>
@@ -8902,13 +9700,16 @@
         <v>-0.02007980116203212</v>
       </c>
       <c r="I268">
-        <v>0.1038447074454913</v>
+        <v>0.042549267024314</v>
       </c>
       <c r="J268">
         <v>0.1038447074454913</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.1038447074454913</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>42095</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>208.4600067138672</v>
       </c>
       <c r="F269">
-        <v>183.8183288574219</v>
+        <v>183.818359375</v>
       </c>
       <c r="G269">
         <v>161304900</v>
@@ -8934,13 +9735,16 @@
         <v>0.009833910333341356</v>
       </c>
       <c r="I269">
-        <v>0.1070044576311124</v>
+        <v>0.04249189987993236</v>
       </c>
       <c r="J269">
         <v>0.1070044576311124</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.1070044576311124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>42125</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>211.1399993896484</v>
       </c>
       <c r="F270">
-        <v>186.1815185546875</v>
+        <v>186.1815032958984</v>
       </c>
       <c r="G270">
         <v>124919600</v>
@@ -8966,13 +9770,16 @@
         <v>0.01285614789152256</v>
       </c>
       <c r="I270">
-        <v>0.0958065570665112</v>
+        <v>0.04242753035087081</v>
       </c>
       <c r="J270">
         <v>0.0958065570665112</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.0958065570665112</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>42156</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>205.8500061035156</v>
       </c>
       <c r="F271">
-        <v>182.3997802734375</v>
+        <v>182.3998107910156</v>
       </c>
       <c r="G271">
         <v>182925100</v>
@@ -8998,13 +9805,16 @@
         <v>-0.0250544345051853</v>
       </c>
       <c r="I271">
-        <v>0.05175763754154805</v>
+        <v>0.04251386911172458</v>
       </c>
       <c r="J271">
         <v>0.05175763754154805</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.05175763754154805</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>42186</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>210.5</v>
       </c>
       <c r="F272">
-        <v>186.5200958251953</v>
+        <v>186.5200805664062</v>
       </c>
       <c r="G272">
         <v>103266900</v>
@@ -9030,13 +9840,16 @@
         <v>0.02258923370711985</v>
       </c>
       <c r="I272">
-        <v>0.09016522860999698</v>
+        <v>0.0424363194070557</v>
       </c>
       <c r="J272">
         <v>0.09016522860999698</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>0.09016522860999698</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>42217</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>197.6699981689453</v>
       </c>
       <c r="F273">
-        <v>175.1516876220703</v>
+        <v>175.1516418457031</v>
       </c>
       <c r="G273">
         <v>163298800</v>
@@ -9062,13 +9875,16 @@
         <v>-0.06095012746344275</v>
       </c>
       <c r="I273">
-        <v>-0.0151462729471965</v>
+        <v>0.04284589650151682</v>
       </c>
       <c r="J273">
         <v>-0.0151462729471965</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.0151462729471965</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>42248</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>191.6300048828125</v>
       </c>
       <c r="F274">
-        <v>170.6825256347656</v>
+        <v>170.6824645996094</v>
       </c>
       <c r="G274">
         <v>163452000</v>
@@ -9094,13 +9910,16 @@
         <v>-0.03055594345162349</v>
       </c>
       <c r="I274">
-        <v>-0.02735762497596206</v>
+        <v>0.04296804043063646</v>
       </c>
       <c r="J274">
         <v>-0.02735762497596206</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.02735762497596206</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>42278</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>207.9299926757812</v>
       </c>
       <c r="F275">
-        <v>185.2007446289062</v>
+        <v>185.2007141113281</v>
       </c>
       <c r="G275">
         <v>131076900</v>
@@ -9126,13 +9945,16 @@
         <v>0.08505968469257552</v>
       </c>
       <c r="I275">
-        <v>0.03109188187945056</v>
+        <v>0.043509293143054</v>
       </c>
       <c r="J275">
         <v>0.03109188187945056</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>0.03109188187945056</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>42309</v>
       </c>
@@ -9158,13 +9980,16 @@
         <v>0.003655123322252374</v>
       </c>
       <c r="I276">
-        <v>0.007191146308444418</v>
+        <v>0.04336559596426576</v>
       </c>
       <c r="J276">
         <v>0.007191146308444418</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>0.007191146308444418</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>42339</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>203.8699951171875</v>
       </c>
       <c r="F277">
-        <v>182.6651611328125</v>
+        <v>182.6652221679688</v>
       </c>
       <c r="G277">
         <v>114877900</v>
@@ -9190,13 +10015,16 @@
         <v>-0.02309649368839339</v>
       </c>
       <c r="I277">
-        <v>-0.008124930541476227</v>
+        <v>0.04342809432109584</v>
       </c>
       <c r="J277">
         <v>-0.008124930541476227</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.008124930541476227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>42370</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>193.7200012207031</v>
       </c>
       <c r="F278">
-        <v>173.5708923339844</v>
+        <v>173.5709381103516</v>
       </c>
       <c r="G278">
         <v>210529300</v>
@@ -9222,13 +10050,16 @@
         <v>-0.0497865999881445</v>
       </c>
       <c r="I278">
-        <v>-0.02872898378146382</v>
+        <v>0.04367941028908904</v>
       </c>
       <c r="J278">
         <v>-0.02872898378146382</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.02872898378146382</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>42401</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>193.5599975585938</v>
       </c>
       <c r="F279">
-        <v>173.4275360107422</v>
+        <v>173.4275207519531</v>
       </c>
       <c r="G279">
         <v>125918100</v>
@@ -9254,13 +10085,16 @@
         <v>-0.0008259532371522882</v>
       </c>
       <c r="I279">
-        <v>-0.08117348241834921</v>
+        <v>0.04368190417601325</v>
       </c>
       <c r="J279">
         <v>-0.08117348241834921</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.08117348241834921</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>42430</v>
       </c>
@@ -9286,13 +10120,16 @@
         <v>0.06178966142137243</v>
       </c>
       <c r="I280">
-        <v>-0.004408217970290451</v>
+        <v>0.04398938849702874</v>
       </c>
       <c r="J280">
         <v>-0.004408217970290451</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.004408217970290451</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>42461</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>206.3300018310547</v>
       </c>
       <c r="F281">
-        <v>185.8228454589844</v>
+        <v>185.8228149414062</v>
       </c>
       <c r="G281">
         <v>142424100</v>
@@ -9318,13 +10155,16 @@
         <v>0.003941210304374776</v>
       </c>
       <c r="I281">
-        <v>-0.01021781067932204</v>
+        <v>0.04398355968492806</v>
       </c>
       <c r="J281">
         <v>-0.01021781067932204</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.01021781067932204</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>42491</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>209.8399963378906</v>
       </c>
       <c r="F282">
-        <v>188.9839172363281</v>
+        <v>188.9839630126953</v>
       </c>
       <c r="G282">
         <v>109879400</v>
@@ -9350,13 +10190,16 @@
         <v>0.01701155661167464</v>
       </c>
       <c r="I282">
-        <v>-0.006157066664373323</v>
+        <v>0.04387996381590889</v>
       </c>
       <c r="J282">
         <v>-0.006157066664373323</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.006157066664373323</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>42522</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>209.4799957275391</v>
       </c>
       <c r="F283">
-        <v>189.6408386230469</v>
+        <v>189.6408233642578</v>
       </c>
       <c r="G283">
         <v>165021900</v>
@@ -9382,13 +10225,16 @@
         <v>-0.00171559577122693</v>
       </c>
       <c r="I283">
-        <v>0.01763414873156743</v>
+        <v>0.04387984738057849</v>
       </c>
       <c r="J283">
         <v>0.01763414873156743</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>0.01763414873156743</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>42552</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="F284">
-        <v>196.5573120117188</v>
+        <v>196.5572662353516</v>
       </c>
       <c r="G284">
         <v>79519400</v>
@@ -9414,13 +10260,16 @@
         <v>0.03647126000320067</v>
       </c>
       <c r="I284">
-        <v>0.03144890792013055</v>
+        <v>0.04397292880596577</v>
       </c>
       <c r="J284">
         <v>0.03144890792013055</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>0.03144890792013055</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>42583</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>217.3800048828125</v>
       </c>
       <c r="F285">
-        <v>196.7926788330078</v>
+        <v>196.7926483154297</v>
       </c>
       <c r="G285">
         <v>85269500</v>
@@ -9446,13 +10295,16 @@
         <v>0.001197539478041465</v>
       </c>
       <c r="I285">
-        <v>0.0997116755018197</v>
+        <v>0.04394849993528734</v>
       </c>
       <c r="J285">
         <v>0.0997116755018197</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.0997116755018197</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>42614</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>216.3000030517578</v>
       </c>
       <c r="F286">
-        <v>196.8040771484375</v>
+        <v>196.8040924072266</v>
       </c>
       <c r="G286">
         <v>117202900</v>
@@ -9478,13 +10330,16 @@
         <v>-0.004968266661126042</v>
       </c>
       <c r="I286">
-        <v>0.1287376587191122</v>
+        <v>0.04392929710356597</v>
       </c>
       <c r="J286">
         <v>0.1287376587191122</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1287376587191122</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>42644</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>212.5500030517578</v>
       </c>
       <c r="F287">
-        <v>193.3920745849609</v>
+        <v>193.3921051025391</v>
       </c>
       <c r="G287">
         <v>61272500</v>
@@ -9510,13 +10365,16 @@
         <v>-0.01733703165553202</v>
       </c>
       <c r="I287">
-        <v>0.02221906669895568</v>
+        <v>0.04390784987898143</v>
       </c>
       <c r="J287">
         <v>0.02221906669895568</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.02221906669895568</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>42675</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>220.3800048828125</v>
       </c>
       <c r="F288">
-        <v>200.5163421630859</v>
+        <v>200.5163269042969</v>
       </c>
       <c r="G288">
         <v>113291800</v>
@@ -9542,13 +10400,16 @@
         <v>0.03683839905261266</v>
       </c>
       <c r="I288">
-        <v>0.0560161114794584</v>
+        <v>0.04398467721469505</v>
       </c>
       <c r="J288">
         <v>0.0560161114794584</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.0560161114794584</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>42705</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>0.01429346504534013</v>
       </c>
       <c r="I289">
-        <v>0.09643402233275422</v>
+        <v>0.04399250051445933</v>
       </c>
       <c r="J289">
         <v>0.09643402233275422</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>0.09643402233275422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>42736</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>227.5299987792969</v>
       </c>
       <c r="F290">
-        <v>208.2420959472656</v>
+        <v>208.2420806884766</v>
       </c>
       <c r="G290">
         <v>75880800</v>
@@ -9606,13 +10470,16 @@
         <v>0.0178946898485397</v>
       </c>
       <c r="I290">
-        <v>0.1745302361425982</v>
+        <v>0.04399886195108157</v>
       </c>
       <c r="J290">
         <v>0.1745302361425982</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>0.1745302361425982</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>42767</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>236.4700012207031</v>
       </c>
       <c r="F291">
-        <v>216.4242553710938</v>
+        <v>216.4242401123047</v>
       </c>
       <c r="G291">
         <v>96961900</v>
@@ -9638,13 +10505,16 @@
         <v>0.03929153293794019</v>
       </c>
       <c r="I291">
-        <v>0.2216883870807025</v>
+        <v>0.04405261151734569</v>
       </c>
       <c r="J291">
         <v>0.2216883870807025</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>0.2216883870807025</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>42795</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>-0.003087054272299605</v>
       </c>
       <c r="I292">
-        <v>0.1470416533304466</v>
+        <v>0.04405873303837388</v>
       </c>
       <c r="J292">
         <v>0.1470416533304466</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>0.1470416533304466</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>42826</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.009926174104371466</v>
       </c>
       <c r="I293">
-        <v>0.153879705899471</v>
+        <v>0.04391401008241771</v>
       </c>
       <c r="J293">
         <v>0.153879705899471</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>0.153879705899471</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>42856</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.01411290568090573</v>
       </c>
       <c r="I294">
-        <v>0.1505909581347511</v>
+        <v>0.04384128165841322</v>
       </c>
       <c r="J294">
         <v>0.1505909581347511</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>0.1505909581347511</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>42887</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>241.8000030517578</v>
       </c>
       <c r="F295">
-        <v>223.3490600585938</v>
+        <v>223.34912109375</v>
       </c>
       <c r="G295">
         <v>86820700</v>
@@ -9766,13 +10645,16 @@
         <v>0.001491056190818796</v>
       </c>
       <c r="I295">
-        <v>0.1542868435335272</v>
+        <v>0.04378851506657221</v>
       </c>
       <c r="J295">
         <v>0.1542868435335272</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.1542868435335272</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>42917</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>246.7700042724609</v>
       </c>
       <c r="F296">
-        <v>227.9398498535156</v>
+        <v>227.9398193359375</v>
       </c>
       <c r="G296">
         <v>65838700</v>
@@ -9798,13 +10680,16 @@
         <v>0.02055418179477564</v>
       </c>
       <c r="I296">
-        <v>0.1365604726514029</v>
+        <v>0.04368362793919906</v>
       </c>
       <c r="J296">
         <v>0.1365604726514029</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.1365604726514029</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>42948</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>247.4900054931641</v>
       </c>
       <c r="F297">
-        <v>228.6048889160156</v>
+        <v>228.6048736572266</v>
       </c>
       <c r="G297">
         <v>103803900</v>
@@ -9830,13 +10715,16 @@
         <v>0.002917701536804929</v>
       </c>
       <c r="I297">
-        <v>0.1385132023830047</v>
+        <v>0.04367875812791357</v>
       </c>
       <c r="J297">
         <v>0.1385132023830047</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>0.1385132023830047</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>42979</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.01511168189164835</v>
       </c>
       <c r="I298">
-        <v>0.1614886369993391</v>
+        <v>0.04360942592157926</v>
       </c>
       <c r="J298">
         <v>0.1614886369993391</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.1614886369993391</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>43009</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>257.1499938964844</v>
       </c>
       <c r="F299">
-        <v>238.7065582275391</v>
+        <v>238.70654296875</v>
       </c>
       <c r="G299">
         <v>60304800</v>
@@ -9894,13 +10785,16 @@
         <v>0.02356405791355254</v>
       </c>
       <c r="I299">
-        <v>0.2098329343889309</v>
+        <v>0.04363523026687522</v>
       </c>
       <c r="J299">
         <v>0.2098329343889309</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.2098329343889309</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>43040</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>265.010009765625</v>
       </c>
       <c r="F300">
-        <v>246.0028228759766</v>
+        <v>246.0028076171875</v>
       </c>
       <c r="G300">
         <v>127894400</v>
@@ -9926,13 +10820,16 @@
         <v>0.03056588005327621</v>
       </c>
       <c r="I300">
-        <v>0.202513857400741</v>
+        <v>0.04350718482835201</v>
       </c>
       <c r="J300">
         <v>0.202513857400741</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.202513857400741</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>43070</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>266.8599853515625</v>
       </c>
       <c r="F301">
-        <v>248.9863433837891</v>
+        <v>248.9863128662109</v>
       </c>
       <c r="G301">
         <v>96007400</v>
@@ -9958,13 +10855,16 @@
         <v>0.006980776264163158</v>
       </c>
       <c r="I301">
-        <v>0.193844167713022</v>
+        <v>0.04345897205601106</v>
       </c>
       <c r="J301">
         <v>0.193844167713022</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.193844167713022</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>43101</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>281.8999938964844</v>
       </c>
       <c r="F302">
-        <v>263.0190124511719</v>
+        <v>263.0189819335938</v>
       </c>
       <c r="G302">
         <v>108364800</v>
@@ -9990,13 +10890,16 @@
         <v>0.05635917473767416</v>
       </c>
       <c r="I302">
-        <v>0.2389574799318053</v>
+        <v>0.04326610886559367</v>
       </c>
       <c r="J302">
         <v>0.2389574799318053</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.2389574799318053</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>43132</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>271.6499938964844</v>
       </c>
       <c r="F303">
-        <v>253.4555206298828</v>
+        <v>253.4555053710938</v>
       </c>
       <c r="G303">
         <v>121907800</v>
@@ -10022,13 +10925,16 @@
         <v>-0.03636041228068942</v>
       </c>
       <c r="I303">
-        <v>0.1487714826158728</v>
+        <v>0.04334369271328056</v>
       </c>
       <c r="J303">
         <v>0.1487714826158728</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.1487714826158728</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>43160</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>263.1499938964844</v>
       </c>
       <c r="F304">
-        <v>246.5082092285156</v>
+        <v>246.5081634521484</v>
       </c>
       <c r="G304">
         <v>111601600</v>
@@ -10054,13 +10960,16 @@
         <v>-0.03129026390937095</v>
       </c>
       <c r="I304">
-        <v>0.1162721123467316</v>
+        <v>0.04344297040705555</v>
       </c>
       <c r="J304">
         <v>0.1162721123467316</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.1162721123467316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>43191</v>
       </c>
@@ -10077,7 +10986,7 @@
         <v>264.510009765625</v>
       </c>
       <c r="F305">
-        <v>247.7822113037109</v>
+        <v>247.7821502685547</v>
       </c>
       <c r="G305">
         <v>82182300</v>
@@ -10086,13 +10995,16 @@
         <v>0.00516821546906665</v>
       </c>
       <c r="I305">
-        <v>0.1110131373122445</v>
+        <v>0.04327932944784257</v>
       </c>
       <c r="J305">
         <v>0.1110131373122445</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.1110131373122445</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>43221</v>
       </c>
@@ -10109,7 +11021,7 @@
         <v>270.9400024414062</v>
       </c>
       <c r="F306">
-        <v>253.8054656982422</v>
+        <v>253.8055419921875</v>
       </c>
       <c r="G306">
         <v>93519900</v>
@@ -10118,13 +11030,16 @@
         <v>0.02430907125775206</v>
       </c>
       <c r="I306">
-        <v>0.1221835640395141</v>
+        <v>0.0433030741313335</v>
       </c>
       <c r="J306">
         <v>0.1221835640395141</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.1221835640395141</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>43252</v>
       </c>
@@ -10141,7 +11056,7 @@
         <v>271.2799987792969</v>
       </c>
       <c r="F307">
-        <v>255.2651214599609</v>
+        <v>255.2651062011719</v>
       </c>
       <c r="G307">
         <v>97592500</v>
@@ -10150,13 +11065,16 @@
         <v>0.001254876854015485</v>
       </c>
       <c r="I307">
-        <v>0.1219189220656411</v>
+        <v>0.0424222832273142</v>
       </c>
       <c r="J307">
         <v>0.1219189220656411</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.1219189220656411</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>43282</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>0.03704654909389404</v>
       </c>
       <c r="I308">
-        <v>0.1400493645963823</v>
+        <v>0.04248287288302327</v>
       </c>
       <c r="J308">
         <v>0.1400493645963823</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.1400493645963823</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>43313</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.03191985005132536</v>
       </c>
       <c r="I309">
-        <v>0.1730170556992954</v>
+        <v>0.04253510243427418</v>
       </c>
       <c r="J309">
         <v>0.1730170556992954</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.1730170556992954</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>43344</v>
       </c>
@@ -10246,13 +11170,16 @@
         <v>0.00141229604752624</v>
       </c>
       <c r="I310">
-        <v>0.157186666260948</v>
+        <v>0.04138203711590888</v>
       </c>
       <c r="J310">
         <v>0.157186666260948</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.157186666260948</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>43374</v>
       </c>
@@ -10269,7 +11196,7 @@
         <v>270.6300048828125</v>
       </c>
       <c r="F311">
-        <v>255.8062896728516</v>
+        <v>255.8063049316406</v>
       </c>
       <c r="G311">
         <v>128296300</v>
@@ -10278,13 +11205,16 @@
         <v>-0.06910427990346313</v>
       </c>
       <c r="I311">
-        <v>0.05242081005747368</v>
+        <v>0.03884391753845618</v>
       </c>
       <c r="J311">
         <v>0.05242081005747368</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311">
+        <v>0.05242081005747368</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
       <c r="A312" s="2">
         <v>43405</v>
       </c>
@@ -10310,13 +11240,16 @@
         <v>0.01854926993718098</v>
       </c>
       <c r="I312">
-        <v>0.04014936696266447</v>
+        <v>0.03816579884098847</v>
       </c>
       <c r="J312">
         <v>0.04014936696266447</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312">
+        <v>0.04014936696266447</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
       <c r="A313" s="2">
         <v>43435</v>
       </c>
@@ -10342,13 +11275,16 @@
         <v>-0.09334299400420631</v>
       </c>
       <c r="I313">
-        <v>-0.06347893319524989</v>
+        <v>0.03931023297199255</v>
       </c>
       <c r="J313">
         <v>-0.06347893319524989</v>
       </c>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313">
+        <v>-0.06347893319524989</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
       <c r="A314" s="2">
         <v>43466</v>
       </c>
@@ -10374,13 +11310,16 @@
         <v>0.08006559960563542</v>
       </c>
       <c r="I314">
-        <v>-0.04246187115952405</v>
+        <v>0.03892722643188017</v>
       </c>
       <c r="J314">
         <v>-0.04246187115952405</v>
       </c>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314">
+        <v>-0.04246187115952405</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
       <c r="A315" s="2">
         <v>43497</v>
       </c>
@@ -10397,7 +11336,7 @@
         <v>278.6799926757812</v>
       </c>
       <c r="F315">
-        <v>264.95361328125</v>
+        <v>264.9535827636719</v>
       </c>
       <c r="G315">
         <v>69268300</v>
@@ -10406,13 +11345,16 @@
         <v>0.03241581238625013</v>
       </c>
       <c r="I315">
-        <v>0.02587888436314767</v>
+        <v>0.03742655531628243</v>
       </c>
       <c r="J315">
         <v>0.02587888436314767</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315">
+        <v>0.02587888436314767</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
       <c r="A316" s="2">
         <v>43525</v>
       </c>
@@ -10429,7 +11371,7 @@
         <v>282.4800109863281</v>
       </c>
       <c r="F316">
-        <v>269.7493591308594</v>
+        <v>269.7493896484375</v>
       </c>
       <c r="G316">
         <v>82186800</v>
@@ -10438,13 +11380,16 @@
         <v>0.01363577727292342</v>
       </c>
       <c r="I316">
-        <v>0.073456270333214</v>
+        <v>0.03696348345902196</v>
       </c>
       <c r="J316">
         <v>0.073456270333214</v>
       </c>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316">
+        <v>0.073456270333214</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
       <c r="A317" s="2">
         <v>43556</v>
       </c>
@@ -10470,13 +11415,16 @@
         <v>0.04085237035728628</v>
       </c>
       <c r="I317">
-        <v>0.1115646975862836</v>
+        <v>0.03616972318132852</v>
       </c>
       <c r="J317">
         <v>0.1115646975862836</v>
       </c>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317">
+        <v>0.1115646975862836</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
       <c r="A318" s="2">
         <v>43586</v>
       </c>
@@ -10493,7 +11441,7 @@
         <v>275.2699890136719</v>
       </c>
       <c r="F318">
-        <v>262.8642883300781</v>
+        <v>262.8643188476562</v>
       </c>
       <c r="G318">
         <v>86862800</v>
@@ -10502,13 +11450,16 @@
         <v>-0.06377117441198232</v>
       </c>
       <c r="I318">
-        <v>0.01598134839170551</v>
+        <v>0.03653578381396364</v>
       </c>
       <c r="J318">
         <v>0.01598134839170551</v>
       </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318">
+        <v>0.01598134839170551</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
       <c r="A319" s="2">
         <v>43617</v>
       </c>
@@ -10534,13 +11485,16 @@
         <v>0.06440953134723126</v>
       </c>
       <c r="I319">
-        <v>0.0800648824772876</v>
+        <v>0.03684316328302988</v>
       </c>
       <c r="J319">
         <v>0.0800648824772876</v>
       </c>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319">
+        <v>0.0800648824772876</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
       <c r="A320" s="2">
         <v>43647</v>
       </c>
@@ -10566,13 +11520,16 @@
         <v>0.01511942892758111</v>
       </c>
       <c r="I320">
-        <v>0.05722819063718965</v>
+        <v>0.03636885027519196</v>
       </c>
       <c r="J320">
         <v>0.05722819063718965</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320">
+        <v>0.05722819063718965</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
       <c r="A321" s="2">
         <v>43678</v>
       </c>
@@ -10589,7 +11546,7 @@
         <v>292.4500122070312</v>
       </c>
       <c r="F321">
-        <v>280.6282958984375</v>
+        <v>280.6283569335938</v>
       </c>
       <c r="G321">
         <v>62901200</v>
@@ -10598,13 +11555,16 @@
         <v>-0.01674337017577954</v>
       </c>
       <c r="I321">
-        <v>0.007371481059675</v>
+        <v>0.03636338675158579</v>
       </c>
       <c r="J321">
         <v>0.007371481059675</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321">
+        <v>0.007371481059675</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
       <c r="A322" s="2">
         <v>43709</v>
       </c>
@@ -10630,13 +11590,16 @@
         <v>0.01477167593203044</v>
       </c>
       <c r="I322">
-        <v>0.02081035968480149</v>
+        <v>0.03631489345922245</v>
       </c>
       <c r="J322">
         <v>0.02081035968480149</v>
       </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322">
+        <v>0.02081035968480149</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
       <c r="A323" s="2">
         <v>43739</v>
       </c>
@@ -10653,7 +11616,7 @@
         <v>303.3299865722656</v>
       </c>
       <c r="F323">
-        <v>292.4126892089844</v>
+        <v>292.4126586914062</v>
       </c>
       <c r="G323">
         <v>69053800</v>
@@ -10662,13 +11625,16 @@
         <v>0.02210465276625917</v>
       </c>
       <c r="I323">
-        <v>0.1208291065272411</v>
+        <v>0.0362379658376206</v>
       </c>
       <c r="J323">
         <v>0.1208291065272411</v>
       </c>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323">
+        <v>0.1208291065272411</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
       <c r="A324" s="2">
         <v>43770</v>
       </c>
@@ -10685,7 +11651,7 @@
         <v>314.3099975585938</v>
       </c>
       <c r="F324">
-        <v>302.9975280761719</v>
+        <v>302.9974670410156</v>
       </c>
       <c r="G324">
         <v>36592700</v>
@@ -10694,13 +11660,16 @@
         <v>0.03619823780169606</v>
       </c>
       <c r="I324">
-        <v>0.1402503338223453</v>
+        <v>0.03600529719979574</v>
       </c>
       <c r="J324">
         <v>0.1402503338223453</v>
       </c>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324">
+        <v>0.1402503338223453</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
       <c r="A325" s="2">
         <v>43800</v>
       </c>
@@ -10717,7 +11686,7 @@
         <v>321.8599853515625</v>
       </c>
       <c r="F325">
-        <v>311.8012390136719</v>
+        <v>311.8012084960938</v>
       </c>
       <c r="G325">
         <v>57077300</v>
@@ -10726,13 +11695,16 @@
         <v>0.02402083246353404</v>
       </c>
       <c r="I325">
-        <v>0.28785206349908</v>
+        <v>0.03602794440512686</v>
       </c>
       <c r="J325">
         <v>0.28785206349908</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325">
+        <v>0.28785206349908</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
       <c r="A326" s="2">
         <v>43831</v>
       </c>
@@ -10749,7 +11721,7 @@
         <v>321.7300109863281</v>
       </c>
       <c r="F326">
-        <v>311.6753540039062</v>
+        <v>311.67529296875</v>
       </c>
       <c r="G326">
         <v>113845600</v>
@@ -10758,13 +11730,16 @@
         <v>-0.0004038226904546915</v>
       </c>
       <c r="I326">
-        <v>0.1919016771610296</v>
+        <v>0.03579208802108431</v>
       </c>
       <c r="J326">
         <v>0.1919016771610296</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326">
+        <v>0.1919016771610296</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
       <c r="A327" s="2">
         <v>43862</v>
       </c>
@@ -10790,13 +11765,16 @@
         <v>-0.07916576120026764</v>
       </c>
       <c r="I327">
-        <v>0.06308316905367684</v>
+        <v>0.0366459445660249</v>
       </c>
       <c r="J327">
         <v>0.06308316905367684</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327">
+        <v>0.06308316905367684</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
       <c r="A328" s="2">
         <v>43891</v>
       </c>
@@ -10813,7 +11791,7 @@
         <v>257.75</v>
       </c>
       <c r="F328">
-        <v>251.1631011962891</v>
+        <v>251.1630706787109</v>
       </c>
       <c r="G328">
         <v>194881100</v>
@@ -10822,13 +11800,16 @@
         <v>-0.1299872021069963</v>
       </c>
       <c r="I328">
-        <v>-0.08754605644476932</v>
+        <v>0.03851660257168064</v>
       </c>
       <c r="J328">
         <v>-0.08754605644476932</v>
       </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328">
+        <v>-0.08754605644476932</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
       <c r="A329" s="2">
         <v>43922</v>
       </c>
@@ -10845,7 +11826,7 @@
         <v>290.4800109863281</v>
       </c>
       <c r="F329">
-        <v>283.0566711425781</v>
+        <v>283.0566101074219</v>
       </c>
       <c r="G329">
         <v>122901700</v>
@@ -10854,13 +11835,16 @@
         <v>0.1269835537781887</v>
       </c>
       <c r="I329">
-        <v>-0.0120399229971373</v>
+        <v>0.04002973280586091</v>
       </c>
       <c r="J329">
         <v>-0.0120399229971373</v>
       </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329">
+        <v>-0.0120399229971373</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
       <c r="A330" s="2">
         <v>43952</v>
       </c>
@@ -10877,7 +11861,7 @@
         <v>304.3200073242188</v>
       </c>
       <c r="F330">
-        <v>296.5429992675781</v>
+        <v>296.54296875</v>
       </c>
       <c r="G330">
         <v>119090800</v>
@@ -10886,13 +11870,16 @@
         <v>0.04764526237415367</v>
       </c>
       <c r="I330">
-        <v>0.1055328203943948</v>
+        <v>0.03936488537855981</v>
       </c>
       <c r="J330">
         <v>0.1055328203943948</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330">
+        <v>0.1055328203943948</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
       <c r="A331" s="2">
         <v>43983</v>
       </c>
@@ -10909,7 +11896,7 @@
         <v>308.3599853515625</v>
       </c>
       <c r="F331">
-        <v>301.8019714355469</v>
+        <v>301.8020324707031</v>
       </c>
       <c r="G331">
         <v>113394800</v>
@@ -10918,13 +11905,16 @@
         <v>0.01327542695225947</v>
       </c>
       <c r="I331">
-        <v>0.05242315819645915</v>
+        <v>0.03890064560260036</v>
       </c>
       <c r="J331">
         <v>0.05242315819645915</v>
       </c>
-    </row>
-    <row r="332" spans="1:10">
+      <c r="K331">
+        <v>0.05242315819645915</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
       <c r="A332" s="2">
         <v>44013</v>
       </c>
@@ -10950,13 +11940,16 @@
         <v>0.05889221859121929</v>
       </c>
       <c r="I332">
-        <v>0.09780451553048541</v>
+        <v>0.03879130850328801</v>
       </c>
       <c r="J332">
         <v>0.09780451553048541</v>
       </c>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332">
+        <v>0.09780451553048541</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
       <c r="A333" s="2">
         <v>44044</v>
       </c>
@@ -10982,13 +11975,16 @@
         <v>0.06979667190901329</v>
       </c>
       <c r="I333">
-        <v>0.1944263394706585</v>
+        <v>0.03884332403610546</v>
       </c>
       <c r="J333">
         <v>0.1944263394706585</v>
       </c>
-    </row>
-    <row r="334" spans="1:10">
+      <c r="K333">
+        <v>0.1944263394706585</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
       <c r="A334" s="2">
         <v>44075</v>
       </c>
@@ -11014,13 +12010,16 @@
         <v>-0.04128133466245099</v>
       </c>
       <c r="I334">
-        <v>0.1284497322706357</v>
+        <v>0.03854561567542247</v>
       </c>
       <c r="J334">
         <v>0.1284497322706357</v>
       </c>
-    </row>
-    <row r="335" spans="1:10">
+      <c r="K334">
+        <v>0.1284497322706357</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
       <c r="A335" s="2">
         <v>44105</v>
       </c>
@@ -11037,7 +12036,7 @@
         <v>326.5400085449219</v>
       </c>
       <c r="F335">
-        <v>320.8746948242188</v>
+        <v>320.8746643066406</v>
       </c>
       <c r="G335">
         <v>120287300</v>
@@ -11046,13 +12045,16 @@
         <v>-0.02493357740833613</v>
       </c>
       <c r="I335">
-        <v>0.07651740019157871</v>
+        <v>0.0385848744764896</v>
       </c>
       <c r="J335">
         <v>0.07651740019157871</v>
       </c>
-    </row>
-    <row r="336" spans="1:10">
+      <c r="K335">
+        <v>0.07651740019157871</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
       <c r="A336" s="2">
         <v>44136</v>
       </c>
@@ -11078,13 +12080,16 @@
         <v>0.1087768361737684</v>
       </c>
       <c r="I336">
-        <v>0.1519200800830347</v>
+        <v>0.03962992751975451</v>
       </c>
       <c r="J336">
         <v>0.1519200800830347</v>
       </c>
-    </row>
-    <row r="337" spans="1:10">
+      <c r="K336">
+        <v>0.1519200800830347</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
       <c r="A337" s="2">
         <v>44166</v>
       </c>
@@ -11110,13 +12115,16 @@
         <v>0.03264654312523407</v>
       </c>
       <c r="I337">
-        <v>0.1616231339674901</v>
+        <v>0.03940503392749886</v>
       </c>
       <c r="J337">
         <v>0.1616231339674901</v>
       </c>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="K337">
+        <v>0.1616231339674901</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" s="2">
         <v>44197</v>
       </c>
@@ -11142,13 +12150,16 @@
         <v>-0.01019042877082432</v>
       </c>
       <c r="I338">
-        <v>0.1502501932900031</v>
+        <v>0.03942787044206585</v>
       </c>
       <c r="J338">
         <v>0.1502501932900031</v>
       </c>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338">
+        <v>0.1502501932900031</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
       <c r="A339" s="2">
         <v>44228</v>
       </c>
@@ -11174,13 +12185,16 @@
         <v>0.02780549037665914</v>
       </c>
       <c r="I339">
-        <v>0.2838721825887673</v>
+        <v>0.03939581756106191</v>
       </c>
       <c r="J339">
         <v>0.2838721825887673</v>
       </c>
-    </row>
-    <row r="340" spans="1:10">
+      <c r="K339">
+        <v>0.2838721825887673</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
       <c r="A340" s="2">
         <v>44256</v>
       </c>
@@ -11206,13 +12220,16 @@
         <v>0.04198654389457457</v>
       </c>
       <c r="I340">
-        <v>0.5376527122105359</v>
+        <v>0.03948579162299397</v>
       </c>
       <c r="J340">
         <v>0.5376527122105359</v>
       </c>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="K340">
+        <v>0.5376527122105359</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
       <c r="A341" s="2">
         <v>44287</v>
       </c>
@@ -11238,13 +12255,16 @@
         <v>0.05291045828267027</v>
       </c>
       <c r="I341">
-        <v>0.4365876205251507</v>
+        <v>0.03964294684251781</v>
       </c>
       <c r="J341">
         <v>0.4365876205251507</v>
       </c>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341">
+        <v>0.4365876205251507</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
       <c r="A342" s="2">
         <v>44317</v>
       </c>
@@ -11261,7 +12281,7 @@
         <v>420.0400085449219</v>
       </c>
       <c r="F342">
-        <v>415.8695983886719</v>
+        <v>415.8695678710938</v>
       </c>
       <c r="G342">
         <v>58520200</v>
@@ -11270,13 +12290,16 @@
         <v>0.006566069571304345</v>
       </c>
       <c r="I342">
-        <v>0.3802576184135553</v>
+        <v>0.03959565920919212</v>
       </c>
       <c r="J342">
         <v>0.3802576184135553</v>
       </c>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342">
+        <v>0.3802576184135553</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
       <c r="A343" s="2">
         <v>44348</v>
       </c>
@@ -11302,13 +12325,16 @@
         <v>0.01909339313046443</v>
       </c>
       <c r="I343">
-        <v>0.3881827016905608</v>
+        <v>0.03949356282478176</v>
       </c>
       <c r="J343">
         <v>0.3881827016905608</v>
       </c>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="K343">
+        <v>0.3881827016905608</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
       <c r="A344" s="2">
         <v>44378</v>
       </c>
@@ -11334,13 +12360,16 @@
         <v>0.02441249419855174</v>
       </c>
       <c r="I344">
-        <v>0.3429805969620559</v>
+        <v>0.03941210763305084</v>
       </c>
       <c r="J344">
         <v>0.3429805969620559</v>
       </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="K344">
+        <v>0.3429805969620559</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
       <c r="A345" s="2">
         <v>44409</v>
       </c>
@@ -11366,13 +12395,16 @@
         <v>0.02975984014582411</v>
       </c>
       <c r="I345">
-        <v>0.2927199356292356</v>
+        <v>0.03897681873167859</v>
       </c>
       <c r="J345">
         <v>0.2927199356292356</v>
       </c>
-    </row>
-    <row r="346" spans="1:10">
+      <c r="K345">
+        <v>0.2927199356292356</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
       <c r="A346" s="2">
         <v>44440</v>
       </c>
@@ -11398,13 +12430,16 @@
         <v>-0.04965006429128405</v>
       </c>
       <c r="I346">
-        <v>0.2814356829926452</v>
+        <v>0.03858438859430274</v>
       </c>
       <c r="J346">
         <v>0.2814356829926452</v>
       </c>
-    </row>
-    <row r="347" spans="1:10">
+      <c r="K346">
+        <v>0.2814356829926452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
       <c r="A347" s="2">
         <v>44470</v>
       </c>
@@ -11430,13 +12465,16 @@
         <v>0.07016354645052014</v>
       </c>
       <c r="I347">
-        <v>0.4064126538320383</v>
+        <v>0.03791715599423379</v>
       </c>
       <c r="J347">
         <v>0.4064126538320383</v>
       </c>
-    </row>
-    <row r="348" spans="1:10">
+      <c r="K347">
+        <v>0.4064126538320383</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
       <c r="A348" s="2">
         <v>44501</v>
       </c>
@@ -11462,42 +12500,83 @@
         <v>-0.008034844728157298</v>
       </c>
       <c r="I348">
-        <v>0.2582444916049267</v>
+        <v>0.03793265783797587</v>
       </c>
       <c r="J348">
         <v>0.2582444916049267</v>
       </c>
-    </row>
-    <row r="349" spans="1:10">
+      <c r="K348">
+        <v>0.2582444916049267</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
       <c r="A349" s="2">
         <v>44531</v>
       </c>
       <c r="B349">
-        <v>477.9299926757812</v>
+        <v>475.6400146484375</v>
       </c>
       <c r="C349">
-        <v>479</v>
+        <v>476.8599853515625</v>
       </c>
       <c r="D349">
-        <v>477.5450134277344</v>
+        <v>474.6700134277344</v>
       </c>
       <c r="E349">
-        <v>477.6400146484375</v>
+        <v>474.9599914550781</v>
       </c>
       <c r="F349">
-        <v>477.6400146484375</v>
+        <v>474.9599914550781</v>
       </c>
       <c r="G349">
-        <v>31462990</v>
+        <v>65210500</v>
       </c>
       <c r="H349">
-        <v>0.04846785759981875</v>
+        <v>0.04258493722111578</v>
       </c>
       <c r="I349">
-        <v>0.277522222131529</v>
+        <v>0.03803165217461472</v>
       </c>
       <c r="J349">
-        <v>0.277522222131529</v>
+        <v>0.2703540848726258</v>
+      </c>
+      <c r="K349">
+        <v>0.2703540848726258</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B350">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="C350">
+        <v>477.7200012207031</v>
+      </c>
+      <c r="D350">
+        <v>473.8550109863281</v>
+      </c>
+      <c r="E350">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="F350">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="G350">
+        <v>38029508</v>
+      </c>
+      <c r="H350">
+        <v>0.004400362926333612</v>
+      </c>
+      <c r="I350">
+        <v>0.03790447387278648</v>
+      </c>
+      <c r="J350">
+        <v>0.2890803857417841</v>
+      </c>
+      <c r="K350">
+        <v>0.2890803857417841</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/SPY.xlsx
+++ b/etf_dfs/SPY.xlsx
@@ -508,7 +508,7 @@
         <v>43.9375</v>
       </c>
       <c r="F2" t="n">
-        <v>25.62735176086426</v>
+        <v>25.62735557556152</v>
       </c>
       <c r="G2" t="n">
         <v>1003200</v>
@@ -535,7 +535,7 @@
         <v>44.40625</v>
       </c>
       <c r="F3" t="n">
-        <v>25.9007453918457</v>
+        <v>25.90075302124023</v>
       </c>
       <c r="G3" t="n">
         <v>66200</v>
@@ -564,7 +564,7 @@
         <v>45.1875</v>
       </c>
       <c r="F4" t="n">
-        <v>26.48090934753418</v>
+        <v>26.48090744018555</v>
       </c>
       <c r="G4" t="n">
         <v>111600</v>
@@ -595,7 +595,7 @@
         <v>44.03125</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8033332824707</v>
+        <v>25.80331993103027</v>
       </c>
       <c r="G5" t="n">
         <v>88500</v>
@@ -626,7 +626,7 @@
         <v>45.21875</v>
       </c>
       <c r="F6" t="n">
-        <v>26.49923133850098</v>
+        <v>26.49921989440918</v>
       </c>
       <c r="G6" t="n">
         <v>79100</v>
@@ -657,7 +657,7 @@
         <v>45.0625</v>
       </c>
       <c r="F7" t="n">
-        <v>26.59482002258301</v>
+        <v>26.59481430053711</v>
       </c>
       <c r="G7" t="n">
         <v>437600</v>
@@ -688,7 +688,7 @@
         <v>44.84375</v>
       </c>
       <c r="F8" t="n">
-        <v>26.4657039642334</v>
+        <v>26.46572494506836</v>
       </c>
       <c r="G8" t="n">
         <v>75300</v>
@@ -719,7 +719,7 @@
         <v>46.5625</v>
       </c>
       <c r="F9" t="n">
-        <v>27.48006629943848</v>
+        <v>27.48008155822754</v>
       </c>
       <c r="G9" t="n">
         <v>66500</v>
@@ -750,7 +750,7 @@
         <v>45.9375</v>
       </c>
       <c r="F10" t="n">
-        <v>27.28015518188477</v>
+        <v>27.28014373779297</v>
       </c>
       <c r="G10" t="n">
         <v>99300</v>
@@ -781,7 +781,7 @@
         <v>46.84375</v>
       </c>
       <c r="F11" t="n">
-        <v>27.81832695007324</v>
+        <v>27.81831550598145</v>
       </c>
       <c r="G11" t="n">
         <v>80700</v>
@@ -812,7 +812,7 @@
         <v>46.34375</v>
       </c>
       <c r="F12" t="n">
-        <v>27.52138710021973</v>
+        <v>27.52139091491699</v>
       </c>
       <c r="G12" t="n">
         <v>230000</v>
@@ -843,7 +843,7 @@
         <v>46.59375</v>
       </c>
       <c r="F13" t="n">
-        <v>27.8592700958252</v>
+        <v>27.85927200317383</v>
       </c>
       <c r="G13" t="n">
         <v>312900</v>
@@ -874,7 +874,7 @@
         <v>48.21875</v>
       </c>
       <c r="F14" t="n">
-        <v>28.83088302612305</v>
+        <v>28.83088493347168</v>
       </c>
       <c r="G14" t="n">
         <v>313800</v>
@@ -909,7 +909,7 @@
         <v>46.8125</v>
       </c>
       <c r="F15" t="n">
-        <v>27.99006462097168</v>
+        <v>27.99007225036621</v>
       </c>
       <c r="G15" t="n">
         <v>333000</v>
@@ -944,7 +944,7 @@
         <v>44.59375</v>
       </c>
       <c r="F16" t="n">
-        <v>26.81723785400391</v>
+        <v>26.81724739074707</v>
       </c>
       <c r="G16" t="n">
         <v>788800</v>
@@ -979,7 +979,7 @@
         <v>45.09375</v>
       </c>
       <c r="F17" t="n">
-        <v>27.1179313659668</v>
+        <v>27.1179084777832</v>
       </c>
       <c r="G17" t="n">
         <v>481900</v>
@@ -1049,7 +1049,7 @@
         <v>44.46875</v>
       </c>
       <c r="F19" t="n">
-        <v>26.91888427734375</v>
+        <v>26.91887474060059</v>
       </c>
       <c r="G19" t="n">
         <v>271900</v>
@@ -1084,7 +1084,7 @@
         <v>45.90625</v>
       </c>
       <c r="F20" t="n">
-        <v>27.78904724121094</v>
+        <v>27.7890453338623</v>
       </c>
       <c r="G20" t="n">
         <v>459100</v>
@@ -1119,7 +1119,7 @@
         <v>47.65625</v>
       </c>
       <c r="F21" t="n">
-        <v>28.84840393066406</v>
+        <v>28.84840774536133</v>
       </c>
       <c r="G21" t="n">
         <v>356200</v>
@@ -1154,7 +1154,7 @@
         <v>46.171875</v>
       </c>
       <c r="F22" t="n">
-        <v>28.11985206604004</v>
+        <v>28.11984825134277</v>
       </c>
       <c r="G22" t="n">
         <v>5200</v>
@@ -1189,7 +1189,7 @@
         <v>47.484375</v>
       </c>
       <c r="F23" t="n">
-        <v>28.91920852661133</v>
+        <v>28.91919898986816</v>
       </c>
       <c r="G23" t="n">
         <v>36300</v>
@@ -1224,7 +1224,7 @@
         <v>45.59375</v>
       </c>
       <c r="F24" t="n">
-        <v>27.76774024963379</v>
+        <v>27.76775550842285</v>
       </c>
       <c r="G24" t="n">
         <v>218800</v>
@@ -1259,7 +1259,7 @@
         <v>45.5625</v>
       </c>
       <c r="F25" t="n">
-        <v>27.9699649810791</v>
+        <v>27.96997833251953</v>
       </c>
       <c r="G25" t="n">
         <v>2209500</v>
@@ -1294,7 +1294,7 @@
         <v>47.09375</v>
       </c>
       <c r="F26" t="n">
-        <v>28.90997314453125</v>
+        <v>28.90997123718262</v>
       </c>
       <c r="G26" t="n">
         <v>127500</v>
@@ -1329,7 +1329,7 @@
         <v>49.015625</v>
       </c>
       <c r="F27" t="n">
-        <v>30.08977508544922</v>
+        <v>30.08978271484375</v>
       </c>
       <c r="G27" t="n">
         <v>493500</v>
@@ -1364,7 +1364,7 @@
         <v>50.109375</v>
       </c>
       <c r="F28" t="n">
-        <v>30.92771530151367</v>
+        <v>30.92770957946777</v>
       </c>
       <c r="G28" t="n">
         <v>541300</v>
@@ -1399,7 +1399,7 @@
         <v>51.59375</v>
       </c>
       <c r="F29" t="n">
-        <v>31.84388732910156</v>
+        <v>31.84386825561523</v>
       </c>
       <c r="G29" t="n">
         <v>130800</v>
@@ -1434,7 +1434,7 @@
         <v>53.640625</v>
       </c>
       <c r="F30" t="n">
-        <v>33.10720825195312</v>
+        <v>33.1071891784668</v>
       </c>
       <c r="G30" t="n">
         <v>564500</v>
@@ -1469,7 +1469,7 @@
         <v>54.40625</v>
       </c>
       <c r="F31" t="n">
-        <v>33.77694320678711</v>
+        <v>33.77696228027344</v>
       </c>
       <c r="G31" t="n">
         <v>714100</v>
@@ -1504,7 +1504,7 @@
         <v>56.15625</v>
       </c>
       <c r="F32" t="n">
-        <v>34.8634147644043</v>
+        <v>34.86341094970703</v>
       </c>
       <c r="G32" t="n">
         <v>342500</v>
@@ -1539,7 +1539,7 @@
         <v>56.40625</v>
       </c>
       <c r="F33" t="n">
-        <v>35.01862335205078</v>
+        <v>35.01860427856445</v>
       </c>
       <c r="G33" t="n">
         <v>491900</v>
@@ -1609,7 +1609,7 @@
         <v>58.3125</v>
       </c>
       <c r="F35" t="n">
-        <v>36.39529800415039</v>
+        <v>36.39529418945312</v>
       </c>
       <c r="G35" t="n">
         <v>508200</v>
@@ -1644,7 +1644,7 @@
         <v>60.90625</v>
       </c>
       <c r="F36" t="n">
-        <v>38.01416778564453</v>
+        <v>38.01416015625</v>
       </c>
       <c r="G36" t="n">
         <v>286200</v>
@@ -1679,7 +1679,7 @@
         <v>61.484375</v>
       </c>
       <c r="F37" t="n">
-        <v>38.61223220825195</v>
+        <v>38.61226272583008</v>
       </c>
       <c r="G37" t="n">
         <v>339200</v>
@@ -1714,7 +1714,7 @@
         <v>63.671875</v>
       </c>
       <c r="F38" t="n">
-        <v>39.98601150512695</v>
+        <v>39.98600769042969</v>
       </c>
       <c r="G38" t="n">
         <v>498000</v>
@@ -1749,7 +1749,7 @@
         <v>63.875</v>
       </c>
       <c r="F39" t="n">
-        <v>40.11356735229492</v>
+        <v>40.11355209350586</v>
       </c>
       <c r="G39" t="n">
         <v>914300</v>
@@ -1784,7 +1784,7 @@
         <v>64.6875</v>
       </c>
       <c r="F40" t="n">
-        <v>40.80424118041992</v>
+        <v>40.80422210693359</v>
       </c>
       <c r="G40" t="n">
         <v>457700</v>
@@ -1819,7 +1819,7 @@
         <v>65.390625</v>
       </c>
       <c r="F41" t="n">
-        <v>41.24777221679688</v>
+        <v>41.24774932861328</v>
       </c>
       <c r="G41" t="n">
         <v>184400</v>
@@ -1854,7 +1854,7 @@
         <v>66.875</v>
       </c>
       <c r="F42" t="n">
-        <v>42.18410491943359</v>
+        <v>42.18409729003906</v>
       </c>
       <c r="G42" t="n">
         <v>923500</v>
@@ -1924,7 +1924,7 @@
         <v>64.09375</v>
       </c>
       <c r="F44" t="n">
-        <v>40.64391326904297</v>
+        <v>40.64391708374023</v>
       </c>
       <c r="G44" t="n">
         <v>767100</v>
@@ -1959,7 +1959,7 @@
         <v>65.328125</v>
       </c>
       <c r="F45" t="n">
-        <v>41.42668914794922</v>
+        <v>41.42668533325195</v>
       </c>
       <c r="G45" t="n">
         <v>1500900</v>
@@ -1994,7 +1994,7 @@
         <v>68.625</v>
       </c>
       <c r="F46" t="n">
-        <v>43.74131393432617</v>
+        <v>43.74128723144531</v>
       </c>
       <c r="G46" t="n">
         <v>578200</v>
@@ -2029,7 +2029,7 @@
         <v>70.84375</v>
       </c>
       <c r="F47" t="n">
-        <v>45.15552520751953</v>
+        <v>45.1555061340332</v>
       </c>
       <c r="G47" t="n">
         <v>726300</v>
@@ -2064,7 +2064,7 @@
         <v>76.015625</v>
       </c>
       <c r="F48" t="n">
-        <v>48.45204925537109</v>
+        <v>48.45205688476562</v>
       </c>
       <c r="G48" t="n">
         <v>1073400</v>
@@ -2134,7 +2134,7 @@
         <v>78.40625</v>
       </c>
       <c r="F50" t="n">
-        <v>50.2214241027832</v>
+        <v>50.22143173217773</v>
       </c>
       <c r="G50" t="n">
         <v>3208100</v>
@@ -2169,7 +2169,7 @@
         <v>79.15625</v>
       </c>
       <c r="F51" t="n">
-        <v>50.7017936706543</v>
+        <v>50.70181274414062</v>
       </c>
       <c r="G51" t="n">
         <v>2961200</v>
@@ -2204,7 +2204,7 @@
         <v>75.375</v>
       </c>
       <c r="F52" t="n">
-        <v>48.4647102355957</v>
+        <v>48.4647331237793</v>
       </c>
       <c r="G52" t="n">
         <v>4270700</v>
@@ -2239,7 +2239,7 @@
         <v>80.09375</v>
       </c>
       <c r="F53" t="n">
-        <v>51.49876022338867</v>
+        <v>51.49880981445312</v>
       </c>
       <c r="G53" t="n">
         <v>3372200</v>
@@ -2274,7 +2274,7 @@
         <v>85.15625</v>
       </c>
       <c r="F54" t="n">
-        <v>54.75387191772461</v>
+        <v>54.75388717651367</v>
       </c>
       <c r="G54" t="n">
         <v>2143300</v>
@@ -2309,7 +2309,7 @@
         <v>88.3125</v>
       </c>
       <c r="F55" t="n">
-        <v>57.0044059753418</v>
+        <v>57.00442504882812</v>
       </c>
       <c r="G55" t="n">
         <v>2384900</v>
@@ -2344,7 +2344,7 @@
         <v>95.3125</v>
       </c>
       <c r="F56" t="n">
-        <v>61.52275848388672</v>
+        <v>61.52279663085938</v>
       </c>
       <c r="G56" t="n">
         <v>2138700</v>
@@ -2379,7 +2379,7 @@
         <v>90.375</v>
       </c>
       <c r="F57" t="n">
-        <v>58.33567810058594</v>
+        <v>58.33571243286133</v>
       </c>
       <c r="G57" t="n">
         <v>2652300</v>
@@ -2414,7 +2414,7 @@
         <v>94.375</v>
       </c>
       <c r="F58" t="n">
-        <v>61.14108276367188</v>
+        <v>61.1411247253418</v>
       </c>
       <c r="G58" t="n">
         <v>4137600</v>
@@ -2449,7 +2449,7 @@
         <v>92.0625</v>
       </c>
       <c r="F59" t="n">
-        <v>59.6429328918457</v>
+        <v>59.6429443359375</v>
       </c>
       <c r="G59" t="n">
         <v>7072700</v>
@@ -2484,7 +2484,7 @@
         <v>95.625</v>
       </c>
       <c r="F60" t="n">
-        <v>61.950927734375</v>
+        <v>61.9509391784668</v>
       </c>
       <c r="G60" t="n">
         <v>1564700</v>
@@ -2519,7 +2519,7 @@
         <v>97.0625</v>
       </c>
       <c r="F61" t="n">
-        <v>63.1324348449707</v>
+        <v>63.13240814208984</v>
       </c>
       <c r="G61" t="n">
         <v>4359500</v>
@@ -2554,7 +2554,7 @@
         <v>98.3125</v>
       </c>
       <c r="F62" t="n">
-        <v>63.94546890258789</v>
+        <v>63.94545745849609</v>
       </c>
       <c r="G62" t="n">
         <v>3649100</v>
@@ -2589,7 +2589,7 @@
         <v>105.125</v>
       </c>
       <c r="F63" t="n">
-        <v>68.37656402587891</v>
+        <v>68.37651062011719</v>
       </c>
       <c r="G63" t="n">
         <v>3442900</v>
@@ -2624,7 +2624,7 @@
         <v>109.9375</v>
       </c>
       <c r="F64" t="n">
-        <v>71.71218109130859</v>
+        <v>71.712158203125</v>
       </c>
       <c r="G64" t="n">
         <v>5926500</v>
@@ -2659,7 +2659,7 @@
         <v>111.34375</v>
       </c>
       <c r="F65" t="n">
-        <v>72.62945556640625</v>
+        <v>72.62947082519531</v>
       </c>
       <c r="G65" t="n">
         <v>8684500</v>
@@ -2694,7 +2694,7 @@
         <v>109.03125</v>
       </c>
       <c r="F66" t="n">
-        <v>71.12104034423828</v>
+        <v>71.12103271484375</v>
       </c>
       <c r="G66" t="n">
         <v>4772600</v>
@@ -2729,7 +2729,7 @@
         <v>113.3125</v>
       </c>
       <c r="F67" t="n">
-        <v>74.14891815185547</v>
+        <v>74.14886474609375</v>
       </c>
       <c r="G67" t="n">
         <v>4284800</v>
@@ -2764,7 +2764,7 @@
         <v>111.78125</v>
       </c>
       <c r="F68" t="n">
-        <v>73.14687347412109</v>
+        <v>73.14690399169922</v>
       </c>
       <c r="G68" t="n">
         <v>7680500</v>
@@ -2799,7 +2799,7 @@
         <v>96</v>
       </c>
       <c r="F69" t="n">
-        <v>62.82003021240234</v>
+        <v>62.82004547119141</v>
       </c>
       <c r="G69" t="n">
         <v>22563100</v>
@@ -2834,7 +2834,7 @@
         <v>101.75</v>
       </c>
       <c r="F70" t="n">
-        <v>66.81784820556641</v>
+        <v>66.81786346435547</v>
       </c>
       <c r="G70" t="n">
         <v>7908400</v>
@@ -2904,7 +2904,7 @@
         <v>116.125</v>
       </c>
       <c r="F72" t="n">
-        <v>76.25770568847656</v>
+        <v>76.25772094726562</v>
       </c>
       <c r="G72" t="n">
         <v>8705400</v>
@@ -2939,7 +2939,7 @@
         <v>123.3125</v>
       </c>
       <c r="F73" t="n">
-        <v>81.24669647216797</v>
+        <v>81.2467041015625</v>
       </c>
       <c r="G73" t="n">
         <v>6790500</v>
@@ -2974,7 +2974,7 @@
         <v>127.65625</v>
       </c>
       <c r="F74" t="n">
-        <v>84.10865020751953</v>
+        <v>84.10859680175781</v>
       </c>
       <c r="G74" t="n">
         <v>6456800</v>
@@ -3009,7 +3009,7 @@
         <v>123.5625</v>
       </c>
       <c r="F75" t="n">
-        <v>81.41138458251953</v>
+        <v>81.41136932373047</v>
       </c>
       <c r="G75" t="n">
         <v>9621300</v>
@@ -3044,7 +3044,7 @@
         <v>128.375</v>
       </c>
       <c r="F76" t="n">
-        <v>84.78732299804688</v>
+        <v>84.78733062744141</v>
       </c>
       <c r="G76" t="n">
         <v>7413600</v>
@@ -3079,7 +3079,7 @@
         <v>133.25</v>
       </c>
       <c r="F77" t="n">
-        <v>88.00710296630859</v>
+        <v>88.00711822509766</v>
       </c>
       <c r="G77" t="n">
         <v>10991900</v>
@@ -3114,7 +3114,7 @@
         <v>130.203125</v>
       </c>
       <c r="F78" t="n">
-        <v>85.99474334716797</v>
+        <v>85.99476623535156</v>
       </c>
       <c r="G78" t="n">
         <v>8748000</v>
@@ -3149,7 +3149,7 @@
         <v>137</v>
       </c>
       <c r="F79" t="n">
-        <v>90.75704193115234</v>
+        <v>90.75701904296875</v>
       </c>
       <c r="G79" t="n">
         <v>16856100</v>
@@ -3184,7 +3184,7 @@
         <v>132.75</v>
       </c>
       <c r="F80" t="n">
-        <v>87.94157409667969</v>
+        <v>87.9415283203125</v>
       </c>
       <c r="G80" t="n">
         <v>5994300</v>
@@ -3219,7 +3219,7 @@
         <v>132.0625</v>
       </c>
       <c r="F81" t="n">
-        <v>87.48614501953125</v>
+        <v>87.48616027832031</v>
       </c>
       <c r="G81" t="n">
         <v>11453700</v>
@@ -3254,7 +3254,7 @@
         <v>128.75</v>
       </c>
       <c r="F82" t="n">
-        <v>85.53193664550781</v>
+        <v>85.53195953369141</v>
       </c>
       <c r="G82" t="n">
         <v>7498900</v>
@@ -3289,7 +3289,7 @@
         <v>137</v>
       </c>
       <c r="F83" t="n">
-        <v>91.01264953613281</v>
+        <v>91.01262664794922</v>
       </c>
       <c r="G83" t="n">
         <v>10988600</v>
@@ -3324,7 +3324,7 @@
         <v>139.28125</v>
       </c>
       <c r="F84" t="n">
-        <v>92.52812194824219</v>
+        <v>92.52813720703125</v>
       </c>
       <c r="G84" t="n">
         <v>7682000</v>
@@ -3359,7 +3359,7 @@
         <v>146.875</v>
       </c>
       <c r="F85" t="n">
-        <v>97.81231689453125</v>
+        <v>97.81234741210938</v>
       </c>
       <c r="G85" t="n">
         <v>3172700</v>
@@ -3394,7 +3394,7 @@
         <v>139.5625</v>
       </c>
       <c r="F86" t="n">
-        <v>92.94253540039062</v>
+        <v>92.94255065917969</v>
       </c>
       <c r="G86" t="n">
         <v>10768700</v>
@@ -3429,7 +3429,7 @@
         <v>137.4375</v>
       </c>
       <c r="F87" t="n">
-        <v>91.52735137939453</v>
+        <v>91.52738189697266</v>
       </c>
       <c r="G87" t="n">
         <v>8242500</v>
@@ -3464,7 +3464,7 @@
         <v>150.375</v>
       </c>
       <c r="F88" t="n">
-        <v>100.3977432250977</v>
+        <v>100.3977203369141</v>
       </c>
       <c r="G88" t="n">
         <v>9249100</v>
@@ -3569,7 +3569,7 @@
         <v>145.28125</v>
       </c>
       <c r="F91" t="n">
-        <v>97.22526550292969</v>
+        <v>97.22525024414062</v>
       </c>
       <c r="G91" t="n">
         <v>7420200</v>
@@ -3639,7 +3639,7 @@
         <v>152.34375</v>
       </c>
       <c r="F93" t="n">
-        <v>101.9516372680664</v>
+        <v>101.9515991210938</v>
       </c>
       <c r="G93" t="n">
         <v>4863100</v>
@@ -3674,7 +3674,7 @@
         <v>143.625</v>
       </c>
       <c r="F94" t="n">
-        <v>96.35836791992188</v>
+        <v>96.35832977294922</v>
       </c>
       <c r="G94" t="n">
         <v>9333600</v>
@@ -3709,7 +3709,7 @@
         <v>142.953125</v>
       </c>
       <c r="F95" t="n">
-        <v>95.90754699707031</v>
+        <v>95.90755462646484</v>
       </c>
       <c r="G95" t="n">
         <v>7752400</v>
@@ -3744,7 +3744,7 @@
         <v>132.28125</v>
       </c>
       <c r="F96" t="n">
-        <v>88.74776458740234</v>
+        <v>88.74773406982422</v>
       </c>
       <c r="G96" t="n">
         <v>11201600</v>
@@ -3779,7 +3779,7 @@
         <v>131.1875</v>
       </c>
       <c r="F97" t="n">
-        <v>88.28392791748047</v>
+        <v>88.28395843505859</v>
       </c>
       <c r="G97" t="n">
         <v>8774600</v>
@@ -3814,7 +3814,7 @@
         <v>137.0200042724609</v>
       </c>
       <c r="F98" t="n">
-        <v>92.20899963378906</v>
+        <v>92.20896148681641</v>
       </c>
       <c r="G98" t="n">
         <v>9706900</v>
@@ -3884,7 +3884,7 @@
         <v>116.6900024414062</v>
       </c>
       <c r="F100" t="n">
-        <v>78.7391357421875</v>
+        <v>78.73912811279297</v>
       </c>
       <c r="G100" t="n">
         <v>9183600</v>
@@ -3919,7 +3919,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F101" t="n">
-        <v>85.46662902832031</v>
+        <v>85.46659851074219</v>
       </c>
       <c r="G101" t="n">
         <v>10766900</v>
@@ -3954,7 +3954,7 @@
         <v>125.9499969482422</v>
       </c>
       <c r="F102" t="n">
-        <v>84.98753356933594</v>
+        <v>84.98750305175781</v>
       </c>
       <c r="G102" t="n">
         <v>9874200</v>
@@ -3989,7 +3989,7 @@
         <v>122.5999984741211</v>
       </c>
       <c r="F103" t="n">
-        <v>82.96232604980469</v>
+        <v>82.96234130859375</v>
       </c>
       <c r="G103" t="n">
         <v>9824200</v>
@@ -4024,7 +4024,7 @@
         <v>121.3499984741211</v>
       </c>
       <c r="F104" t="n">
-        <v>82.11643981933594</v>
+        <v>82.11646270751953</v>
       </c>
       <c r="G104" t="n">
         <v>11918100</v>
@@ -4059,7 +4059,7 @@
         <v>114.1500015258789</v>
       </c>
       <c r="F105" t="n">
-        <v>77.24427795410156</v>
+        <v>77.24430847167969</v>
       </c>
       <c r="G105" t="n">
         <v>15985400</v>
@@ -4094,7 +4094,7 @@
         <v>104.4400024414062</v>
       </c>
       <c r="F106" t="n">
-        <v>70.93881225585938</v>
+        <v>70.93878173828125</v>
       </c>
       <c r="G106" t="n">
         <v>21687200</v>
@@ -4129,7 +4129,7 @@
         <v>105.8000030517578</v>
       </c>
       <c r="F107" t="n">
-        <v>71.86252593994141</v>
+        <v>71.862548828125</v>
       </c>
       <c r="G107" t="n">
         <v>28124200</v>
@@ -4164,7 +4164,7 @@
         <v>114.0500030517578</v>
       </c>
       <c r="F108" t="n">
-        <v>77.46620941162109</v>
+        <v>77.46617126464844</v>
       </c>
       <c r="G108" t="n">
         <v>13680300</v>
@@ -4199,7 +4199,7 @@
         <v>114.3000030517578</v>
       </c>
       <c r="F109" t="n">
-        <v>77.90304565429688</v>
+        <v>77.90303802490234</v>
       </c>
       <c r="G109" t="n">
         <v>14619500</v>
@@ -4234,7 +4234,7 @@
         <v>113.1800003051758</v>
       </c>
       <c r="F110" t="n">
-        <v>77.13970184326172</v>
+        <v>77.13967895507812</v>
       </c>
       <c r="G110" t="n">
         <v>19909200</v>
@@ -4269,7 +4269,7 @@
         <v>111.1500015258789</v>
       </c>
       <c r="F111" t="n">
-        <v>75.75613403320312</v>
+        <v>75.75611877441406</v>
       </c>
       <c r="G111" t="n">
         <v>23755400</v>
@@ -4304,7 +4304,7 @@
         <v>114.5199966430664</v>
       </c>
       <c r="F112" t="n">
-        <v>78.27658081054688</v>
+        <v>78.27660369873047</v>
       </c>
       <c r="G112" t="n">
         <v>17532900</v>
@@ -4339,7 +4339,7 @@
         <v>107.8600006103516</v>
       </c>
       <c r="F113" t="n">
-        <v>73.72435760498047</v>
+        <v>73.72434997558594</v>
       </c>
       <c r="G113" t="n">
         <v>19473500</v>
@@ -4374,7 +4374,7 @@
         <v>107.2200012207031</v>
       </c>
       <c r="F114" t="n">
-        <v>73.28691864013672</v>
+        <v>73.28688812255859</v>
       </c>
       <c r="G114" t="n">
         <v>19826300</v>
@@ -4444,7 +4444,7 @@
         <v>91.16000366210938</v>
       </c>
       <c r="F116" t="n">
-        <v>62.52766036987305</v>
+        <v>62.52765274047852</v>
       </c>
       <c r="G116" t="n">
         <v>44669900</v>
@@ -4479,7 +4479,7 @@
         <v>91.77999877929688</v>
       </c>
       <c r="F117" t="n">
-        <v>62.95292282104492</v>
+        <v>62.95291900634766</v>
       </c>
       <c r="G117" t="n">
         <v>30366700</v>
@@ -4514,7 +4514,7 @@
         <v>81.79000091552734</v>
       </c>
       <c r="F118" t="n">
-        <v>56.35219192504883</v>
+        <v>56.35216903686523</v>
       </c>
       <c r="G118" t="n">
         <v>73096400</v>
@@ -4549,7 +4549,7 @@
         <v>88.51999664306641</v>
       </c>
       <c r="F119" t="n">
-        <v>60.98903274536133</v>
+        <v>60.98904418945312</v>
       </c>
       <c r="G119" t="n">
         <v>41620600</v>
@@ -4584,7 +4584,7 @@
         <v>93.98000335693359</v>
       </c>
       <c r="F120" t="n">
-        <v>64.75091552734375</v>
+        <v>64.75090026855469</v>
       </c>
       <c r="G120" t="n">
         <v>19385700</v>
@@ -4654,7 +4654,7 @@
         <v>86.05999755859375</v>
       </c>
       <c r="F122" t="n">
-        <v>59.58552932739258</v>
+        <v>59.58552551269531</v>
       </c>
       <c r="G122" t="n">
         <v>55317000</v>
@@ -4689,7 +4689,7 @@
         <v>84.90000152587891</v>
       </c>
       <c r="F123" t="n">
-        <v>58.78236389160156</v>
+        <v>58.7823600769043</v>
       </c>
       <c r="G123" t="n">
         <v>43666800</v>
@@ -4724,7 +4724,7 @@
         <v>84.73999786376953</v>
       </c>
       <c r="F124" t="n">
-        <v>58.90814590454102</v>
+        <v>58.90816116333008</v>
       </c>
       <c r="G124" t="n">
         <v>61119500</v>
@@ -4759,7 +4759,7 @@
         <v>91.91000366210938</v>
       </c>
       <c r="F125" t="n">
-        <v>63.89245986938477</v>
+        <v>63.89248657226562</v>
       </c>
       <c r="G125" t="n">
         <v>48709100</v>
@@ -4794,7 +4794,7 @@
         <v>96.94999694824219</v>
       </c>
       <c r="F126" t="n">
-        <v>67.3961181640625</v>
+        <v>67.39611053466797</v>
       </c>
       <c r="G126" t="n">
         <v>52529500</v>
@@ -4829,7 +4829,7 @@
         <v>97.62999725341797</v>
       </c>
       <c r="F127" t="n">
-        <v>68.11398315429688</v>
+        <v>68.11400604248047</v>
       </c>
       <c r="G127" t="n">
         <v>33349000</v>
@@ -4864,7 +4864,7 @@
         <v>99.38999938964844</v>
       </c>
       <c r="F128" t="n">
-        <v>69.34189605712891</v>
+        <v>69.34185791015625</v>
       </c>
       <c r="G128" t="n">
         <v>54937200</v>
@@ -4899,7 +4899,7 @@
         <v>101.4400024414062</v>
       </c>
       <c r="F129" t="n">
-        <v>70.77208709716797</v>
+        <v>70.77211761474609</v>
       </c>
       <c r="G129" t="n">
         <v>28706600</v>
@@ -4934,7 +4934,7 @@
         <v>99.94999694824219</v>
       </c>
       <c r="F130" t="n">
-        <v>70.00027465820312</v>
+        <v>70.00025939941406</v>
       </c>
       <c r="G130" t="n">
         <v>70764500</v>
@@ -4969,7 +4969,7 @@
         <v>105.3000030517578</v>
       </c>
       <c r="F131" t="n">
-        <v>73.74715423583984</v>
+        <v>73.74716949462891</v>
       </c>
       <c r="G131" t="n">
         <v>25761600</v>
@@ -5004,7 +5004,7 @@
         <v>106.4499969482422</v>
       </c>
       <c r="F132" t="n">
-        <v>74.55258178710938</v>
+        <v>74.55256652832031</v>
       </c>
       <c r="G132" t="n">
         <v>10507500</v>
@@ -5039,7 +5039,7 @@
         <v>111.2799987792969</v>
       </c>
       <c r="F133" t="n">
-        <v>78.30351257324219</v>
+        <v>78.30352020263672</v>
       </c>
       <c r="G133" t="n">
         <v>31501800</v>
@@ -5074,7 +5074,7 @@
         <v>113.4800033569336</v>
       </c>
       <c r="F134" t="n">
-        <v>79.85157012939453</v>
+        <v>79.85160827636719</v>
       </c>
       <c r="G134" t="n">
         <v>30984400</v>
@@ -5109,7 +5109,7 @@
         <v>115.0199966430664</v>
       </c>
       <c r="F135" t="n">
-        <v>80.93520355224609</v>
+        <v>80.93521881103516</v>
       </c>
       <c r="G135" t="n">
         <v>39312000</v>
@@ -5144,7 +5144,7 @@
         <v>113.0999984741211</v>
       </c>
       <c r="F136" t="n">
-        <v>79.86315155029297</v>
+        <v>79.86320495605469</v>
       </c>
       <c r="G136" t="n">
         <v>48517600</v>
@@ -5214,7 +5214,7 @@
         <v>112.8600006103516</v>
       </c>
       <c r="F138" t="n">
-        <v>79.69369506835938</v>
+        <v>79.69371032714844</v>
       </c>
       <c r="G138" t="n">
         <v>23367200</v>
@@ -5249,7 +5249,7 @@
         <v>114.5299987792969</v>
       </c>
       <c r="F139" t="n">
-        <v>81.16813659667969</v>
+        <v>81.16817474365234</v>
       </c>
       <c r="G139" t="n">
         <v>52230600</v>
@@ -5284,7 +5284,7 @@
         <v>110.8399963378906</v>
       </c>
       <c r="F140" t="n">
-        <v>78.55303955078125</v>
+        <v>78.55305480957031</v>
       </c>
       <c r="G140" t="n">
         <v>41581700</v>
@@ -5319,7 +5319,7 @@
         <v>111.1100006103516</v>
       </c>
       <c r="F141" t="n">
-        <v>78.74435424804688</v>
+        <v>78.74436950683594</v>
       </c>
       <c r="G141" t="n">
         <v>44125300</v>
@@ -5354,7 +5354,7 @@
         <v>111.7600021362305</v>
       </c>
       <c r="F142" t="n">
-        <v>79.53469848632812</v>
+        <v>79.53472900390625</v>
       </c>
       <c r="G142" t="n">
         <v>43536700</v>
@@ -5389,7 +5389,7 @@
         <v>113.1999969482422</v>
       </c>
       <c r="F143" t="n">
-        <v>80.55949401855469</v>
+        <v>80.55950164794922</v>
       </c>
       <c r="G143" t="n">
         <v>48820200</v>
@@ -5424,7 +5424,7 @@
         <v>117.8899993896484</v>
       </c>
       <c r="F144" t="n">
-        <v>84.14585113525391</v>
+        <v>84.14581298828125</v>
       </c>
       <c r="G144" t="n">
         <v>53685200</v>
@@ -5459,7 +5459,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="F145" t="n">
-        <v>86.68035888671875</v>
+        <v>86.68037414550781</v>
       </c>
       <c r="G145" t="n">
         <v>28648800</v>
@@ -5494,7 +5494,7 @@
         <v>118.1600036621094</v>
       </c>
       <c r="F146" t="n">
-        <v>84.73691558837891</v>
+        <v>84.7369384765625</v>
       </c>
       <c r="G146" t="n">
         <v>52532700</v>
@@ -5529,7 +5529,7 @@
         <v>120.629997253418</v>
       </c>
       <c r="F147" t="n">
-        <v>86.50822448730469</v>
+        <v>86.50825500488281</v>
       </c>
       <c r="G147" t="n">
         <v>69381300</v>
@@ -5564,7 +5564,7 @@
         <v>117.9599990844727</v>
       </c>
       <c r="F148" t="n">
-        <v>84.92579650878906</v>
+        <v>84.92576599121094</v>
       </c>
       <c r="G148" t="n">
         <v>64575400</v>
@@ -5599,7 +5599,7 @@
         <v>115.75</v>
       </c>
       <c r="F149" t="n">
-        <v>83.33469390869141</v>
+        <v>83.33467102050781</v>
       </c>
       <c r="G149" t="n">
         <v>103993800</v>
@@ -5634,7 +5634,7 @@
         <v>119.4800033569336</v>
       </c>
       <c r="F150" t="n">
-        <v>86.02013397216797</v>
+        <v>86.02010345458984</v>
       </c>
       <c r="G150" t="n">
         <v>43377200</v>
@@ -5669,7 +5669,7 @@
         <v>119.1800003051758</v>
       </c>
       <c r="F151" t="n">
-        <v>86.15043640136719</v>
+        <v>86.15042114257812</v>
       </c>
       <c r="G151" t="n">
         <v>62288800</v>
@@ -5704,7 +5704,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="F152" t="n">
-        <v>89.4466552734375</v>
+        <v>89.44667816162109</v>
       </c>
       <c r="G152" t="n">
         <v>62358100</v>
@@ -5774,7 +5774,7 @@
         <v>123.0400009155273</v>
       </c>
       <c r="F154" t="n">
-        <v>89.31927490234375</v>
+        <v>89.31926727294922</v>
       </c>
       <c r="G154" t="n">
         <v>47824200</v>
@@ -5809,7 +5809,7 @@
         <v>120.129997253418</v>
       </c>
       <c r="F155" t="n">
-        <v>87.20677185058594</v>
+        <v>87.20677947998047</v>
       </c>
       <c r="G155" t="n">
         <v>77698900</v>
@@ -5844,7 +5844,7 @@
         <v>125.4100036621094</v>
       </c>
       <c r="F156" t="n">
-        <v>91.03972625732422</v>
+        <v>91.03974914550781</v>
       </c>
       <c r="G156" t="n">
         <v>56007200</v>
@@ -5879,7 +5879,7 @@
         <v>124.5100021362305</v>
       </c>
       <c r="F157" t="n">
-        <v>90.86549377441406</v>
+        <v>90.86556243896484</v>
       </c>
       <c r="G157" t="n">
         <v>44645600</v>
@@ -5914,7 +5914,7 @@
         <v>127.5</v>
       </c>
       <c r="F158" t="n">
-        <v>93.04759216308594</v>
+        <v>93.04758453369141</v>
       </c>
       <c r="G158" t="n">
         <v>72937000</v>
@@ -5949,7 +5949,7 @@
         <v>128.2299957275391</v>
       </c>
       <c r="F159" t="n">
-        <v>93.58033752441406</v>
+        <v>93.580322265625</v>
       </c>
       <c r="G159" t="n">
         <v>74394800</v>
@@ -5984,7 +5984,7 @@
         <v>129.8300018310547</v>
       </c>
       <c r="F160" t="n">
-        <v>95.12477111816406</v>
+        <v>95.12477874755859</v>
       </c>
       <c r="G160" t="n">
         <v>62925600</v>
@@ -6019,7 +6019,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F161" t="n">
-        <v>96.32642364501953</v>
+        <v>96.32637786865234</v>
       </c>
       <c r="G161" t="n">
         <v>55854400</v>
@@ -6054,7 +6054,7 @@
         <v>127.5100021362305</v>
       </c>
       <c r="F162" t="n">
-        <v>93.42491912841797</v>
+        <v>93.42494201660156</v>
       </c>
       <c r="G162" t="n">
         <v>86926200</v>
@@ -6124,7 +6124,7 @@
         <v>127.8499984741211</v>
       </c>
       <c r="F164" t="n">
-        <v>94.08808135986328</v>
+        <v>94.08808898925781</v>
       </c>
       <c r="G164" t="n">
         <v>49593100</v>
@@ -6159,7 +6159,7 @@
         <v>130.6399993896484</v>
       </c>
       <c r="F165" t="n">
-        <v>96.14131927490234</v>
+        <v>96.14133453369141</v>
       </c>
       <c r="G165" t="n">
         <v>37510300</v>
@@ -6264,7 +6264,7 @@
         <v>140.5299987792969</v>
       </c>
       <c r="F168" t="n">
-        <v>103.8744735717773</v>
+        <v>103.8744812011719</v>
       </c>
       <c r="G168" t="n">
         <v>83994300</v>
@@ -6299,7 +6299,7 @@
         <v>141.6199951171875</v>
       </c>
       <c r="F169" t="n">
-        <v>105.2634124755859</v>
+        <v>105.2633743286133</v>
       </c>
       <c r="G169" t="n">
         <v>45461200</v>
@@ -6369,7 +6369,7 @@
         <v>140.9299926757812</v>
       </c>
       <c r="F171" t="n">
-        <v>104.7505264282227</v>
+        <v>104.7505493164062</v>
       </c>
       <c r="G171" t="n">
         <v>177536300</v>
@@ -6404,7 +6404,7 @@
         <v>142</v>
       </c>
       <c r="F172" t="n">
-        <v>105.9645080566406</v>
+        <v>105.964485168457</v>
       </c>
       <c r="G172" t="n">
         <v>128194100</v>
@@ -6439,7 +6439,7 @@
         <v>148.2899932861328</v>
       </c>
       <c r="F173" t="n">
-        <v>110.6582717895508</v>
+        <v>110.6582489013672</v>
       </c>
       <c r="G173" t="n">
         <v>100874100</v>
@@ -6509,7 +6509,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F175" t="n">
-        <v>112.7389678955078</v>
+        <v>112.7390060424805</v>
       </c>
       <c r="G175" t="n">
         <v>199701800</v>
@@ -6544,7 +6544,7 @@
         <v>145.7200012207031</v>
       </c>
       <c r="F176" t="n">
-        <v>109.2091445922852</v>
+        <v>109.2091217041016</v>
       </c>
       <c r="G176" t="n">
         <v>316976700</v>
@@ -6579,7 +6579,7 @@
         <v>147.5899963378906</v>
       </c>
       <c r="F177" t="n">
-        <v>110.610595703125</v>
+        <v>110.6105804443359</v>
       </c>
       <c r="G177" t="n">
         <v>185477500</v>
@@ -6614,7 +6614,7 @@
         <v>152.5800018310547</v>
       </c>
       <c r="F178" t="n">
-        <v>114.8927841186523</v>
+        <v>114.8927536010742</v>
       </c>
       <c r="G178" t="n">
         <v>133372100</v>
@@ -6649,7 +6649,7 @@
         <v>154.6499938964844</v>
       </c>
       <c r="F179" t="n">
-        <v>116.4514846801758</v>
+        <v>116.4515228271484</v>
       </c>
       <c r="G179" t="n">
         <v>220954400</v>
@@ -6684,7 +6684,7 @@
         <v>148.6600036621094</v>
       </c>
       <c r="F180" t="n">
-        <v>111.941032409668</v>
+        <v>111.9410400390625</v>
       </c>
       <c r="G180" t="n">
         <v>222908000</v>
@@ -6719,7 +6719,7 @@
         <v>146.2100067138672</v>
       </c>
       <c r="F181" t="n">
-        <v>110.6804809570312</v>
+        <v>110.6804885864258</v>
       </c>
       <c r="G181" t="n">
         <v>108126800</v>
@@ -6754,7 +6754,7 @@
         <v>137.3699951171875</v>
       </c>
       <c r="F182" t="n">
-        <v>103.988639831543</v>
+        <v>103.9886703491211</v>
       </c>
       <c r="G182" t="n">
         <v>343680800</v>
@@ -6789,7 +6789,7 @@
         <v>133.8200073242188</v>
       </c>
       <c r="F183" t="n">
-        <v>101.3012771606445</v>
+        <v>101.3013153076172</v>
       </c>
       <c r="G183" t="n">
         <v>252715200</v>
@@ -6824,7 +6824,7 @@
         <v>131.9700012207031</v>
       </c>
       <c r="F184" t="n">
-        <v>100.3954391479492</v>
+        <v>100.3954467773438</v>
       </c>
       <c r="G184" t="n">
         <v>166692100</v>
@@ -6894,7 +6894,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F186" t="n">
-        <v>106.7704620361328</v>
+        <v>106.7704696655273</v>
       </c>
       <c r="G186" t="n">
         <v>117362000</v>
@@ -6964,7 +6964,7 @@
         <v>126.8300018310547</v>
       </c>
       <c r="F188" t="n">
-        <v>96.96782684326172</v>
+        <v>96.96781158447266</v>
       </c>
       <c r="G188" t="n">
         <v>277402100</v>
@@ -6999,7 +6999,7 @@
         <v>128.7899932861328</v>
       </c>
       <c r="F189" t="n">
-        <v>98.46630859375</v>
+        <v>98.46632385253906</v>
       </c>
       <c r="G189" t="n">
         <v>189195800</v>
@@ -7034,7 +7034,7 @@
         <v>115.9899978637695</v>
       </c>
       <c r="F190" t="n">
-        <v>89.19338226318359</v>
+        <v>89.19338989257812</v>
       </c>
       <c r="G190" t="n">
         <v>328154400</v>
@@ -7104,7 +7104,7 @@
         <v>90.08999633789062</v>
       </c>
       <c r="F192" t="n">
-        <v>69.27694702148438</v>
+        <v>69.27693939208984</v>
       </c>
       <c r="G192" t="n">
         <v>118308100</v>
@@ -7139,7 +7139,7 @@
         <v>90.23999786376953</v>
       </c>
       <c r="F193" t="n">
-        <v>69.95559692382812</v>
+        <v>69.95561218261719</v>
       </c>
       <c r="G193" t="n">
         <v>193987200</v>
@@ -7174,7 +7174,7 @@
         <v>82.83000183105469</v>
       </c>
       <c r="F194" t="n">
-        <v>64.21123504638672</v>
+        <v>64.21120452880859</v>
       </c>
       <c r="G194" t="n">
         <v>383383600</v>
@@ -7209,7 +7209,7 @@
         <v>73.93000030517578</v>
       </c>
       <c r="F195" t="n">
-        <v>57.31184005737305</v>
+        <v>57.31182098388672</v>
       </c>
       <c r="G195" t="n">
         <v>470510900</v>
@@ -7244,7 +7244,7 @@
         <v>79.51999664306641</v>
       </c>
       <c r="F196" t="n">
-        <v>62.08650207519531</v>
+        <v>62.08651351928711</v>
       </c>
       <c r="G196" t="n">
         <v>364238300</v>
@@ -7349,7 +7349,7 @@
         <v>91.94999694824219</v>
       </c>
       <c r="F199" t="n">
-        <v>72.19692993164062</v>
+        <v>72.19696807861328</v>
       </c>
       <c r="G199" t="n">
         <v>228888200</v>
@@ -7384,7 +7384,7 @@
         <v>98.80999755859375</v>
       </c>
       <c r="F200" t="n">
-        <v>77.58326721191406</v>
+        <v>77.583251953125</v>
       </c>
       <c r="G200" t="n">
         <v>207358000</v>
@@ -7454,7 +7454,7 @@
         <v>105.5899963378906</v>
       </c>
       <c r="F202" t="n">
-        <v>83.30168151855469</v>
+        <v>83.3016357421875</v>
       </c>
       <c r="G202" t="n">
         <v>254383000</v>
@@ -7489,7 +7489,7 @@
         <v>103.5599975585938</v>
       </c>
       <c r="F203" t="n">
-        <v>81.70014190673828</v>
+        <v>81.70015716552734</v>
       </c>
       <c r="G203" t="n">
         <v>325608100</v>
@@ -7524,7 +7524,7 @@
         <v>109.9400024414062</v>
       </c>
       <c r="F204" t="n">
-        <v>86.73343658447266</v>
+        <v>86.73344421386719</v>
       </c>
       <c r="G204" t="n">
         <v>160874800</v>
@@ -7559,7 +7559,7 @@
         <v>111.4400024414062</v>
       </c>
       <c r="F205" t="n">
-        <v>88.39016723632812</v>
+        <v>88.39014434814453</v>
       </c>
       <c r="G205" t="n">
         <v>90637900</v>
@@ -7594,7 +7594,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F206" t="n">
-        <v>85.17782592773438</v>
+        <v>85.17783355712891</v>
       </c>
       <c r="G206" t="n">
         <v>310677600</v>
@@ -7629,7 +7629,7 @@
         <v>110.7399978637695</v>
       </c>
       <c r="F207" t="n">
-        <v>87.83494567871094</v>
+        <v>87.83493804931641</v>
       </c>
       <c r="G207" t="n">
         <v>173589300</v>
@@ -7664,7 +7664,7 @@
         <v>117</v>
       </c>
       <c r="F208" t="n">
-        <v>93.18227386474609</v>
+        <v>93.18225860595703</v>
       </c>
       <c r="G208" t="n">
         <v>161078700</v>
@@ -7699,7 +7699,7 @@
         <v>118.8099975585938</v>
       </c>
       <c r="F209" t="n">
-        <v>94.62382507324219</v>
+        <v>94.62380981445312</v>
       </c>
       <c r="G209" t="n">
         <v>270000900</v>
@@ -7734,7 +7734,7 @@
         <v>109.370002746582</v>
       </c>
       <c r="F210" t="n">
-        <v>87.10554504394531</v>
+        <v>87.10552215576172</v>
       </c>
       <c r="G210" t="n">
         <v>297933500</v>
@@ -7769,7 +7769,7 @@
         <v>103.2200012207031</v>
       </c>
       <c r="F211" t="n">
-        <v>82.5986328125</v>
+        <v>82.59862518310547</v>
       </c>
       <c r="G211" t="n">
         <v>284101700</v>
@@ -7839,7 +7839,7 @@
         <v>105.3099975585938</v>
       </c>
       <c r="F213" t="n">
-        <v>84.27104949951172</v>
+        <v>84.27103424072266</v>
       </c>
       <c r="G213" t="n">
         <v>273933100</v>
@@ -7874,7 +7874,7 @@
         <v>114.129997253418</v>
       </c>
       <c r="F214" t="n">
-        <v>91.81792449951172</v>
+        <v>91.81790161132812</v>
       </c>
       <c r="G214" t="n">
         <v>287106700</v>
@@ -7979,7 +7979,7 @@
         <v>125.75</v>
       </c>
       <c r="F217" t="n">
-        <v>101.6982879638672</v>
+        <v>101.6982955932617</v>
       </c>
       <c r="G217" t="n">
         <v>91218900</v>
@@ -8014,7 +8014,7 @@
         <v>128.6799926757812</v>
       </c>
       <c r="F218" t="n">
-        <v>104.0678634643555</v>
+        <v>104.0678558349609</v>
       </c>
       <c r="G218" t="n">
         <v>149249200</v>
@@ -8049,7 +8049,7 @@
         <v>133.1499938964844</v>
       </c>
       <c r="F219" t="n">
-        <v>107.6829299926758</v>
+        <v>107.6829376220703</v>
       </c>
       <c r="G219" t="n">
         <v>141585500</v>
@@ -8084,7 +8084,7 @@
         <v>132.5899963378906</v>
       </c>
       <c r="F220" t="n">
-        <v>107.6958465576172</v>
+        <v>107.6958618164062</v>
       </c>
       <c r="G220" t="n">
         <v>132537100</v>
@@ -8119,7 +8119,7 @@
         <v>136.4299926757812</v>
       </c>
       <c r="F221" t="n">
-        <v>110.8148727416992</v>
+        <v>110.8148880004883</v>
       </c>
       <c r="G221" t="n">
         <v>115094100</v>
@@ -8154,7 +8154,7 @@
         <v>134.8999938964844</v>
       </c>
       <c r="F222" t="n">
-        <v>109.5721435546875</v>
+        <v>109.572135925293</v>
       </c>
       <c r="G222" t="n">
         <v>164731200</v>
@@ -8189,7 +8189,7 @@
         <v>131.9700012207031</v>
       </c>
       <c r="F223" t="n">
-        <v>107.7237167358398</v>
+        <v>107.7236785888672</v>
       </c>
       <c r="G223" t="n">
         <v>223322700</v>
@@ -8224,7 +8224,7 @@
         <v>129.3300018310547</v>
       </c>
       <c r="F224" t="n">
-        <v>105.5687408447266</v>
+        <v>105.568733215332</v>
       </c>
       <c r="G224" t="n">
         <v>307038400</v>
@@ -8294,7 +8294,7 @@
         <v>113.1500015258789</v>
       </c>
       <c r="F226" t="n">
-        <v>92.83926391601562</v>
+        <v>92.83925628662109</v>
       </c>
       <c r="G226" t="n">
         <v>288392300</v>
@@ -8364,7 +8364,7 @@
         <v>124.9899978637695</v>
       </c>
       <c r="F228" t="n">
-        <v>102.5539245605469</v>
+        <v>102.5539398193359</v>
       </c>
       <c r="G228" t="n">
         <v>324439500</v>
@@ -8399,7 +8399,7 @@
         <v>125.5</v>
       </c>
       <c r="F229" t="n">
-        <v>103.6254577636719</v>
+        <v>103.6254653930664</v>
       </c>
       <c r="G229" t="n">
         <v>95599000</v>
@@ -8434,7 +8434,7 @@
         <v>131.3200073242188</v>
       </c>
       <c r="F230" t="n">
-        <v>108.4310531616211</v>
+        <v>108.431037902832</v>
       </c>
       <c r="G230" t="n">
         <v>157212000</v>
@@ -8469,7 +8469,7 @@
         <v>137.0200042724609</v>
       </c>
       <c r="F231" t="n">
-        <v>113.1375427246094</v>
+        <v>113.1375350952148</v>
       </c>
       <c r="G231" t="n">
         <v>185934700</v>
@@ -8504,7 +8504,7 @@
         <v>140.8099975585938</v>
       </c>
       <c r="F232" t="n">
-        <v>116.7764739990234</v>
+        <v>116.7764892578125</v>
       </c>
       <c r="G232" t="n">
         <v>135486800</v>
@@ -8539,7 +8539,7 @@
         <v>139.8699951171875</v>
       </c>
       <c r="F233" t="n">
-        <v>115.9969253540039</v>
+        <v>115.996940612793</v>
       </c>
       <c r="G233" t="n">
         <v>115092200</v>
@@ -8574,7 +8574,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F234" t="n">
-        <v>109.0306243896484</v>
+        <v>109.0306549072266</v>
       </c>
       <c r="G234" t="n">
         <v>196186000</v>
@@ -8609,7 +8609,7 @@
         <v>136.1000061035156</v>
       </c>
       <c r="F235" t="n">
-        <v>113.4552154541016</v>
+        <v>113.4552230834961</v>
       </c>
       <c r="G235" t="n">
         <v>212250900</v>
@@ -8644,7 +8644,7 @@
         <v>137.7100067138672</v>
       </c>
       <c r="F236" t="n">
-        <v>114.7973175048828</v>
+        <v>114.7973251342773</v>
       </c>
       <c r="G236" t="n">
         <v>120575900</v>
@@ -8679,7 +8679,7 @@
         <v>141.1600036621094</v>
       </c>
       <c r="F237" t="n">
-        <v>117.6733245849609</v>
+        <v>117.6732940673828</v>
       </c>
       <c r="G237" t="n">
         <v>151970400</v>
@@ -8714,7 +8714,7 @@
         <v>143.9700012207031</v>
       </c>
       <c r="F238" t="n">
-        <v>120.6564102172852</v>
+        <v>120.6564407348633</v>
       </c>
       <c r="G238" t="n">
         <v>150696100</v>
@@ -8784,7 +8784,7 @@
         <v>142.1499938964844</v>
       </c>
       <c r="F240" t="n">
-        <v>119.1311798095703</v>
+        <v>119.131103515625</v>
       </c>
       <c r="G240" t="n">
         <v>136568300</v>
@@ -8819,7 +8819,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F241" t="n">
-        <v>120.1954956054688</v>
+        <v>120.195556640625</v>
       </c>
       <c r="G241" t="n">
         <v>243935200</v>
@@ -8854,7 +8854,7 @@
         <v>149.6999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>126.3483428955078</v>
+        <v>126.3483581542969</v>
       </c>
       <c r="G242" t="n">
         <v>108975800</v>
@@ -8889,7 +8889,7 @@
         <v>151.6100006103516</v>
       </c>
       <c r="F243" t="n">
-        <v>127.9604339599609</v>
+        <v>127.9603881835938</v>
       </c>
       <c r="G243" t="n">
         <v>126866000</v>
@@ -8924,7 +8924,7 @@
         <v>156.6699981689453</v>
       </c>
       <c r="F244" t="n">
-        <v>132.8192443847656</v>
+        <v>132.8192138671875</v>
       </c>
       <c r="G244" t="n">
         <v>102932800</v>
@@ -8959,7 +8959,7 @@
         <v>159.6799926757812</v>
       </c>
       <c r="F245" t="n">
-        <v>135.3709716796875</v>
+        <v>135.3710174560547</v>
       </c>
       <c r="G245" t="n">
         <v>116010700</v>
@@ -9029,7 +9029,7 @@
         <v>160.4199981689453</v>
       </c>
       <c r="F247" t="n">
-        <v>136.7180023193359</v>
+        <v>136.7179412841797</v>
       </c>
       <c r="G247" t="n">
         <v>160402900</v>
@@ -9099,7 +9099,7 @@
         <v>163.6499938964844</v>
       </c>
       <c r="F249" t="n">
-        <v>139.4707489013672</v>
+        <v>139.4706726074219</v>
       </c>
       <c r="G249" t="n">
         <v>134928900</v>
@@ -9134,7 +9134,7 @@
         <v>168.0099945068359</v>
       </c>
       <c r="F250" t="n">
-        <v>143.8844604492188</v>
+        <v>143.8844909667969</v>
       </c>
       <c r="G250" t="n">
         <v>143937000</v>
@@ -9204,7 +9204,7 @@
         <v>181</v>
       </c>
       <c r="F252" t="n">
-        <v>155.0091705322266</v>
+        <v>155.0091857910156</v>
       </c>
       <c r="G252" t="n">
         <v>55870900</v>
@@ -9239,7 +9239,7 @@
         <v>184.6900024414062</v>
       </c>
       <c r="F253" t="n">
-        <v>159.0280456542969</v>
+        <v>159.0279998779297</v>
       </c>
       <c r="G253" t="n">
         <v>86119900</v>
@@ -9274,7 +9274,7 @@
         <v>178.1799926757812</v>
       </c>
       <c r="F254" t="n">
-        <v>153.4225311279297</v>
+        <v>153.4225463867188</v>
       </c>
       <c r="G254" t="n">
         <v>194677900</v>
@@ -9344,7 +9344,7 @@
         <v>187.0099945068359</v>
       </c>
       <c r="F256" t="n">
-        <v>161.736328125</v>
+        <v>161.7363586425781</v>
       </c>
       <c r="G256" t="n">
         <v>99745000</v>
@@ -9379,7 +9379,7 @@
         <v>188.3099975585938</v>
       </c>
       <c r="F257" t="n">
-        <v>162.8607025146484</v>
+        <v>162.8606719970703</v>
       </c>
       <c r="G257" t="n">
         <v>101508000</v>
@@ -9414,7 +9414,7 @@
         <v>192.6799926757812</v>
       </c>
       <c r="F258" t="n">
-        <v>166.6400604248047</v>
+        <v>166.6400146484375</v>
       </c>
       <c r="G258" t="n">
         <v>76316000</v>
@@ -9449,7 +9449,7 @@
         <v>195.7200012207031</v>
       </c>
       <c r="F259" t="n">
-        <v>170.080322265625</v>
+        <v>170.0803070068359</v>
       </c>
       <c r="G259" t="n">
         <v>70201200</v>
@@ -9484,7 +9484,7 @@
         <v>193.0899963378906</v>
       </c>
       <c r="F260" t="n">
-        <v>167.7948150634766</v>
+        <v>167.7948913574219</v>
       </c>
       <c r="G260" t="n">
         <v>183479000</v>
@@ -9519,7 +9519,7 @@
         <v>200.7100067138672</v>
       </c>
       <c r="F261" t="n">
-        <v>174.4165954589844</v>
+        <v>174.4166259765625</v>
       </c>
       <c r="G261" t="n">
         <v>65907000</v>
@@ -9589,7 +9589,7 @@
         <v>201.6600036621094</v>
       </c>
       <c r="F263" t="n">
-        <v>176.0613403320312</v>
+        <v>176.061279296875</v>
       </c>
       <c r="G263" t="n">
         <v>146903000</v>
@@ -9659,7 +9659,7 @@
         <v>205.5399932861328</v>
       </c>
       <c r="F265" t="n">
-        <v>180.439208984375</v>
+        <v>180.4392242431641</v>
       </c>
       <c r="G265" t="n">
         <v>130333800</v>
@@ -9694,7 +9694,7 @@
         <v>199.4499969482422</v>
       </c>
       <c r="F266" t="n">
-        <v>175.0929565429688</v>
+        <v>175.0929260253906</v>
       </c>
       <c r="G266" t="n">
         <v>197729700</v>
@@ -9729,7 +9729,7 @@
         <v>210.6600036621094</v>
       </c>
       <c r="F267" t="n">
-        <v>184.9339752197266</v>
+        <v>184.9339904785156</v>
       </c>
       <c r="G267" t="n">
         <v>108076000</v>
@@ -9764,7 +9764,7 @@
         <v>206.4299926757812</v>
       </c>
       <c r="F268" t="n">
-        <v>182.0294494628906</v>
+        <v>182.0294189453125</v>
       </c>
       <c r="G268" t="n">
         <v>126768700</v>
@@ -9799,7 +9799,7 @@
         <v>208.4600067138672</v>
       </c>
       <c r="F269" t="n">
-        <v>183.8195495605469</v>
+        <v>183.8195190429688</v>
       </c>
       <c r="G269" t="n">
         <v>161304900</v>
@@ -9834,7 +9834,7 @@
         <v>211.1399993896484</v>
       </c>
       <c r="F270" t="n">
-        <v>186.1827239990234</v>
+        <v>186.1827087402344</v>
       </c>
       <c r="G270" t="n">
         <v>124919600</v>
@@ -9869,7 +9869,7 @@
         <v>205.8500061035156</v>
       </c>
       <c r="F271" t="n">
-        <v>182.4009857177734</v>
+        <v>182.4009704589844</v>
       </c>
       <c r="G271" t="n">
         <v>182925100</v>
@@ -9904,7 +9904,7 @@
         <v>210.5</v>
       </c>
       <c r="F272" t="n">
-        <v>186.5212860107422</v>
+        <v>186.5212707519531</v>
       </c>
       <c r="G272" t="n">
         <v>103266900</v>
@@ -9974,7 +9974,7 @@
         <v>191.6300048828125</v>
       </c>
       <c r="F274" t="n">
-        <v>170.6836242675781</v>
+        <v>170.6836090087891</v>
       </c>
       <c r="G274" t="n">
         <v>163452000</v>
@@ -10009,7 +10009,7 @@
         <v>207.9299926757812</v>
       </c>
       <c r="F275" t="n">
-        <v>185.2018737792969</v>
+        <v>185.2018432617188</v>
       </c>
       <c r="G275" t="n">
         <v>131076900</v>
@@ -10079,7 +10079,7 @@
         <v>203.8699951171875</v>
       </c>
       <c r="F277" t="n">
-        <v>182.6663513183594</v>
+        <v>182.6663818359375</v>
       </c>
       <c r="G277" t="n">
         <v>114877900</v>
@@ -10114,7 +10114,7 @@
         <v>193.7200012207031</v>
       </c>
       <c r="F278" t="n">
-        <v>173.5720062255859</v>
+        <v>173.5720520019531</v>
       </c>
       <c r="G278" t="n">
         <v>210529300</v>
@@ -10149,7 +10149,7 @@
         <v>193.5599975585938</v>
       </c>
       <c r="F279" t="n">
-        <v>173.4286651611328</v>
+        <v>173.4286499023438</v>
       </c>
       <c r="G279" t="n">
         <v>125918100</v>
@@ -10184,7 +10184,7 @@
         <v>205.5200042724609</v>
       </c>
       <c r="F280" t="n">
-        <v>185.0945129394531</v>
+        <v>185.0945281982422</v>
       </c>
       <c r="G280" t="n">
         <v>94584100</v>
@@ -10289,7 +10289,7 @@
         <v>209.4799957275391</v>
       </c>
       <c r="F283" t="n">
-        <v>189.6420745849609</v>
+        <v>189.6420593261719</v>
       </c>
       <c r="G283" t="n">
         <v>165021900</v>
@@ -10324,7 +10324,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="F284" t="n">
-        <v>196.5585632324219</v>
+        <v>196.5585479736328</v>
       </c>
       <c r="G284" t="n">
         <v>79519400</v>
@@ -10464,7 +10464,7 @@
         <v>220.3800048828125</v>
       </c>
       <c r="F288" t="n">
-        <v>200.5176391601562</v>
+        <v>200.5175628662109</v>
       </c>
       <c r="G288" t="n">
         <v>113291800</v>
@@ -10534,7 +10534,7 @@
         <v>227.5299987792969</v>
       </c>
       <c r="F290" t="n">
-        <v>208.2433929443359</v>
+        <v>208.2434387207031</v>
       </c>
       <c r="G290" t="n">
         <v>75880800</v>
@@ -10569,7 +10569,7 @@
         <v>236.4700012207031</v>
       </c>
       <c r="F291" t="n">
-        <v>216.4256134033203</v>
+        <v>216.4255828857422</v>
       </c>
       <c r="G291" t="n">
         <v>96961900</v>
@@ -10674,7 +10674,7 @@
         <v>241.4400024414062</v>
       </c>
       <c r="F294" t="n">
-        <v>221.9356842041016</v>
+        <v>221.9356536865234</v>
       </c>
       <c r="G294" t="n">
         <v>91796000</v>
@@ -10709,7 +10709,7 @@
         <v>241.8000030517578</v>
       </c>
       <c r="F295" t="n">
-        <v>223.3505096435547</v>
+        <v>223.3504943847656</v>
       </c>
       <c r="G295" t="n">
         <v>86820700</v>
@@ -10779,7 +10779,7 @@
         <v>247.4900054931641</v>
       </c>
       <c r="F297" t="n">
-        <v>228.6063385009766</v>
+        <v>228.6063690185547</v>
       </c>
       <c r="G297" t="n">
         <v>103803900</v>
@@ -10849,7 +10849,7 @@
         <v>257.1499938964844</v>
       </c>
       <c r="F299" t="n">
-        <v>238.7080993652344</v>
+        <v>238.7080841064453</v>
       </c>
       <c r="G299" t="n">
         <v>60304800</v>
@@ -10884,7 +10884,7 @@
         <v>265.010009765625</v>
       </c>
       <c r="F300" t="n">
-        <v>246.0044097900391</v>
+        <v>246.0043640136719</v>
       </c>
       <c r="G300" t="n">
         <v>127894400</v>
@@ -10919,7 +10919,7 @@
         <v>266.8599853515625</v>
       </c>
       <c r="F301" t="n">
-        <v>248.9879150390625</v>
+        <v>248.9879302978516</v>
       </c>
       <c r="G301" t="n">
         <v>96007400</v>
@@ -10954,7 +10954,7 @@
         <v>281.8999938964844</v>
       </c>
       <c r="F302" t="n">
-        <v>263.0206909179688</v>
+        <v>263.0206604003906</v>
       </c>
       <c r="G302" t="n">
         <v>108364800</v>
@@ -10989,7 +10989,7 @@
         <v>271.6499938964844</v>
       </c>
       <c r="F303" t="n">
-        <v>253.4571380615234</v>
+        <v>253.4571228027344</v>
       </c>
       <c r="G303" t="n">
         <v>121907800</v>
@@ -11024,7 +11024,7 @@
         <v>263.1499938964844</v>
       </c>
       <c r="F304" t="n">
-        <v>246.5097503662109</v>
+        <v>246.509765625</v>
       </c>
       <c r="G304" t="n">
         <v>111601600</v>
@@ -11059,7 +11059,7 @@
         <v>264.510009765625</v>
       </c>
       <c r="F305" t="n">
-        <v>247.7837219238281</v>
+        <v>247.7837371826172</v>
       </c>
       <c r="G305" t="n">
         <v>82182300</v>
@@ -11094,7 +11094,7 @@
         <v>270.9400024414062</v>
       </c>
       <c r="F306" t="n">
-        <v>253.8072052001953</v>
+        <v>253.8071594238281</v>
       </c>
       <c r="G306" t="n">
         <v>93519900</v>
@@ -11129,7 +11129,7 @@
         <v>271.2799987792969</v>
       </c>
       <c r="F307" t="n">
-        <v>255.2667236328125</v>
+        <v>255.2667541503906</v>
       </c>
       <c r="G307" t="n">
         <v>97592500</v>
@@ -11164,7 +11164,7 @@
         <v>281.3299865722656</v>
       </c>
       <c r="F308" t="n">
-        <v>264.7235717773438</v>
+        <v>264.7235107421875</v>
       </c>
       <c r="G308" t="n">
         <v>68570500</v>
@@ -11199,7 +11199,7 @@
         <v>290.3099975585938</v>
       </c>
       <c r="F309" t="n">
-        <v>273.1734313964844</v>
+        <v>273.1734619140625</v>
       </c>
       <c r="G309" t="n">
         <v>66140800</v>
@@ -11234,7 +11234,7 @@
         <v>290.7200012207031</v>
       </c>
       <c r="F310" t="n">
-        <v>274.797607421875</v>
+        <v>274.7976684570312</v>
       </c>
       <c r="G310" t="n">
         <v>70091400</v>
@@ -11269,7 +11269,7 @@
         <v>270.6300048828125</v>
       </c>
       <c r="F311" t="n">
-        <v>255.8079223632812</v>
+        <v>255.8079528808594</v>
       </c>
       <c r="G311" t="n">
         <v>128296300</v>
@@ -11304,7 +11304,7 @@
         <v>275.6499938964844</v>
       </c>
       <c r="F312" t="n">
-        <v>260.5529174804688</v>
+        <v>260.552978515625</v>
       </c>
       <c r="G312" t="n">
         <v>98204200</v>
@@ -11339,7 +11339,7 @@
         <v>249.9199981689453</v>
       </c>
       <c r="F313" t="n">
-        <v>237.6116485595703</v>
+        <v>237.6116943359375</v>
       </c>
       <c r="G313" t="n">
         <v>144299400</v>
@@ -11374,7 +11374,7 @@
         <v>269.9299926757812</v>
       </c>
       <c r="F314" t="n">
-        <v>256.63623046875</v>
+        <v>256.6361694335938</v>
       </c>
       <c r="G314" t="n">
         <v>104012100</v>
@@ -11444,7 +11444,7 @@
         <v>282.4800109863281</v>
       </c>
       <c r="F316" t="n">
-        <v>269.7511596679688</v>
+        <v>269.7511291503906</v>
       </c>
       <c r="G316" t="n">
         <v>82186800</v>
@@ -11514,7 +11514,7 @@
         <v>275.2699890136719</v>
       </c>
       <c r="F318" t="n">
-        <v>262.865966796875</v>
+        <v>262.8660278320312</v>
       </c>
       <c r="G318" t="n">
         <v>86862800</v>
@@ -11549,7 +11549,7 @@
         <v>293</v>
       </c>
       <c r="F319" t="n">
-        <v>281.1578674316406</v>
+        <v>281.1579284667969</v>
       </c>
       <c r="G319" t="n">
         <v>59350900</v>
@@ -11584,7 +11584,7 @@
         <v>297.4299926757812</v>
       </c>
       <c r="F320" t="n">
-        <v>285.4088745117188</v>
+        <v>285.4088439941406</v>
       </c>
       <c r="G320" t="n">
         <v>104245200</v>
@@ -11619,7 +11619,7 @@
         <v>292.4500122070312</v>
       </c>
       <c r="F321" t="n">
-        <v>280.6301879882812</v>
+        <v>280.6301574707031</v>
       </c>
       <c r="G321" t="n">
         <v>62901200</v>
@@ -11654,7 +11654,7 @@
         <v>296.7699890136719</v>
       </c>
       <c r="F322" t="n">
-        <v>286.0906066894531</v>
+        <v>286.0906372070312</v>
       </c>
       <c r="G322" t="n">
         <v>51662400</v>
@@ -11689,7 +11689,7 @@
         <v>303.3299865722656</v>
       </c>
       <c r="F323" t="n">
-        <v>292.4145202636719</v>
+        <v>292.41455078125</v>
       </c>
       <c r="G323" t="n">
         <v>69053800</v>
@@ -11724,7 +11724,7 @@
         <v>314.3099975585938</v>
       </c>
       <c r="F324" t="n">
-        <v>302.9994201660156</v>
+        <v>302.9994506835938</v>
       </c>
       <c r="G324" t="n">
         <v>36592700</v>
@@ -11759,7 +11759,7 @@
         <v>321.8599853515625</v>
       </c>
       <c r="F325" t="n">
-        <v>311.8032531738281</v>
+        <v>311.80322265625</v>
       </c>
       <c r="G325" t="n">
         <v>57077300</v>
@@ -11794,7 +11794,7 @@
         <v>321.7300109863281</v>
       </c>
       <c r="F326" t="n">
-        <v>311.6772766113281</v>
+        <v>311.6773071289062</v>
       </c>
       <c r="G326" t="n">
         <v>113845600</v>
@@ -11829,7 +11829,7 @@
         <v>296.260009765625</v>
       </c>
       <c r="F327" t="n">
-        <v>287.0032043457031</v>
+        <v>287.0031433105469</v>
       </c>
       <c r="G327" t="n">
         <v>384975800</v>
@@ -11864,7 +11864,7 @@
         <v>257.75</v>
       </c>
       <c r="F328" t="n">
-        <v>251.1646881103516</v>
+        <v>251.1647033691406</v>
       </c>
       <c r="G328" t="n">
         <v>194881100</v>
@@ -11899,7 +11899,7 @@
         <v>290.4800109863281</v>
       </c>
       <c r="F329" t="n">
-        <v>283.0585021972656</v>
+        <v>283.0584411621094</v>
       </c>
       <c r="G329" t="n">
         <v>122901700</v>
@@ -12039,7 +12039,7 @@
         <v>349.3099975585938</v>
       </c>
       <c r="F333" t="n">
-        <v>341.88330078125</v>
+        <v>341.8832702636719</v>
       </c>
       <c r="G333" t="n">
         <v>66099200</v>
@@ -12179,7 +12179,7 @@
         <v>373.8800048828125</v>
       </c>
       <c r="F337" t="n">
-        <v>368.9618225097656</v>
+        <v>368.9617919921875</v>
       </c>
       <c r="G337" t="n">
         <v>78520700</v>
@@ -12249,7 +12249,7 @@
         <v>380.3599853515625</v>
       </c>
       <c r="F339" t="n">
-        <v>375.3565368652344</v>
+        <v>375.3565673828125</v>
       </c>
       <c r="G339" t="n">
         <v>152701600</v>
@@ -12319,7 +12319,7 @@
         <v>417.2999877929688</v>
       </c>
       <c r="F341" t="n">
-        <v>413.1593933105469</v>
+        <v>413.159423828125</v>
       </c>
       <c r="G341" t="n">
         <v>85527000</v>
@@ -12628,28 +12628,28 @@
         <v>479.9800109863281</v>
       </c>
       <c r="D350" t="n">
-        <v>478.6199951171875</v>
+        <v>477.2900085449219</v>
       </c>
       <c r="E350" t="n">
-        <v>478.7200012207031</v>
+        <v>477.2999877929688</v>
       </c>
       <c r="F350" t="n">
-        <v>478.7200012207031</v>
+        <v>477.2999877929688</v>
       </c>
       <c r="G350" t="n">
-        <v>15064590</v>
+        <v>18729920</v>
       </c>
       <c r="H350" t="n">
-        <v>0.007916476825986729</v>
+        <v>0.004926723050339143</v>
       </c>
       <c r="I350" t="n">
-        <v>0.03790028059343984</v>
+        <v>0.03790367317938657</v>
       </c>
       <c r="J350" t="n">
-        <v>0.2935930817038517</v>
+        <v>0.289755933597736</v>
       </c>
       <c r="K350" t="n">
-        <v>0.2935930817038517</v>
+        <v>0.289755933597736</v>
       </c>
     </row>
   </sheetData>
